--- a/Batch.xlsx
+++ b/Batch.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
@@ -16,7 +16,7 @@
     <sheet name="Job描述" sheetId="6" r:id="rId7"/>
     <sheet name="状态描述" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="766">
   <si>
     <t xml:space="preserve">    If fncGetUserGroup() Then</t>
   </si>
@@ -83,7 +83,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -93,7 +93,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -103,7 +103,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -113,7 +113,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -191,7 +191,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -201,7 +201,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -378,7 +378,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -388,7 +388,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -398,7 +398,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -408,7 +408,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -595,7 +595,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -605,7 +605,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1592,7 +1592,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1602,7 +1602,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1776,39 +1776,6 @@
   </si>
   <si>
     <t>修改启动参数</t>
-  </si>
-  <si>
-    <t>1. Create Intermediate Table</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">FROM </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">TBILLORGENDT  A, TBILLORG B, TPLANDETS C , tpaymentdets p, tpolicycert t </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">INTO </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">TINTRBILL </t>
-    </r>
   </si>
   <si>
     <t>然后进入无法操作的Batch页面。</t>
@@ -1821,7 +1788,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1836,7 +1803,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1947,7 +1914,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1957,7 +1924,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1967,7 +1934,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2036,7 +2003,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2046,7 +2013,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2061,7 +2028,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2096,9 +2063,6 @@
     <t xml:space="preserve">as begin </t>
   </si>
   <si>
-    <t xml:space="preserve">INSERT INTO TBILLTRXN  </t>
-  </si>
-  <si>
     <t xml:space="preserve">(  BILLING_ORG_CD, BILLING_TRANS_NO, POLICYCERT_NO ,NAMED_INSURED_NO, RIDER_NO, </t>
   </si>
   <si>
@@ -2150,9 +2114,6 @@
     <t xml:space="preserve">AS BEGIN    </t>
   </si>
   <si>
-    <t xml:space="preserve">UPDATE TPOLICYCERT </t>
-  </si>
-  <si>
     <t xml:space="preserve">SET NXT_BILLING_DATE =        </t>
   </si>
   <si>
@@ -2192,9 +2153,6 @@
     <t xml:space="preserve">DECLARE @CNT1 INT,@CNT2 INT,@CNT3 INT    </t>
   </si>
   <si>
-    <t xml:space="preserve">UPDATE TBILLORGENDT        </t>
-  </si>
-  <si>
     <t xml:space="preserve">SET BILLING_DATE = DATEADD(YY,1,BILLING_DATE),        </t>
   </si>
   <si>
@@ -2288,9 +2246,6 @@
     <t xml:space="preserve">@CNT3 AS BILLORG_DEL_CNT </t>
   </si>
   <si>
-    <t>2.创建E2Billing SP</t>
-  </si>
-  <si>
     <t xml:space="preserve">CREATE PROCEDURE E2BILLING;4 </t>
   </si>
   <si>
@@ -2360,9 +2315,6 @@
     <t xml:space="preserve">deallocate cursor csr1 </t>
   </si>
   <si>
-    <t xml:space="preserve">INSERT INTO TTAPE </t>
-  </si>
-  <si>
     <t xml:space="preserve">(BILLING_ORG_CD, BILLING_TRANS_NO, POLICYCERT_NO, </t>
   </si>
   <si>
@@ -2415,12 +2367,6 @@
   </si>
   <si>
     <t xml:space="preserve">CREATE PROCEDURE E2BILLING;5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPDATE TPAYMENTDETS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SET BANK_DETS_CHGD_FG = 'N'      </t>
   </si>
   <si>
     <t>WHERE EXISTS (</t>
@@ -2481,7 +2427,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2491,7 +2437,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2509,7 +2455,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2519,7 +2465,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2531,9 +2477,6 @@
   </si>
   <si>
     <t>Sub subGProcessBillingTransactions()</t>
-  </si>
-  <si>
-    <t>ebillsvr.exe 10.127.79.54,5000~DWEAU~dino~Password01!~Step1~exec E2BILLING;1 dino</t>
   </si>
   <si>
     <t>ebillsvr.exe 10.127.79.54,5000~DWEAU~dino~Password01!~Step2~exec E2BILLING;2</t>
@@ -2558,7 +2501,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2568,7 +2511,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2576,79 +2519,189 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">SET TAPE_NET_AMT = 0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAPE_TRANS_CNT =  0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANK_CD = '', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEES_ON_TAPE_AMT = 0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAXES_TOTAL_AMT = 0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL_BILL_AMT = 0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BILLING_STATUS_CD = 'E', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPLOAD_STATUS_CD = 'N', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELECT_MEDIA_CD = '', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">REJECT_CNT = 0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">REJECT_AMT = 0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">REJECT_AFTER_CLOSE_CNT = 0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">REJECT_AFTER_CLOSE_AMT = 0 </t>
+  </si>
+  <si>
+    <t>WHERE BILLING_ORG_CD = 'SH0001' AND BILLING_TRANS_NO =  1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.初期化TBILLINGSUMMARY </t>
+  </si>
+  <si>
+    <t>Sub subUpdateBillingRecords()</t>
+  </si>
+  <si>
+    <t>3.执行E2BILLING SP</t>
+  </si>
+  <si>
+    <t>5.按Org写Log</t>
+  </si>
+  <si>
+    <t>1. Create Intermediate Table</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FROM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">TBILLORGENDT  A, TBILLORG B, TPLANDETS C , tpaymentdets p, tpolicycert t </t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">INTO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">TINTRBILL </t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.创建E2Billing SP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO TBILLTRXN  </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UPDATE TPOLICYCERT </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UPDATE TBILLORGENDT        </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">INSERT INTO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">TTAPE </t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UPDATE TPAYMENTDETS </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SET BANK_DETS_CHGD_FG = 'N'      </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DELETE TBILLORGENDT </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ebillsvr.exe 10.127.79.54,5000~DWEAU~dino~Password01!~Step1~exec E2BILLING;1 dino</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">UPDATE TBILLINGSUMMARY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SET TAPE_NET_AMT = 0, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAPE_TRANS_CNT =  0, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BANK_CD = '', </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FEES_ON_TAPE_AMT = 0, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAXES_TOTAL_AMT = 0, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL_BILL_AMT = 0, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BILLING_STATUS_CD = 'E', </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPLOAD_STATUS_CD = 'N', </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELECT_MEDIA_CD = '', </t>
-  </si>
-  <si>
-    <t xml:space="preserve">REJECT_CNT = 0, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">REJECT_AMT = 0, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">REJECT_AFTER_CLOSE_CNT = 0, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">REJECT_AFTER_CLOSE_AMT = 0 </t>
-  </si>
-  <si>
-    <t>WHERE BILLING_ORG_CD = 'SH0001' AND BILLING_TRANS_NO =  1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.初期化TBILLINGSUMMARY </t>
-  </si>
-  <si>
-    <t>Sub subUpdateBillingRecords()</t>
-  </si>
-  <si>
-    <t>3.执行E2BILLING SP</t>
-  </si>
-  <si>
-    <t>5.按Org写Log</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>b) 更新保单表TPOLICYCERT的BillingDate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>a) 更新临时表TINTRBILL的数据到TBILLTRXN表中</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>c) 更新TBILLORGENDT表的BillingDate和NextBillingDate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>d) 登录数据到TTAPE表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">e) 更新TPAYMENTDETS表，BANK_DETS_CHGD_FG = 'N'  </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f) f) 删除TBILLORGENDT表中较早BillingDate的数据，保留这次的数据</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2656,7 +2709,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2664,6 +2717,23 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2824,7 +2894,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2862,9 +2932,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3583,7 +3654,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3618,7 +3689,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3828,7 +3899,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3842,14 +3913,14 @@
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -3870,7 +3941,7 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>1</v>
       </c>
@@ -3891,7 +3962,7 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="6"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
@@ -3912,7 +3983,7 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="6"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
@@ -3935,7 +4006,7 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="6"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>3</v>
       </c>
@@ -3958,7 +4029,7 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="6"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>4</v>
       </c>
@@ -3979,7 +4050,7 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="6"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>5</v>
       </c>
@@ -4000,7 +4071,7 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="6"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>6</v>
       </c>
@@ -4021,7 +4092,7 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="6"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
@@ -4042,7 +4113,7 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="6"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
@@ -4063,7 +4134,7 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="6"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>9</v>
       </c>
@@ -4084,7 +4155,7 @@
       <c r="P22" s="5"/>
       <c r="Q22" s="6"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>10</v>
       </c>
@@ -4105,7 +4176,7 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="6"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>11</v>
       </c>
@@ -4126,7 +4197,7 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="6"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
@@ -4147,7 +4218,7 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="6"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>13</v>
       </c>
@@ -4168,7 +4239,7 @@
       <c r="P26" s="5"/>
       <c r="Q26" s="6"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>14</v>
       </c>
@@ -4189,7 +4260,7 @@
       <c r="P27" s="8"/>
       <c r="Q27" s="9"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
@@ -4210,7 +4281,7 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="3"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -4229,7 +4300,7 @@
       <c r="P30" s="5"/>
       <c r="Q30" s="6"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>26</v>
       </c>
@@ -4250,7 +4321,7 @@
       <c r="P31" s="5"/>
       <c r="Q31" s="6"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>38</v>
       </c>
@@ -4271,7 +4342,7 @@
       <c r="P32" s="5"/>
       <c r="Q32" s="6"/>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>27</v>
       </c>
@@ -4292,7 +4363,7 @@
       <c r="P33" s="5"/>
       <c r="Q33" s="6"/>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>28</v>
       </c>
@@ -4313,7 +4384,7 @@
       <c r="P34" s="5"/>
       <c r="Q34" s="6"/>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>29</v>
       </c>
@@ -4334,7 +4405,7 @@
       <c r="P35" s="5"/>
       <c r="Q35" s="6"/>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>30</v>
       </c>
@@ -4355,7 +4426,7 @@
       <c r="P36" s="5"/>
       <c r="Q36" s="6"/>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>31</v>
       </c>
@@ -4376,7 +4447,7 @@
       <c r="P37" s="5"/>
       <c r="Q37" s="6"/>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>32</v>
       </c>
@@ -4397,7 +4468,7 @@
       <c r="P38" s="5"/>
       <c r="Q38" s="6"/>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>33</v>
       </c>
@@ -4418,7 +4489,7 @@
       <c r="P39" s="5"/>
       <c r="Q39" s="6"/>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>34</v>
       </c>
@@ -4439,7 +4510,7 @@
       <c r="P40" s="5"/>
       <c r="Q40" s="6"/>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>11</v>
       </c>
@@ -4460,7 +4531,7 @@
       <c r="P41" s="5"/>
       <c r="Q41" s="6"/>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>35</v>
       </c>
@@ -4481,7 +4552,7 @@
       <c r="P42" s="5"/>
       <c r="Q42" s="6"/>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>36</v>
       </c>
@@ -4502,7 +4573,7 @@
       <c r="P43" s="5"/>
       <c r="Q43" s="6"/>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>14</v>
       </c>
@@ -4523,7 +4594,7 @@
       <c r="P44" s="5"/>
       <c r="Q44" s="6"/>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -4542,7 +4613,7 @@
       <c r="P45" s="5"/>
       <c r="Q45" s="6"/>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>37</v>
       </c>
@@ -4563,7 +4634,7 @@
       <c r="P46" s="8"/>
       <c r="Q46" s="9"/>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>19</v>
       </c>
@@ -4584,7 +4655,7 @@
       <c r="P50" s="2"/>
       <c r="Q50" s="3"/>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -4603,7 +4674,7 @@
       <c r="P51" s="5"/>
       <c r="Q51" s="6"/>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>20</v>
       </c>
@@ -4624,7 +4695,7 @@
       <c r="P52" s="5"/>
       <c r="Q52" s="6"/>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>21</v>
       </c>
@@ -4647,7 +4718,7 @@
       <c r="P53" s="5"/>
       <c r="Q53" s="6"/>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -4666,7 +4737,7 @@
       <c r="P54" s="5"/>
       <c r="Q54" s="6"/>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -4685,7 +4756,7 @@
       <c r="P55" s="5"/>
       <c r="Q55" s="6"/>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>23</v>
       </c>
@@ -4706,7 +4777,7 @@
       <c r="P56" s="5"/>
       <c r="Q56" s="6"/>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -4725,7 +4796,7 @@
       <c r="P57" s="5"/>
       <c r="Q57" s="6"/>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>24</v>
       </c>
@@ -4746,7 +4817,7 @@
       <c r="P58" s="5"/>
       <c r="Q58" s="6"/>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>21</v>
       </c>
@@ -4770,6 +4841,7 @@
       <c r="Q59" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4784,14 +4856,14 @@
       <selection activeCell="J133" sqref="J133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>93</v>
       </c>
@@ -4807,7 +4879,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>39</v>
       </c>
@@ -4823,7 +4895,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="6"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>40</v>
       </c>
@@ -4839,7 +4911,7 @@
       <c r="K37" s="5"/>
       <c r="L37" s="6"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>41</v>
       </c>
@@ -4855,7 +4927,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="6"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>42</v>
       </c>
@@ -4871,7 +4943,7 @@
       <c r="K39" s="5"/>
       <c r="L39" s="6"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>43</v>
       </c>
@@ -4887,7 +4959,7 @@
       <c r="K40" s="5"/>
       <c r="L40" s="6"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>44</v>
       </c>
@@ -4903,7 +4975,7 @@
       <c r="K41" s="5"/>
       <c r="L41" s="6"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>45</v>
       </c>
@@ -4919,7 +4991,7 @@
       <c r="K42" s="5"/>
       <c r="L42" s="6"/>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>14</v>
       </c>
@@ -4935,7 +5007,7 @@
       <c r="K43" s="5"/>
       <c r="L43" s="6"/>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -4949,7 +5021,7 @@
       <c r="K44" s="5"/>
       <c r="L44" s="6"/>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>46</v>
       </c>
@@ -4967,7 +5039,7 @@
       <c r="K45" s="5"/>
       <c r="L45" s="6"/>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>47</v>
       </c>
@@ -4983,7 +5055,7 @@
       <c r="K46" s="5"/>
       <c r="L46" s="6"/>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>48</v>
       </c>
@@ -5002,7 +5074,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>49</v>
       </c>
@@ -5019,7 +5091,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>50</v>
       </c>
@@ -5036,7 +5108,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>51</v>
       </c>
@@ -5055,7 +5127,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>52</v>
       </c>
@@ -5074,7 +5146,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>53</v>
       </c>
@@ -5093,7 +5165,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>54</v>
       </c>
@@ -5111,7 +5183,7 @@
       </c>
       <c r="L53" s="6"/>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>55</v>
       </c>
@@ -5129,7 +5201,7 @@
       </c>
       <c r="L54" s="6"/>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>56</v>
       </c>
@@ -5145,7 +5217,7 @@
       <c r="K55" s="13"/>
       <c r="L55" s="6"/>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>57</v>
       </c>
@@ -5163,7 +5235,7 @@
       </c>
       <c r="L56" s="6"/>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>58</v>
       </c>
@@ -5181,7 +5253,7 @@
       </c>
       <c r="L57" s="6"/>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>59</v>
       </c>
@@ -5197,7 +5269,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="6"/>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>60</v>
       </c>
@@ -5215,7 +5287,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>61</v>
       </c>
@@ -5233,7 +5305,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>62</v>
       </c>
@@ -5249,7 +5321,7 @@
       <c r="K61" s="5"/>
       <c r="L61" s="6"/>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>39</v>
       </c>
@@ -5265,7 +5337,7 @@
       <c r="K62" s="5"/>
       <c r="L62" s="6"/>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>63</v>
       </c>
@@ -5281,7 +5353,7 @@
       <c r="K63" s="5"/>
       <c r="L63" s="6"/>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>64</v>
       </c>
@@ -5297,7 +5369,7 @@
       <c r="K64" s="5"/>
       <c r="L64" s="6"/>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>44</v>
       </c>
@@ -5313,7 +5385,7 @@
       <c r="K65" s="5"/>
       <c r="L65" s="6"/>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>65</v>
       </c>
@@ -5329,7 +5401,7 @@
       <c r="K66" s="5"/>
       <c r="L66" s="6"/>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>66</v>
       </c>
@@ -5345,7 +5417,7 @@
       <c r="K67" s="5"/>
       <c r="L67" s="6"/>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>67</v>
       </c>
@@ -5361,7 +5433,7 @@
       <c r="K68" s="5"/>
       <c r="L68" s="6"/>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>68</v>
       </c>
@@ -5377,7 +5449,7 @@
       <c r="K69" s="5"/>
       <c r="L69" s="6"/>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>69</v>
       </c>
@@ -5393,7 +5465,7 @@
       <c r="K70" s="5"/>
       <c r="L70" s="6"/>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>70</v>
       </c>
@@ -5409,7 +5481,7 @@
       <c r="K71" s="5"/>
       <c r="L71" s="6"/>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>71</v>
       </c>
@@ -5425,7 +5497,7 @@
       <c r="K72" s="5"/>
       <c r="L72" s="6"/>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>72</v>
       </c>
@@ -5441,7 +5513,7 @@
       <c r="K73" s="5"/>
       <c r="L73" s="6"/>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>73</v>
       </c>
@@ -5457,7 +5529,7 @@
       <c r="K74" s="5"/>
       <c r="L74" s="6"/>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>74</v>
       </c>
@@ -5473,7 +5545,7 @@
       <c r="K75" s="5"/>
       <c r="L75" s="6"/>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>75</v>
       </c>
@@ -5489,7 +5561,7 @@
       <c r="K76" s="5"/>
       <c r="L76" s="6"/>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>76</v>
       </c>
@@ -5505,7 +5577,7 @@
       <c r="K77" s="5"/>
       <c r="L77" s="6"/>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>77</v>
       </c>
@@ -5521,7 +5593,7 @@
       <c r="K78" s="5"/>
       <c r="L78" s="6"/>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>78</v>
       </c>
@@ -5537,7 +5609,7 @@
       <c r="K79" s="5"/>
       <c r="L79" s="6"/>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="19" t="s">
         <v>79</v>
       </c>
@@ -5555,7 +5627,7 @@
       <c r="K80" s="5"/>
       <c r="L80" s="6"/>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>80</v>
       </c>
@@ -5571,7 +5643,7 @@
       <c r="K81" s="5"/>
       <c r="L81" s="6"/>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>81</v>
       </c>
@@ -5587,7 +5659,7 @@
       <c r="K82" s="5"/>
       <c r="L82" s="6"/>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>76</v>
       </c>
@@ -5603,7 +5675,7 @@
       <c r="K83" s="5"/>
       <c r="L83" s="6"/>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>82</v>
       </c>
@@ -5619,7 +5691,7 @@
       <c r="K84" s="5"/>
       <c r="L84" s="6"/>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>83</v>
       </c>
@@ -5635,7 +5707,7 @@
       <c r="K85" s="5"/>
       <c r="L85" s="6"/>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -5649,7 +5721,7 @@
       <c r="K86" s="5"/>
       <c r="L86" s="6"/>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>84</v>
       </c>
@@ -5665,7 +5737,7 @@
       <c r="K87" s="5"/>
       <c r="L87" s="6"/>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>85</v>
       </c>
@@ -5681,7 +5753,7 @@
       <c r="K88" s="5"/>
       <c r="L88" s="6"/>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>11</v>
       </c>
@@ -5697,7 +5769,7 @@
       <c r="K89" s="5"/>
       <c r="L89" s="6"/>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>86</v>
       </c>
@@ -5713,7 +5785,7 @@
       <c r="K90" s="5"/>
       <c r="L90" s="6"/>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>44</v>
       </c>
@@ -5729,7 +5801,7 @@
       <c r="K91" s="5"/>
       <c r="L91" s="6"/>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>65</v>
       </c>
@@ -5745,7 +5817,7 @@
       <c r="K92" s="5"/>
       <c r="L92" s="6"/>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>87</v>
       </c>
@@ -5761,7 +5833,7 @@
       <c r="K93" s="5"/>
       <c r="L93" s="6"/>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>85</v>
       </c>
@@ -5777,7 +5849,7 @@
       <c r="K94" s="5"/>
       <c r="L94" s="6"/>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>88</v>
       </c>
@@ -5793,7 +5865,7 @@
       <c r="K95" s="5"/>
       <c r="L95" s="6"/>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>89</v>
       </c>
@@ -5809,7 +5881,7 @@
       <c r="K96" s="5"/>
       <c r="L96" s="6"/>
     </row>
-    <row r="97" spans="1:18">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>90</v>
       </c>
@@ -5825,7 +5897,7 @@
       <c r="K97" s="5"/>
       <c r="L97" s="6"/>
     </row>
-    <row r="98" spans="1:18">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>10</v>
       </c>
@@ -5841,7 +5913,7 @@
       <c r="K98" s="5"/>
       <c r="L98" s="6"/>
     </row>
-    <row r="99" spans="1:18">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>14</v>
       </c>
@@ -5857,7 +5929,7 @@
       <c r="K99" s="5"/>
       <c r="L99" s="6"/>
     </row>
-    <row r="100" spans="1:18">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>41</v>
       </c>
@@ -5873,7 +5945,7 @@
       <c r="K100" s="5"/>
       <c r="L100" s="6"/>
     </row>
-    <row r="101" spans="1:18">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
         <v>91</v>
       </c>
@@ -5889,7 +5961,7 @@
       <c r="K101" s="8"/>
       <c r="L101" s="9"/>
     </row>
-    <row r="107" spans="1:18">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" s="22"/>
       <c r="B107" s="22"/>
       <c r="C107" s="22"/>
@@ -5909,17 +5981,17 @@
       <c r="Q107" s="22"/>
       <c r="R107" s="22"/>
     </row>
-    <row r="109" spans="1:18">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" s="21" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="110" spans="1:18">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="111" spans="1:18">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111" s="20" t="s">
         <v>112</v>
       </c>
@@ -5935,7 +6007,7 @@
       <c r="K111" s="2"/>
       <c r="L111" s="3"/>
     </row>
-    <row r="112" spans="1:18">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>113</v>
       </c>
@@ -5951,7 +6023,7 @@
       <c r="K112" s="5"/>
       <c r="L112" s="6"/>
     </row>
-    <row r="113" spans="1:22">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>114</v>
       </c>
@@ -5967,7 +6039,7 @@
       <c r="K113" s="5"/>
       <c r="L113" s="6"/>
     </row>
-    <row r="114" spans="1:22">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>115</v>
       </c>
@@ -5983,7 +6055,7 @@
       <c r="K114" s="5"/>
       <c r="L114" s="6"/>
     </row>
-    <row r="115" spans="1:22">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>116</v>
       </c>
@@ -5999,7 +6071,7 @@
       <c r="K115" s="5"/>
       <c r="L115" s="6"/>
     </row>
-    <row r="116" spans="1:22">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>117</v>
       </c>
@@ -6015,7 +6087,7 @@
       <c r="K116" s="5"/>
       <c r="L116" s="6"/>
     </row>
-    <row r="117" spans="1:22">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>118</v>
       </c>
@@ -6031,7 +6103,7 @@
       <c r="K117" s="5"/>
       <c r="L117" s="6"/>
     </row>
-    <row r="118" spans="1:22">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>119</v>
       </c>
@@ -6047,7 +6119,7 @@
       <c r="K118" s="5"/>
       <c r="L118" s="6"/>
     </row>
-    <row r="119" spans="1:22">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>120</v>
       </c>
@@ -6063,7 +6135,7 @@
       <c r="K119" s="5"/>
       <c r="L119" s="6"/>
     </row>
-    <row r="120" spans="1:22">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>121</v>
       </c>
@@ -6079,7 +6151,7 @@
       <c r="K120" s="5"/>
       <c r="L120" s="6"/>
     </row>
-    <row r="121" spans="1:22">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>122</v>
       </c>
@@ -6095,7 +6167,7 @@
       <c r="K121" s="5"/>
       <c r="L121" s="6"/>
     </row>
-    <row r="122" spans="1:22">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -6109,7 +6181,7 @@
       <c r="K122" s="5"/>
       <c r="L122" s="6"/>
     </row>
-    <row r="123" spans="1:22">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>123</v>
       </c>
@@ -6125,7 +6197,7 @@
       <c r="K123" s="5"/>
       <c r="L123" s="6"/>
     </row>
-    <row r="124" spans="1:22">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>124</v>
       </c>
@@ -6141,7 +6213,7 @@
       <c r="K124" s="5"/>
       <c r="L124" s="6"/>
     </row>
-    <row r="125" spans="1:22">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A125" s="7" t="s">
         <v>125</v>
       </c>
@@ -6157,12 +6229,12 @@
       <c r="K125" s="8"/>
       <c r="L125" s="9"/>
     </row>
-    <row r="127" spans="1:22">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="128" spans="1:22">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>151</v>
       </c>
@@ -6188,7 +6260,7 @@
       <c r="U128" s="2"/>
       <c r="V128" s="3"/>
     </row>
-    <row r="129" spans="1:22">
+    <row r="129" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>126</v>
       </c>
@@ -6214,7 +6286,7 @@
       <c r="U129" s="5"/>
       <c r="V129" s="6"/>
     </row>
-    <row r="130" spans="1:22">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>127</v>
       </c>
@@ -6240,7 +6312,7 @@
       <c r="U130" s="5"/>
       <c r="V130" s="6"/>
     </row>
-    <row r="131" spans="1:22">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>128</v>
       </c>
@@ -6266,7 +6338,7 @@
       <c r="U131" s="5"/>
       <c r="V131" s="6"/>
     </row>
-    <row r="132" spans="1:22">
+    <row r="132" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>129</v>
       </c>
@@ -6292,7 +6364,7 @@
       <c r="U132" s="5"/>
       <c r="V132" s="6"/>
     </row>
-    <row r="133" spans="1:22">
+    <row r="133" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>130</v>
       </c>
@@ -6318,7 +6390,7 @@
       <c r="U133" s="5"/>
       <c r="V133" s="6"/>
     </row>
-    <row r="134" spans="1:22">
+    <row r="134" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>131</v>
       </c>
@@ -6344,7 +6416,7 @@
       <c r="U134" s="5"/>
       <c r="V134" s="6"/>
     </row>
-    <row r="135" spans="1:22">
+    <row r="135" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>132</v>
       </c>
@@ -6370,7 +6442,7 @@
       <c r="U135" s="5"/>
       <c r="V135" s="6"/>
     </row>
-    <row r="136" spans="1:22">
+    <row r="136" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>133</v>
       </c>
@@ -6396,7 +6468,7 @@
       <c r="U136" s="5"/>
       <c r="V136" s="6"/>
     </row>
-    <row r="137" spans="1:22">
+    <row r="137" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>134</v>
       </c>
@@ -6422,7 +6494,7 @@
       <c r="U137" s="5"/>
       <c r="V137" s="6"/>
     </row>
-    <row r="138" spans="1:22">
+    <row r="138" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>135</v>
       </c>
@@ -6448,7 +6520,7 @@
       <c r="U138" s="5"/>
       <c r="V138" s="6"/>
     </row>
-    <row r="139" spans="1:22">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>136</v>
       </c>
@@ -6474,7 +6546,7 @@
       <c r="U139" s="5"/>
       <c r="V139" s="6"/>
     </row>
-    <row r="140" spans="1:22">
+    <row r="140" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>137</v>
       </c>
@@ -6500,7 +6572,7 @@
       <c r="U140" s="5"/>
       <c r="V140" s="6"/>
     </row>
-    <row r="141" spans="1:22">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>138</v>
       </c>
@@ -6526,7 +6598,7 @@
       <c r="U141" s="5"/>
       <c r="V141" s="6"/>
     </row>
-    <row r="142" spans="1:22">
+    <row r="142" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>139</v>
       </c>
@@ -6552,7 +6624,7 @@
       <c r="U142" s="5"/>
       <c r="V142" s="6"/>
     </row>
-    <row r="143" spans="1:22">
+    <row r="143" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>140</v>
       </c>
@@ -6578,7 +6650,7 @@
       <c r="U143" s="5"/>
       <c r="V143" s="6"/>
     </row>
-    <row r="144" spans="1:22">
+    <row r="144" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>141</v>
       </c>
@@ -6604,7 +6676,7 @@
       <c r="U144" s="5"/>
       <c r="V144" s="6"/>
     </row>
-    <row r="145" spans="1:22">
+    <row r="145" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>142</v>
       </c>
@@ -6630,7 +6702,7 @@
       <c r="U145" s="5"/>
       <c r="V145" s="6"/>
     </row>
-    <row r="146" spans="1:22">
+    <row r="146" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>143</v>
       </c>
@@ -6656,7 +6728,7 @@
       <c r="U146" s="5"/>
       <c r="V146" s="6"/>
     </row>
-    <row r="147" spans="1:22">
+    <row r="147" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>144</v>
       </c>
@@ -6682,7 +6754,7 @@
       <c r="U147" s="5"/>
       <c r="V147" s="6"/>
     </row>
-    <row r="148" spans="1:22">
+    <row r="148" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A148" s="19" t="s">
         <v>145</v>
       </c>
@@ -6708,7 +6780,7 @@
       <c r="U148" s="5"/>
       <c r="V148" s="6"/>
     </row>
-    <row r="149" spans="1:22">
+    <row r="149" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A149" s="19" t="s">
         <v>146</v>
       </c>
@@ -6734,7 +6806,7 @@
       <c r="U149" s="5"/>
       <c r="V149" s="6"/>
     </row>
-    <row r="150" spans="1:22">
+    <row r="150" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>147</v>
       </c>
@@ -6760,7 +6832,7 @@
       <c r="U150" s="5"/>
       <c r="V150" s="6"/>
     </row>
-    <row r="151" spans="1:22">
+    <row r="151" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>148</v>
       </c>
@@ -6786,7 +6858,7 @@
       <c r="U151" s="5"/>
       <c r="V151" s="6"/>
     </row>
-    <row r="152" spans="1:22">
+    <row r="152" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>149</v>
       </c>
@@ -6812,7 +6884,7 @@
       <c r="U152" s="5"/>
       <c r="V152" s="6"/>
     </row>
-    <row r="153" spans="1:22">
+    <row r="153" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>80</v>
       </c>
@@ -6838,7 +6910,7 @@
       <c r="U153" s="5"/>
       <c r="V153" s="6"/>
     </row>
-    <row r="154" spans="1:22">
+    <row r="154" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A154" s="7" t="s">
         <v>75</v>
       </c>
@@ -6865,6 +6937,7 @@
       <c r="V154" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -6875,13 +6948,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A103" workbookViewId="0">
       <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>152</v>
       </c>
@@ -6889,7 +6962,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="22"/>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
@@ -6906,12 +6979,12 @@
       <c r="N29" s="22"/>
       <c r="O29" s="22"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="22"/>
       <c r="B82" s="22"/>
       <c r="C82" s="22"/>
@@ -6930,12 +7003,12 @@
       <c r="P82" s="22"/>
       <c r="Q82" s="22"/>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" s="21" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="L90" s="1" t="s">
         <v>156</v>
       </c>
@@ -6945,7 +7018,7 @@
       <c r="P90" s="2"/>
       <c r="Q90" s="3"/>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="L91" s="7" t="s">
         <v>157</v>
       </c>
@@ -6955,7 +7028,7 @@
       <c r="P91" s="8"/>
       <c r="Q91" s="9"/>
     </row>
-    <row r="113" spans="1:18">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113" s="22"/>
       <c r="B113" s="22"/>
       <c r="C113" s="22"/>
@@ -6975,12 +7048,12 @@
       <c r="Q113" s="22"/>
       <c r="R113" s="22"/>
     </row>
-    <row r="115" spans="1:18">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="116" spans="1:18">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116" s="26" t="s">
         <v>477</v>
       </c>
@@ -6992,12 +7065,12 @@
       <c r="G116" s="27"/>
       <c r="H116" s="28"/>
     </row>
-    <row r="118" spans="1:18">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="119" spans="1:18">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>466</v>
       </c>
@@ -7017,7 +7090,7 @@
       <c r="O119" s="2"/>
       <c r="P119" s="3"/>
     </row>
-    <row r="120" spans="1:18">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120" s="4"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -7035,7 +7108,7 @@
       <c r="O120" s="5"/>
       <c r="P120" s="6"/>
     </row>
-    <row r="121" spans="1:18">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>467</v>
       </c>
@@ -7055,7 +7128,7 @@
       <c r="O121" s="5"/>
       <c r="P121" s="6"/>
     </row>
-    <row r="122" spans="1:18">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>468</v>
       </c>
@@ -7075,7 +7148,7 @@
       <c r="O122" s="5"/>
       <c r="P122" s="6"/>
     </row>
-    <row r="123" spans="1:18">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>469</v>
       </c>
@@ -7095,7 +7168,7 @@
       <c r="O123" s="5"/>
       <c r="P123" s="6"/>
     </row>
-    <row r="124" spans="1:18">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>470</v>
       </c>
@@ -7115,7 +7188,7 @@
       <c r="O124" s="5"/>
       <c r="P124" s="6"/>
     </row>
-    <row r="125" spans="1:18">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>471</v>
       </c>
@@ -7135,7 +7208,7 @@
       <c r="O125" s="5"/>
       <c r="P125" s="6"/>
     </row>
-    <row r="126" spans="1:18">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>472</v>
       </c>
@@ -7155,7 +7228,7 @@
       <c r="O126" s="5"/>
       <c r="P126" s="6"/>
     </row>
-    <row r="127" spans="1:18">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>473</v>
       </c>
@@ -7175,7 +7248,7 @@
       <c r="O127" s="5"/>
       <c r="P127" s="6"/>
     </row>
-    <row r="128" spans="1:18">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>474</v>
       </c>
@@ -7195,7 +7268,7 @@
       <c r="O128" s="5"/>
       <c r="P128" s="6"/>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
         <v>475</v>
       </c>
@@ -7216,6 +7289,7 @@
       <c r="P129" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -7226,18 +7300,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I64" sqref="I64"/>
+    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="F317" sqref="F317"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
         <v>478</v>
       </c>
@@ -7247,12 +7321,12 @@
       <c r="E3" s="27"/>
       <c r="F3" s="28"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
         <v>480</v>
       </c>
@@ -7265,9 +7339,9 @@
       <c r="H5" s="27"/>
       <c r="I5" s="28"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="36" t="s">
-        <v>534</v>
+        <v>747</v>
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -7284,19 +7358,19 @@
       <c r="N9" s="22"/>
       <c r="O9" s="22"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
@@ -7305,7 +7379,7 @@
       <c r="F12" s="27"/>
       <c r="G12" s="28"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
         <v>481</v>
       </c>
@@ -7319,7 +7393,7 @@
       <c r="I14" s="27"/>
       <c r="J14" s="28"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -7331,14 +7405,14 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -7348,9 +7422,9 @@
       <c r="G17" s="2"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -7360,10 +7434,10 @@
       <c r="G18" s="5"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -7372,10 +7446,10 @@
       <c r="G19" s="5"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="32" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -7384,7 +7458,7 @@
       <c r="G20" s="8"/>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="13"/>
       <c r="C21" s="5"/>
@@ -7394,9 +7468,9 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="34" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="5"/>
@@ -7406,9 +7480,9 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B23" s="26" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C23" s="33"/>
       <c r="D23" s="27"/>
@@ -7421,7 +7495,7 @@
       <c r="K23" s="27"/>
       <c r="L23" s="28"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
       <c r="D24" s="5"/>
@@ -7431,9 +7505,9 @@
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="5"/>
@@ -7443,9 +7517,9 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C26" s="35"/>
       <c r="D26" s="2"/>
@@ -7458,9 +7532,9 @@
       <c r="K26" s="2"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="5"/>
@@ -7473,9 +7547,9 @@
       <c r="K27" s="5"/>
       <c r="L27" s="6"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="5"/>
@@ -7488,7 +7562,7 @@
       <c r="K28" s="5"/>
       <c r="L28" s="6"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B29" s="4"/>
       <c r="C29" s="13"/>
       <c r="D29" s="5"/>
@@ -7501,9 +7575,9 @@
       <c r="K29" s="5"/>
       <c r="L29" s="6"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="5"/>
@@ -7516,9 +7590,9 @@
       <c r="K30" s="5"/>
       <c r="L30" s="6"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="5"/>
@@ -7531,9 +7605,9 @@
       <c r="K31" s="5"/>
       <c r="L31" s="6"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B32" s="7" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C32" s="32"/>
       <c r="D32" s="8"/>
@@ -7546,7 +7620,7 @@
       <c r="K32" s="8"/>
       <c r="L32" s="9"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="13"/>
       <c r="C33" s="5"/>
@@ -7556,7 +7630,7 @@
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="13"/>
       <c r="C34" s="5"/>
@@ -7566,7 +7640,7 @@
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="13"/>
       <c r="C35" s="5"/>
@@ -7576,7 +7650,7 @@
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>482</v>
       </c>
@@ -7594,7 +7668,7 @@
       <c r="M37" s="2"/>
       <c r="N37" s="3"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="5" t="s">
         <v>483</v>
@@ -7612,7 +7686,7 @@
       <c r="M38" s="5"/>
       <c r="N38" s="6"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="5" t="s">
         <v>484</v>
@@ -7630,7 +7704,7 @@
       <c r="M39" s="5"/>
       <c r="N39" s="6"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="5" t="s">
         <v>485</v>
@@ -7648,7 +7722,7 @@
       <c r="M40" s="5"/>
       <c r="N40" s="6"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="5" t="s">
         <v>486</v>
@@ -7666,7 +7740,7 @@
       <c r="M41" s="5"/>
       <c r="N41" s="6"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="5" t="s">
         <v>487</v>
@@ -7684,7 +7758,7 @@
       <c r="M42" s="5"/>
       <c r="N42" s="6"/>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="5" t="s">
         <v>488</v>
@@ -7702,7 +7776,7 @@
       <c r="M43" s="5"/>
       <c r="N43" s="6"/>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="5" t="s">
         <v>489</v>
@@ -7720,7 +7794,7 @@
       <c r="M44" s="5"/>
       <c r="N44" s="6"/>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="5" t="s">
         <v>490</v>
@@ -7738,7 +7812,7 @@
       <c r="M45" s="5"/>
       <c r="N45" s="6"/>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="5" t="s">
         <v>491</v>
@@ -7756,7 +7830,7 @@
       <c r="M46" s="5"/>
       <c r="N46" s="6"/>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5" t="s">
@@ -7774,7 +7848,7 @@
       <c r="M47" s="5"/>
       <c r="N47" s="6"/>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5" t="s">
@@ -7792,7 +7866,7 @@
       <c r="M48" s="5"/>
       <c r="N48" s="6"/>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="5" t="s">
         <v>494</v>
@@ -7810,7 +7884,7 @@
       <c r="M49" s="5"/>
       <c r="N49" s="6"/>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="5" t="s">
         <v>495</v>
@@ -7828,7 +7902,7 @@
       <c r="M50" s="5"/>
       <c r="N50" s="6"/>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="5" t="s">
         <v>496</v>
@@ -7846,7 +7920,7 @@
       <c r="M51" s="5"/>
       <c r="N51" s="6"/>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="5" t="s">
         <v>497</v>
@@ -7864,7 +7938,7 @@
       <c r="M52" s="5"/>
       <c r="N52" s="6"/>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="5" t="s">
         <v>498</v>
@@ -7882,7 +7956,7 @@
       <c r="M53" s="5"/>
       <c r="N53" s="6"/>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="5" t="s">
         <v>499</v>
@@ -7900,7 +7974,7 @@
       <c r="M54" s="5"/>
       <c r="N54" s="6"/>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="5" t="s">
         <v>500</v>
@@ -7918,7 +7992,7 @@
       <c r="M55" s="5"/>
       <c r="N55" s="6"/>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="5" t="s">
         <v>501</v>
@@ -7936,7 +8010,7 @@
       <c r="M56" s="5"/>
       <c r="N56" s="6"/>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="5" t="s">
         <v>502</v>
@@ -7954,7 +8028,7 @@
       <c r="M57" s="5"/>
       <c r="N57" s="6"/>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="5" t="s">
         <v>503</v>
@@ -7972,7 +8046,7 @@
       <c r="M58" s="5"/>
       <c r="N58" s="6"/>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="5" t="s">
         <v>504</v>
@@ -7990,7 +8064,7 @@
       <c r="M59" s="5"/>
       <c r="N59" s="6"/>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="5" t="s">
         <v>505</v>
@@ -8008,7 +8082,7 @@
       <c r="M60" s="5"/>
       <c r="N60" s="6"/>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="5" t="s">
         <v>506</v>
@@ -8026,7 +8100,7 @@
       <c r="M61" s="5"/>
       <c r="N61" s="6"/>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="5" t="s">
         <v>507</v>
@@ -8044,7 +8118,7 @@
       <c r="M62" s="5"/>
       <c r="N62" s="6"/>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="5" t="s">
         <v>508</v>
@@ -8062,7 +8136,7 @@
       <c r="M63" s="5"/>
       <c r="N63" s="6"/>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="5" t="s">
         <v>509</v>
@@ -8080,7 +8154,7 @@
       <c r="M64" s="5"/>
       <c r="N64" s="6"/>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="5" t="s">
         <v>510</v>
@@ -8098,7 +8172,7 @@
       <c r="M65" s="5"/>
       <c r="N65" s="6"/>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="5" t="s">
         <v>511</v>
@@ -8116,7 +8190,7 @@
       <c r="M66" s="5"/>
       <c r="N66" s="6"/>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="5" t="s">
         <v>512</v>
@@ -8134,7 +8208,7 @@
       <c r="M67" s="5"/>
       <c r="N67" s="6"/>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" s="5" t="s">
         <v>513</v>
@@ -8152,7 +8226,7 @@
       <c r="M68" s="5"/>
       <c r="N68" s="6"/>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="5" t="s">
         <v>514</v>
@@ -8170,7 +8244,7 @@
       <c r="M69" s="5"/>
       <c r="N69" s="6"/>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="5" t="s">
         <v>515</v>
@@ -8188,7 +8262,7 @@
       <c r="M70" s="5"/>
       <c r="N70" s="6"/>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="5" t="s">
         <v>516</v>
@@ -8206,7 +8280,7 @@
       <c r="M71" s="5"/>
       <c r="N71" s="6"/>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5" t="s">
@@ -8224,7 +8298,7 @@
       <c r="M72" s="5"/>
       <c r="N72" s="6"/>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5" t="s">
@@ -8242,7 +8316,7 @@
       <c r="M73" s="5"/>
       <c r="N73" s="6"/>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5" t="s">
@@ -8260,7 +8334,7 @@
       <c r="M74" s="5"/>
       <c r="N74" s="6"/>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>520</v>
       </c>
@@ -8280,9 +8354,9 @@
       <c r="M75" s="5"/>
       <c r="N75" s="6"/>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>536</v>
+        <v>749</v>
       </c>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -8298,9 +8372,9 @@
       <c r="M76" s="5"/>
       <c r="N76" s="6"/>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>535</v>
+        <v>748</v>
       </c>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -8316,7 +8390,7 @@
       <c r="M77" s="5"/>
       <c r="N77" s="6"/>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>522</v>
       </c>
@@ -8334,7 +8408,7 @@
       <c r="M78" s="5"/>
       <c r="N78" s="6"/>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="5" t="s">
         <v>523</v>
@@ -8352,7 +8426,7 @@
       <c r="M79" s="5"/>
       <c r="N79" s="6"/>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="5" t="s">
         <v>524</v>
@@ -8370,7 +8444,7 @@
       <c r="M80" s="5"/>
       <c r="N80" s="6"/>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="5" t="s">
         <v>525</v>
@@ -8388,7 +8462,7 @@
       <c r="M81" s="5"/>
       <c r="N81" s="6"/>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="5" t="s">
         <v>526</v>
@@ -8406,7 +8480,7 @@
       <c r="M82" s="5"/>
       <c r="N82" s="6"/>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5" t="s">
@@ -8424,7 +8498,7 @@
       <c r="M83" s="5"/>
       <c r="N83" s="6"/>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="5" t="s">
         <v>528</v>
@@ -8442,7 +8516,7 @@
       <c r="M84" s="5"/>
       <c r="N84" s="6"/>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="5" t="s">
         <v>529</v>
@@ -8460,7 +8534,7 @@
       <c r="M85" s="5"/>
       <c r="N85" s="6"/>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5" t="s">
@@ -8478,7 +8552,7 @@
       <c r="M86" s="5"/>
       <c r="N86" s="6"/>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="7"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8" t="s">
@@ -8496,24 +8570,24 @@
       <c r="M87" s="8"/>
       <c r="N87" s="9"/>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="23" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A91" s="21" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A92" s="21" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A93" s="30" t="s">
         <v>541</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14">
-      <c r="A91" s="21" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14">
-      <c r="A92" s="21" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14">
-      <c r="A93" s="30" t="s">
-        <v>544</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -8522,9 +8596,9 @@
       <c r="F93" s="2"/>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="31" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -8533,17 +8607,17 @@
       <c r="F94" s="8"/>
       <c r="G94" s="9"/>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="21" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C98" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -8552,7 +8626,7 @@
       <c r="F99" s="2"/>
       <c r="G99" s="3"/>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -8561,9 +8635,9 @@
       <c r="F100" s="5"/>
       <c r="G100" s="6"/>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -8572,7 +8646,7 @@
       <c r="F101" s="5"/>
       <c r="G101" s="6"/>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="4"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -8581,9 +8655,9 @@
       <c r="F102" s="5"/>
       <c r="G102" s="6"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -8592,7 +8666,7 @@
       <c r="F103" s="5"/>
       <c r="G103" s="6"/>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -8601,9 +8675,9 @@
       <c r="F104" s="5"/>
       <c r="G104" s="6"/>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -8612,7 +8686,7 @@
       <c r="F105" s="5"/>
       <c r="G105" s="6"/>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="4"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -8621,9 +8695,9 @@
       <c r="F106" s="5"/>
       <c r="G106" s="6"/>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -8632,7 +8706,7 @@
       <c r="F107" s="5"/>
       <c r="G107" s="6"/>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -8641,9 +8715,9 @@
       <c r="F108" s="5"/>
       <c r="G108" s="6"/>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -8652,7 +8726,7 @@
       <c r="F109" s="5"/>
       <c r="G109" s="6"/>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="4"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -8661,9 +8735,9 @@
       <c r="F110" s="5"/>
       <c r="G110" s="6"/>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -8672,7 +8746,7 @@
       <c r="F111" s="5"/>
       <c r="G111" s="6"/>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="4"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -8681,9 +8755,9 @@
       <c r="F112" s="5"/>
       <c r="G112" s="6"/>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -8692,19 +8766,19 @@
       <c r="F113" s="8"/>
       <c r="G113" s="9"/>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="23" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -8718,9 +8792,9 @@
       <c r="K119" s="2"/>
       <c r="L119" s="3"/>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -8734,9 +8808,9 @@
       <c r="K120" s="5"/>
       <c r="L120" s="6"/>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -8750,9 +8824,9 @@
       <c r="K121" s="5"/>
       <c r="L121" s="6"/>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -8766,10 +8840,10 @@
       <c r="K122" s="5"/>
       <c r="L122" s="6"/>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
       <c r="B123" s="5" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
@@ -8782,10 +8856,10 @@
       <c r="K123" s="5"/>
       <c r="L123" s="6"/>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
       <c r="B124" s="5" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
@@ -8798,10 +8872,10 @@
       <c r="K124" s="5"/>
       <c r="L124" s="6"/>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="4"/>
       <c r="B125" s="5" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
@@ -8814,10 +8888,10 @@
       <c r="K125" s="5"/>
       <c r="L125" s="6"/>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="4"/>
       <c r="B126" s="5" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
@@ -8830,11 +8904,11 @@
       <c r="K126" s="5"/>
       <c r="L126" s="6"/>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="4"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
@@ -8846,10 +8920,10 @@
       <c r="K127" s="5"/>
       <c r="L127" s="6"/>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="7"/>
       <c r="B128" s="8" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C128" s="8"/>
       <c r="D128" s="8"/>
@@ -8862,14 +8936,14 @@
       <c r="K128" s="8"/>
       <c r="L128" s="9"/>
     </row>
-    <row r="130" spans="1:19">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="131" spans="1:19">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A131" s="26" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B131" s="27"/>
       <c r="C131" s="27"/>
@@ -8878,14 +8952,14 @@
       <c r="F131" s="27"/>
       <c r="G131" s="28"/>
     </row>
-    <row r="134" spans="1:19">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A134" s="23" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="135" spans="1:19">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B135" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
@@ -8905,9 +8979,9 @@
       <c r="R135" s="2"/>
       <c r="S135" s="3"/>
     </row>
-    <row r="136" spans="1:19">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B136" s="4" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
@@ -8927,9 +9001,9 @@
       <c r="R136" s="5"/>
       <c r="S136" s="6"/>
     </row>
-    <row r="137" spans="1:19">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B137" s="4" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
@@ -8949,7 +9023,7 @@
       <c r="R137" s="5"/>
       <c r="S137" s="6"/>
     </row>
-    <row r="138" spans="1:19">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B138" s="4" t="s">
         <v>522</v>
       </c>
@@ -8971,10 +9045,10 @@
       <c r="R138" s="5"/>
       <c r="S138" s="6"/>
     </row>
-    <row r="139" spans="1:19">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B139" s="4"/>
       <c r="C139" s="5" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
@@ -8993,10 +9067,10 @@
       <c r="R139" s="5"/>
       <c r="S139" s="6"/>
     </row>
-    <row r="140" spans="1:19">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B140" s="4"/>
       <c r="C140" s="5" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
@@ -9015,10 +9089,10 @@
       <c r="R140" s="5"/>
       <c r="S140" s="6"/>
     </row>
-    <row r="141" spans="1:19">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B141" s="4"/>
       <c r="C141" s="5" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
@@ -9037,10 +9111,10 @@
       <c r="R141" s="5"/>
       <c r="S141" s="6"/>
     </row>
-    <row r="142" spans="1:19">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B142" s="4"/>
       <c r="C142" s="5" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
@@ -9059,10 +9133,10 @@
       <c r="R142" s="5"/>
       <c r="S142" s="6"/>
     </row>
-    <row r="143" spans="1:19">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B143" s="4"/>
       <c r="C143" s="5" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
@@ -9081,7 +9155,7 @@
       <c r="R143" s="5"/>
       <c r="S143" s="6"/>
     </row>
-    <row r="144" spans="1:19">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B144" s="4"/>
       <c r="C144" s="5" t="s">
         <v>525</v>
@@ -9103,10 +9177,10 @@
       <c r="R144" s="5"/>
       <c r="S144" s="6"/>
     </row>
-    <row r="145" spans="1:19">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B145" s="4"/>
       <c r="C145" s="5" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
@@ -9125,11 +9199,11 @@
       <c r="R145" s="5"/>
       <c r="S145" s="6"/>
     </row>
-    <row r="146" spans="1:19">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B146" s="4"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
@@ -9147,10 +9221,10 @@
       <c r="R146" s="5"/>
       <c r="S146" s="6"/>
     </row>
-    <row r="147" spans="1:19">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B147" s="4"/>
       <c r="C147" s="5" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
@@ -9169,10 +9243,10 @@
       <c r="R147" s="5"/>
       <c r="S147" s="6"/>
     </row>
-    <row r="148" spans="1:19">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B148" s="4"/>
       <c r="C148" s="5" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
@@ -9191,11 +9265,11 @@
       <c r="R148" s="5"/>
       <c r="S148" s="6"/>
     </row>
-    <row r="149" spans="1:19">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B149" s="4"/>
       <c r="C149" s="5"/>
       <c r="D149" s="5" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
@@ -9213,10 +9287,10 @@
       <c r="R149" s="5"/>
       <c r="S149" s="6"/>
     </row>
-    <row r="150" spans="1:19">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B150" s="4"/>
       <c r="C150" s="5" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
@@ -9235,10 +9309,10 @@
       <c r="R150" s="5"/>
       <c r="S150" s="6"/>
     </row>
-    <row r="151" spans="1:19">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B151" s="7"/>
       <c r="C151" s="8" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D151" s="8"/>
       <c r="E151" s="8"/>
@@ -9257,14 +9331,14 @@
       <c r="R151" s="8"/>
       <c r="S151" s="9"/>
     </row>
-    <row r="154" spans="1:19">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="155" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A155" s="26" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B155" s="27"/>
       <c r="C155" s="27"/>
@@ -9273,14 +9347,14 @@
       <c r="F155" s="27"/>
       <c r="G155" s="28"/>
     </row>
-    <row r="157" spans="1:19">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="159" spans="1:19">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A159" s="36" t="s">
-        <v>666</v>
+        <v>750</v>
       </c>
       <c r="B159" s="22"/>
       <c r="C159" s="22"/>
@@ -9301,14 +9375,14 @@
       <c r="R159" s="22"/>
       <c r="S159" s="22"/>
     </row>
-    <row r="160" spans="1:19">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" s="26" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="B161" s="27"/>
       <c r="C161" s="27"/>
@@ -9317,9 +9391,9 @@
       <c r="F161" s="27"/>
       <c r="G161" s="28"/>
     </row>
-    <row r="163" spans="1:14">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -9329,9 +9403,9 @@
       <c r="G163" s="2"/>
       <c r="H163" s="3"/>
     </row>
-    <row r="164" spans="1:14">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" s="7" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
@@ -9341,9 +9415,14 @@
       <c r="G164" s="8"/>
       <c r="H164" s="9"/>
     </row>
-    <row r="166" spans="1:14">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A165" s="37" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -9359,10 +9438,10 @@
       <c r="M166" s="2"/>
       <c r="N166" s="3"/>
     </row>
-    <row r="167" spans="1:14">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" s="4"/>
       <c r="B167" s="5" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
@@ -9377,9 +9456,9 @@
       <c r="M167" s="5"/>
       <c r="N167" s="6"/>
     </row>
-    <row r="168" spans="1:14">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -9395,10 +9474,10 @@
       <c r="M168" s="5"/>
       <c r="N168" s="6"/>
     </row>
-    <row r="169" spans="1:14">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" s="4"/>
       <c r="B169" s="5" t="s">
-        <v>602</v>
+        <v>751</v>
       </c>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
@@ -9413,11 +9492,11 @@
       <c r="M169" s="5"/>
       <c r="N169" s="6"/>
     </row>
-    <row r="170" spans="1:14">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" s="4"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
@@ -9431,11 +9510,11 @@
       <c r="M170" s="5"/>
       <c r="N170" s="6"/>
     </row>
-    <row r="171" spans="1:14">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" s="4"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
@@ -9449,11 +9528,11 @@
       <c r="M171" s="5"/>
       <c r="N171" s="6"/>
     </row>
-    <row r="172" spans="1:14">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" s="4"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
@@ -9467,11 +9546,11 @@
       <c r="M172" s="5"/>
       <c r="N172" s="6"/>
     </row>
-    <row r="173" spans="1:14">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" s="4"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
@@ -9485,11 +9564,11 @@
       <c r="M173" s="5"/>
       <c r="N173" s="6"/>
     </row>
-    <row r="174" spans="1:14">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" s="4"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
@@ -9503,10 +9582,10 @@
       <c r="M174" s="5"/>
       <c r="N174" s="6"/>
     </row>
-    <row r="175" spans="1:14">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" s="4"/>
       <c r="B175" s="5" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
@@ -9521,11 +9600,11 @@
       <c r="M175" s="5"/>
       <c r="N175" s="6"/>
     </row>
-    <row r="176" spans="1:14">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" s="4"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
@@ -9539,11 +9618,11 @@
       <c r="M176" s="5"/>
       <c r="N176" s="6"/>
     </row>
-    <row r="177" spans="1:14">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" s="4"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
@@ -9557,11 +9636,11 @@
       <c r="M177" s="5"/>
       <c r="N177" s="6"/>
     </row>
-    <row r="178" spans="1:14">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" s="4"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
@@ -9575,11 +9654,11 @@
       <c r="M178" s="5"/>
       <c r="N178" s="6"/>
     </row>
-    <row r="179" spans="1:14">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" s="4"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
@@ -9593,11 +9672,11 @@
       <c r="M179" s="5"/>
       <c r="N179" s="6"/>
     </row>
-    <row r="180" spans="1:14">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" s="4"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
@@ -9611,11 +9690,11 @@
       <c r="M180" s="5"/>
       <c r="N180" s="6"/>
     </row>
-    <row r="181" spans="1:14">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" s="4"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
@@ -9629,10 +9708,10 @@
       <c r="M181" s="5"/>
       <c r="N181" s="6"/>
     </row>
-    <row r="182" spans="1:14">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" s="4"/>
       <c r="B182" s="5" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
@@ -9647,7 +9726,7 @@
       <c r="M182" s="5"/>
       <c r="N182" s="6"/>
     </row>
-    <row r="183" spans="1:14">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" s="4"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -9663,10 +9742,10 @@
       <c r="M183" s="5"/>
       <c r="N183" s="6"/>
     </row>
-    <row r="184" spans="1:14">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" s="4"/>
       <c r="B184" s="5" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
@@ -9681,9 +9760,9 @@
       <c r="M184" s="5"/>
       <c r="N184" s="6"/>
     </row>
-    <row r="185" spans="1:14">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" s="7" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
@@ -9699,9 +9778,14 @@
       <c r="M185" s="8"/>
       <c r="N185" s="9"/>
     </row>
-    <row r="187" spans="1:14">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A186" s="23" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -9717,9 +9801,9 @@
       <c r="M187" s="2"/>
       <c r="N187" s="3"/>
     </row>
-    <row r="188" spans="1:14">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -9735,10 +9819,10 @@
       <c r="M188" s="5"/>
       <c r="N188" s="6"/>
     </row>
-    <row r="189" spans="1:14">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" s="4"/>
       <c r="B189" s="5" t="s">
-        <v>620</v>
+        <v>752</v>
       </c>
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
@@ -9753,10 +9837,10 @@
       <c r="M189" s="5"/>
       <c r="N189" s="6"/>
     </row>
-    <row r="190" spans="1:14">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" s="4"/>
       <c r="B190" s="5" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
@@ -9771,11 +9855,11 @@
       <c r="M190" s="5"/>
       <c r="N190" s="6"/>
     </row>
-    <row r="191" spans="1:14">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" s="4"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
@@ -9789,11 +9873,11 @@
       <c r="M191" s="5"/>
       <c r="N191" s="6"/>
     </row>
-    <row r="192" spans="1:14">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" s="4"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
@@ -9807,11 +9891,11 @@
       <c r="M192" s="5"/>
       <c r="N192" s="6"/>
     </row>
-    <row r="193" spans="1:16">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A193" s="4"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
@@ -9825,10 +9909,10 @@
       <c r="M193" s="5"/>
       <c r="N193" s="6"/>
     </row>
-    <row r="194" spans="1:16">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A194" s="4"/>
       <c r="B194" s="5" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
@@ -9843,11 +9927,11 @@
       <c r="M194" s="5"/>
       <c r="N194" s="6"/>
     </row>
-    <row r="195" spans="1:16">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A195" s="4"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
@@ -9861,11 +9945,11 @@
       <c r="M195" s="5"/>
       <c r="N195" s="6"/>
     </row>
-    <row r="196" spans="1:16">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A196" s="4"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
@@ -9879,12 +9963,12 @@
       <c r="M196" s="5"/>
       <c r="N196" s="6"/>
     </row>
-    <row r="197" spans="1:16">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A197" s="4"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
       <c r="D197" s="5" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
@@ -9897,7 +9981,7 @@
       <c r="M197" s="5"/>
       <c r="N197" s="6"/>
     </row>
-    <row r="198" spans="1:16">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A198" s="4"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -9913,10 +9997,10 @@
       <c r="M198" s="5"/>
       <c r="N198" s="6"/>
     </row>
-    <row r="199" spans="1:16">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A199" s="4"/>
       <c r="B199" s="5" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
@@ -9931,9 +10015,9 @@
       <c r="M199" s="5"/>
       <c r="N199" s="6"/>
     </row>
-    <row r="200" spans="1:16">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A200" s="7" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
@@ -9949,9 +10033,14 @@
       <c r="M200" s="8"/>
       <c r="N200" s="9"/>
     </row>
-    <row r="202" spans="1:16">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A201" s="23" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -9969,9 +10058,9 @@
       <c r="O202" s="2"/>
       <c r="P202" s="3"/>
     </row>
-    <row r="203" spans="1:16">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -9989,7 +10078,7 @@
       <c r="O203" s="5"/>
       <c r="P203" s="6"/>
     </row>
-    <row r="204" spans="1:16">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A204" s="4"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -10007,9 +10096,9 @@
       <c r="O204" s="5"/>
       <c r="P204" s="6"/>
     </row>
-    <row r="205" spans="1:16">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -10027,7 +10116,7 @@
       <c r="O205" s="5"/>
       <c r="P205" s="6"/>
     </row>
-    <row r="206" spans="1:16">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A206" s="4"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -10045,10 +10134,10 @@
       <c r="O206" s="5"/>
       <c r="P206" s="6"/>
     </row>
-    <row r="207" spans="1:16">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A207" s="4"/>
       <c r="B207" s="5" t="s">
-        <v>634</v>
+        <v>753</v>
       </c>
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
@@ -10065,10 +10154,10 @@
       <c r="O207" s="5"/>
       <c r="P207" s="6"/>
     </row>
-    <row r="208" spans="1:16">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A208" s="4"/>
       <c r="B208" s="5" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="C208" s="5"/>
       <c r="D208" s="5"/>
@@ -10085,11 +10174,11 @@
       <c r="O208" s="5"/>
       <c r="P208" s="6"/>
     </row>
-    <row r="209" spans="1:16">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A209" s="4"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="D209" s="5"/>
       <c r="E209" s="5"/>
@@ -10105,10 +10194,10 @@
       <c r="O209" s="5"/>
       <c r="P209" s="6"/>
     </row>
-    <row r="210" spans="1:16">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A210" s="4"/>
       <c r="B210" s="5" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="C210" s="5"/>
       <c r="D210" s="5"/>
@@ -10125,10 +10214,10 @@
       <c r="O210" s="5"/>
       <c r="P210" s="6"/>
     </row>
-    <row r="211" spans="1:16">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A211" s="4"/>
       <c r="B211" s="5" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
@@ -10145,11 +10234,11 @@
       <c r="O211" s="5"/>
       <c r="P211" s="6"/>
     </row>
-    <row r="212" spans="1:16">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A212" s="4"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="D212" s="5"/>
       <c r="E212" s="5"/>
@@ -10165,11 +10254,11 @@
       <c r="O212" s="5"/>
       <c r="P212" s="6"/>
     </row>
-    <row r="213" spans="1:16">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A213" s="4"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="D213" s="5"/>
       <c r="E213" s="5"/>
@@ -10185,11 +10274,11 @@
       <c r="O213" s="5"/>
       <c r="P213" s="6"/>
     </row>
-    <row r="214" spans="1:16">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A214" s="4"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="D214" s="5"/>
       <c r="E214" s="5"/>
@@ -10205,11 +10294,11 @@
       <c r="O214" s="5"/>
       <c r="P214" s="6"/>
     </row>
-    <row r="215" spans="1:16">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A215" s="4"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="D215" s="5"/>
       <c r="E215" s="5"/>
@@ -10225,7 +10314,7 @@
       <c r="O215" s="5"/>
       <c r="P215" s="6"/>
     </row>
-    <row r="216" spans="1:16">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A216" s="4"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -10243,10 +10332,10 @@
       <c r="O216" s="5"/>
       <c r="P216" s="6"/>
     </row>
-    <row r="217" spans="1:16">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A217" s="4"/>
       <c r="B217" s="5" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="C217" s="5"/>
       <c r="D217" s="5"/>
@@ -10263,7 +10352,7 @@
       <c r="O217" s="5"/>
       <c r="P217" s="6"/>
     </row>
-    <row r="218" spans="1:16">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A218" s="4"/>
       <c r="B218" s="5" t="s">
         <v>39</v>
@@ -10283,10 +10372,10 @@
       <c r="O218" s="5"/>
       <c r="P218" s="6"/>
     </row>
-    <row r="219" spans="1:16">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A219" s="4"/>
       <c r="B219" s="5" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
@@ -10303,10 +10392,10 @@
       <c r="O219" s="5"/>
       <c r="P219" s="6"/>
     </row>
-    <row r="220" spans="1:16">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A220" s="4"/>
       <c r="B220" s="5" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="C220" s="5"/>
       <c r="D220" s="5"/>
@@ -10323,10 +10412,10 @@
       <c r="O220" s="5"/>
       <c r="P220" s="6"/>
     </row>
-    <row r="221" spans="1:16">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A221" s="4"/>
       <c r="B221" s="5" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="C221" s="5"/>
       <c r="D221" s="5"/>
@@ -10343,11 +10432,11 @@
       <c r="O221" s="5"/>
       <c r="P221" s="6"/>
     </row>
-    <row r="222" spans="1:16">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A222" s="4"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="D222" s="5"/>
       <c r="E222" s="5"/>
@@ -10363,11 +10452,11 @@
       <c r="O222" s="5"/>
       <c r="P222" s="6"/>
     </row>
-    <row r="223" spans="1:16">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A223" s="4"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="D223" s="5"/>
       <c r="E223" s="5"/>
@@ -10383,12 +10472,12 @@
       <c r="O223" s="5"/>
       <c r="P223" s="6"/>
     </row>
-    <row r="224" spans="1:16">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A224" s="4"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
       <c r="D224" s="5" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="E224" s="5"/>
       <c r="F224" s="5"/>
@@ -10403,12 +10492,12 @@
       <c r="O224" s="5"/>
       <c r="P224" s="6"/>
     </row>
-    <row r="225" spans="1:16">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A225" s="4"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
       <c r="D225" s="5" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
@@ -10423,13 +10512,13 @@
       <c r="O225" s="5"/>
       <c r="P225" s="6"/>
     </row>
-    <row r="226" spans="1:16">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A226" s="4"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
       <c r="D226" s="5"/>
       <c r="E226" s="5" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="F226" s="5"/>
       <c r="G226" s="5"/>
@@ -10443,13 +10532,13 @@
       <c r="O226" s="5"/>
       <c r="P226" s="6"/>
     </row>
-    <row r="227" spans="1:16">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A227" s="4"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
       <c r="D227" s="5"/>
       <c r="E227" s="5" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="F227" s="5"/>
       <c r="G227" s="5"/>
@@ -10463,7 +10552,7 @@
       <c r="O227" s="5"/>
       <c r="P227" s="6"/>
     </row>
-    <row r="228" spans="1:16">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A228" s="4"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -10481,10 +10570,10 @@
       <c r="O228" s="5"/>
       <c r="P228" s="6"/>
     </row>
-    <row r="229" spans="1:16">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A229" s="4"/>
       <c r="B229" s="5" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="C229" s="5"/>
       <c r="D229" s="5"/>
@@ -10501,7 +10590,7 @@
       <c r="O229" s="5"/>
       <c r="P229" s="6"/>
     </row>
-    <row r="230" spans="1:16">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A230" s="4"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -10519,10 +10608,10 @@
       <c r="O230" s="5"/>
       <c r="P230" s="6"/>
     </row>
-    <row r="231" spans="1:16">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A231" s="4"/>
       <c r="B231" s="5" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="C231" s="5"/>
       <c r="D231" s="5"/>
@@ -10539,10 +10628,10 @@
       <c r="O231" s="5"/>
       <c r="P231" s="6"/>
     </row>
-    <row r="232" spans="1:16">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A232" s="4"/>
       <c r="B232" s="5" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C232" s="5"/>
       <c r="D232" s="5"/>
@@ -10559,7 +10648,7 @@
       <c r="O232" s="5"/>
       <c r="P232" s="6"/>
     </row>
-    <row r="233" spans="1:16">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A233" s="4"/>
       <c r="B233" s="5" t="s">
         <v>522</v>
@@ -10579,11 +10668,11 @@
       <c r="O233" s="5"/>
       <c r="P233" s="6"/>
     </row>
-    <row r="234" spans="1:16">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A234" s="4"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D234" s="5"/>
       <c r="E234" s="5"/>
@@ -10599,11 +10688,11 @@
       <c r="O234" s="5"/>
       <c r="P234" s="6"/>
     </row>
-    <row r="235" spans="1:16">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A235" s="4"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D235" s="5"/>
       <c r="E235" s="5"/>
@@ -10619,11 +10708,11 @@
       <c r="O235" s="5"/>
       <c r="P235" s="6"/>
     </row>
-    <row r="236" spans="1:16">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A236" s="4"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D236" s="5"/>
       <c r="E236" s="5"/>
@@ -10639,11 +10728,11 @@
       <c r="O236" s="5"/>
       <c r="P236" s="6"/>
     </row>
-    <row r="237" spans="1:16">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A237" s="4"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D237" s="5"/>
       <c r="E237" s="5"/>
@@ -10659,7 +10748,7 @@
       <c r="O237" s="5"/>
       <c r="P237" s="6"/>
     </row>
-    <row r="238" spans="1:16">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A238" s="4"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5" t="s">
@@ -10679,11 +10768,11 @@
       <c r="O238" s="5"/>
       <c r="P238" s="6"/>
     </row>
-    <row r="239" spans="1:16">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A239" s="4"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="D239" s="5"/>
       <c r="E239" s="5"/>
@@ -10699,11 +10788,11 @@
       <c r="O239" s="5"/>
       <c r="P239" s="6"/>
     </row>
-    <row r="240" spans="1:16">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A240" s="4"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="D240" s="5"/>
       <c r="E240" s="5"/>
@@ -10719,11 +10808,11 @@
       <c r="O240" s="5"/>
       <c r="P240" s="6"/>
     </row>
-    <row r="241" spans="1:16">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A241" s="4"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D241" s="5"/>
       <c r="E241" s="5"/>
@@ -10739,11 +10828,11 @@
       <c r="O241" s="5"/>
       <c r="P241" s="6"/>
     </row>
-    <row r="242" spans="1:16">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A242" s="4"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="D242" s="5"/>
       <c r="E242" s="5"/>
@@ -10759,11 +10848,11 @@
       <c r="O242" s="5"/>
       <c r="P242" s="6"/>
     </row>
-    <row r="243" spans="1:16">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A243" s="4"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="D243" s="5"/>
       <c r="E243" s="5"/>
@@ -10779,7 +10868,7 @@
       <c r="O243" s="5"/>
       <c r="P243" s="6"/>
     </row>
-    <row r="244" spans="1:16">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A244" s="4"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -10797,10 +10886,10 @@
       <c r="O244" s="5"/>
       <c r="P244" s="6"/>
     </row>
-    <row r="245" spans="1:16">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A245" s="4"/>
       <c r="B245" s="5" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="C245" s="5"/>
       <c r="D245" s="5"/>
@@ -10817,7 +10906,7 @@
       <c r="O245" s="5"/>
       <c r="P245" s="6"/>
     </row>
-    <row r="246" spans="1:16">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A246" s="4"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -10835,7 +10924,7 @@
       <c r="O246" s="5"/>
       <c r="P246" s="6"/>
     </row>
-    <row r="247" spans="1:16">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A247" s="4"/>
       <c r="B247" s="5" t="s">
         <v>482</v>
@@ -10855,11 +10944,11 @@
       <c r="O247" s="5"/>
       <c r="P247" s="6"/>
     </row>
-    <row r="248" spans="1:16">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A248" s="4"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="D248" s="5"/>
       <c r="E248" s="5"/>
@@ -10875,11 +10964,11 @@
       <c r="O248" s="5"/>
       <c r="P248" s="6"/>
     </row>
-    <row r="249" spans="1:16">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A249" s="4"/>
       <c r="B249" s="5"/>
       <c r="C249" s="5" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="D249" s="5"/>
       <c r="E249" s="5"/>
@@ -10895,11 +10984,11 @@
       <c r="O249" s="5"/>
       <c r="P249" s="6"/>
     </row>
-    <row r="250" spans="1:16">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A250" s="4"/>
       <c r="B250" s="5"/>
       <c r="C250" s="5" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="D250" s="5"/>
       <c r="E250" s="5"/>
@@ -10915,11 +11004,11 @@
       <c r="O250" s="5"/>
       <c r="P250" s="6"/>
     </row>
-    <row r="251" spans="1:16">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A251" s="4"/>
       <c r="B251" s="5"/>
       <c r="C251" s="5" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="D251" s="5"/>
       <c r="E251" s="5"/>
@@ -10935,9 +11024,9 @@
       <c r="O251" s="5"/>
       <c r="P251" s="6"/>
     </row>
-    <row r="252" spans="1:16">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A252" s="7" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="B252" s="8"/>
       <c r="C252" s="8"/>
@@ -10955,9 +11044,14 @@
       <c r="O252" s="8"/>
       <c r="P252" s="9"/>
     </row>
-    <row r="254" spans="1:16">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A253" s="23" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -10975,10 +11069,10 @@
       <c r="O254" s="2"/>
       <c r="P254" s="3"/>
     </row>
-    <row r="255" spans="1:16">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A255" s="4"/>
       <c r="B255" s="5" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="C255" s="5"/>
       <c r="D255" s="5"/>
@@ -10995,9 +11089,9 @@
       <c r="O255" s="5"/>
       <c r="P255" s="6"/>
     </row>
-    <row r="256" spans="1:16">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
@@ -11015,9 +11109,9 @@
       <c r="O256" s="5"/>
       <c r="P256" s="6"/>
     </row>
-    <row r="257" spans="1:16">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
@@ -11035,10 +11129,10 @@
       <c r="O257" s="5"/>
       <c r="P257" s="6"/>
     </row>
-    <row r="258" spans="1:16">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A258" s="4"/>
       <c r="B258" s="5" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="C258" s="5"/>
       <c r="D258" s="5"/>
@@ -11055,9 +11149,9 @@
       <c r="O258" s="5"/>
       <c r="P258" s="6"/>
     </row>
-    <row r="259" spans="1:16">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A259" s="4" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
@@ -11075,7 +11169,7 @@
       <c r="O259" s="5"/>
       <c r="P259" s="6"/>
     </row>
-    <row r="260" spans="1:16">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A260" s="4"/>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
@@ -11093,9 +11187,9 @@
       <c r="O260" s="5"/>
       <c r="P260" s="6"/>
     </row>
-    <row r="261" spans="1:16">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A261" s="4" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
@@ -11113,9 +11207,9 @@
       <c r="O261" s="5"/>
       <c r="P261" s="6"/>
     </row>
-    <row r="262" spans="1:16">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A262" s="4" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
@@ -11133,9 +11227,9 @@
       <c r="O262" s="5"/>
       <c r="P262" s="6"/>
     </row>
-    <row r="263" spans="1:16">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A263" s="4" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
@@ -11153,9 +11247,9 @@
       <c r="O263" s="5"/>
       <c r="P263" s="6"/>
     </row>
-    <row r="264" spans="1:16">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A264" s="4" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
@@ -11173,7 +11267,7 @@
       <c r="O264" s="5"/>
       <c r="P264" s="6"/>
     </row>
-    <row r="265" spans="1:16">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A265" s="4"/>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
@@ -11191,10 +11285,10 @@
       <c r="O265" s="5"/>
       <c r="P265" s="6"/>
     </row>
-    <row r="266" spans="1:16">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A266" s="4"/>
       <c r="B266" s="5" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="C266" s="5"/>
       <c r="D266" s="5"/>
@@ -11211,10 +11305,10 @@
       <c r="O266" s="5"/>
       <c r="P266" s="6"/>
     </row>
-    <row r="267" spans="1:16">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A267" s="4"/>
       <c r="B267" s="5" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="C267" s="5"/>
       <c r="D267" s="5"/>
@@ -11231,7 +11325,7 @@
       <c r="O267" s="5"/>
       <c r="P267" s="6"/>
     </row>
-    <row r="268" spans="1:16">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A268" s="4"/>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
@@ -11249,10 +11343,10 @@
       <c r="O268" s="5"/>
       <c r="P268" s="6"/>
     </row>
-    <row r="269" spans="1:16">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A269" s="4"/>
       <c r="B269" s="5" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="C269" s="5"/>
       <c r="D269" s="5"/>
@@ -11269,11 +11363,11 @@
       <c r="O269" s="5"/>
       <c r="P269" s="6"/>
     </row>
-    <row r="270" spans="1:16">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A270" s="4"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="D270" s="5"/>
       <c r="E270" s="5"/>
@@ -11289,11 +11383,11 @@
       <c r="O270" s="5"/>
       <c r="P270" s="6"/>
     </row>
-    <row r="271" spans="1:16">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A271" s="4"/>
       <c r="B271" s="5"/>
       <c r="C271" s="5" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="D271" s="5"/>
       <c r="E271" s="5"/>
@@ -11309,12 +11403,12 @@
       <c r="O271" s="5"/>
       <c r="P271" s="6"/>
     </row>
-    <row r="272" spans="1:16">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A272" s="4"/>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
       <c r="D272" s="5" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="E272" s="5"/>
       <c r="F272" s="5"/>
@@ -11329,13 +11423,13 @@
       <c r="O272" s="5"/>
       <c r="P272" s="6"/>
     </row>
-    <row r="273" spans="1:16">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A273" s="4"/>
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
       <c r="D273" s="5"/>
       <c r="E273" s="5" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="F273" s="5"/>
       <c r="G273" s="5"/>
@@ -11349,13 +11443,13 @@
       <c r="O273" s="5"/>
       <c r="P273" s="6"/>
     </row>
-    <row r="274" spans="1:16">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A274" s="4"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
       <c r="D274" s="5"/>
       <c r="E274" s="5" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="F274" s="5"/>
       <c r="G274" s="5"/>
@@ -11369,13 +11463,13 @@
       <c r="O274" s="5"/>
       <c r="P274" s="6"/>
     </row>
-    <row r="275" spans="1:16">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A275" s="4"/>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
       <c r="D275" s="5"/>
       <c r="E275" s="5" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="F275" s="5"/>
       <c r="G275" s="5"/>
@@ -11389,13 +11483,13 @@
       <c r="O275" s="5"/>
       <c r="P275" s="6"/>
     </row>
-    <row r="276" spans="1:16">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A276" s="4"/>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
       <c r="D276" s="5"/>
       <c r="E276" s="5" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="F276" s="5"/>
       <c r="G276" s="5"/>
@@ -11409,12 +11503,12 @@
       <c r="O276" s="5"/>
       <c r="P276" s="6"/>
     </row>
-    <row r="277" spans="1:16">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A277" s="4"/>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
       <c r="D277" s="5" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="E277" s="5"/>
       <c r="F277" s="5"/>
@@ -11429,10 +11523,10 @@
       <c r="O277" s="5"/>
       <c r="P277" s="6"/>
     </row>
-    <row r="278" spans="1:16">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A278" s="4"/>
       <c r="B278" s="5" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="C278" s="5"/>
       <c r="D278" s="5"/>
@@ -11449,7 +11543,7 @@
       <c r="O278" s="5"/>
       <c r="P278" s="6"/>
     </row>
-    <row r="279" spans="1:16">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A279" s="4"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
@@ -11467,10 +11561,10 @@
       <c r="O279" s="5"/>
       <c r="P279" s="6"/>
     </row>
-    <row r="280" spans="1:16">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A280" s="4"/>
       <c r="B280" s="5" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="C280" s="5"/>
       <c r="D280" s="5"/>
@@ -11487,10 +11581,10 @@
       <c r="O280" s="5"/>
       <c r="P280" s="6"/>
     </row>
-    <row r="281" spans="1:16">
+    <row r="281" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A281" s="4"/>
       <c r="B281" s="5" t="s">
-        <v>690</v>
+        <v>754</v>
       </c>
       <c r="C281" s="5"/>
       <c r="D281" s="5"/>
@@ -11507,11 +11601,11 @@
       <c r="O281" s="5"/>
       <c r="P281" s="6"/>
     </row>
-    <row r="282" spans="1:16">
+    <row r="282" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A282" s="4"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="D282" s="5"/>
       <c r="E282" s="5"/>
@@ -11527,11 +11621,11 @@
       <c r="O282" s="5"/>
       <c r="P282" s="6"/>
     </row>
-    <row r="283" spans="1:16">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A283" s="4"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="D283" s="5"/>
       <c r="E283" s="5"/>
@@ -11547,11 +11641,11 @@
       <c r="O283" s="5"/>
       <c r="P283" s="6"/>
     </row>
-    <row r="284" spans="1:16">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A284" s="4"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="D284" s="5"/>
       <c r="E284" s="5"/>
@@ -11567,11 +11661,11 @@
       <c r="O284" s="5"/>
       <c r="P284" s="6"/>
     </row>
-    <row r="285" spans="1:16">
+    <row r="285" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A285" s="4"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="D285" s="5"/>
       <c r="E285" s="5"/>
@@ -11587,10 +11681,10 @@
       <c r="O285" s="5"/>
       <c r="P285" s="6"/>
     </row>
-    <row r="286" spans="1:16">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A286" s="4"/>
       <c r="B286" s="5" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="C286" s="5"/>
       <c r="D286" s="5"/>
@@ -11607,11 +11701,11 @@
       <c r="O286" s="5"/>
       <c r="P286" s="6"/>
     </row>
-    <row r="287" spans="1:16">
+    <row r="287" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A287" s="4"/>
       <c r="B287" s="5"/>
       <c r="C287" s="5" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="D287" s="5"/>
       <c r="E287" s="5"/>
@@ -11627,11 +11721,11 @@
       <c r="O287" s="5"/>
       <c r="P287" s="6"/>
     </row>
-    <row r="288" spans="1:16">
+    <row r="288" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A288" s="4"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="D288" s="5"/>
       <c r="E288" s="5"/>
@@ -11647,11 +11741,11 @@
       <c r="O288" s="5"/>
       <c r="P288" s="6"/>
     </row>
-    <row r="289" spans="1:16">
+    <row r="289" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A289" s="4"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="D289" s="5"/>
       <c r="E289" s="5"/>
@@ -11667,11 +11761,11 @@
       <c r="O289" s="5"/>
       <c r="P289" s="6"/>
     </row>
-    <row r="290" spans="1:16">
+    <row r="290" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A290" s="4"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="D290" s="5"/>
       <c r="E290" s="5"/>
@@ -11687,11 +11781,11 @@
       <c r="O290" s="5"/>
       <c r="P290" s="6"/>
     </row>
-    <row r="291" spans="1:16">
+    <row r="291" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A291" s="4"/>
       <c r="B291" s="5"/>
       <c r="C291" s="5" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="D291" s="5"/>
       <c r="E291" s="5"/>
@@ -11707,10 +11801,10 @@
       <c r="O291" s="5"/>
       <c r="P291" s="6"/>
     </row>
-    <row r="292" spans="1:16">
+    <row r="292" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A292" s="4"/>
       <c r="B292" s="5" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="C292" s="5"/>
       <c r="D292" s="5"/>
@@ -11727,10 +11821,10 @@
       <c r="O292" s="5"/>
       <c r="P292" s="6"/>
     </row>
-    <row r="293" spans="1:16">
+    <row r="293" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A293" s="4"/>
       <c r="B293" s="5" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="C293" s="5"/>
       <c r="D293" s="5"/>
@@ -11747,10 +11841,10 @@
       <c r="O293" s="5"/>
       <c r="P293" s="6"/>
     </row>
-    <row r="294" spans="1:16">
+    <row r="294" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A294" s="4"/>
       <c r="B294" s="5" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="C294" s="5"/>
       <c r="D294" s="5"/>
@@ -11767,11 +11861,11 @@
       <c r="O294" s="5"/>
       <c r="P294" s="6"/>
     </row>
-    <row r="295" spans="1:16">
+    <row r="295" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A295" s="4"/>
       <c r="B295" s="5"/>
       <c r="C295" s="5" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="D295" s="5"/>
       <c r="E295" s="5"/>
@@ -11787,11 +11881,11 @@
       <c r="O295" s="5"/>
       <c r="P295" s="6"/>
     </row>
-    <row r="296" spans="1:16">
+    <row r="296" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A296" s="4"/>
       <c r="B296" s="5"/>
       <c r="C296" s="5" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="D296" s="5"/>
       <c r="E296" s="5"/>
@@ -11807,10 +11901,10 @@
       <c r="O296" s="5"/>
       <c r="P296" s="6"/>
     </row>
-    <row r="297" spans="1:16">
+    <row r="297" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A297" s="4"/>
       <c r="B297" s="5" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="C297" s="5"/>
       <c r="D297" s="5"/>
@@ -11827,7 +11921,7 @@
       <c r="O297" s="5"/>
       <c r="P297" s="6"/>
     </row>
-    <row r="298" spans="1:16">
+    <row r="298" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A298" s="4"/>
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
@@ -11845,10 +11939,10 @@
       <c r="O298" s="5"/>
       <c r="P298" s="6"/>
     </row>
-    <row r="299" spans="1:16">
+    <row r="299" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A299" s="4"/>
       <c r="B299" s="5" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="C299" s="5"/>
       <c r="D299" s="5"/>
@@ -11865,9 +11959,9 @@
       <c r="O299" s="5"/>
       <c r="P299" s="6"/>
     </row>
-    <row r="300" spans="1:16">
+    <row r="300" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A300" s="7" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="B300" s="8"/>
       <c r="C300" s="8"/>
@@ -11885,9 +11979,14 @@
       <c r="O300" s="8"/>
       <c r="P300" s="9"/>
     </row>
-    <row r="302" spans="1:16">
+    <row r="301" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A301" s="23" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="302" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -11905,9 +12004,9 @@
       <c r="O302" s="2"/>
       <c r="P302" s="3"/>
     </row>
-    <row r="303" spans="1:16">
+    <row r="303" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A303" s="4" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="B303" s="5"/>
       <c r="C303" s="5"/>
@@ -11925,10 +12024,10 @@
       <c r="O303" s="5"/>
       <c r="P303" s="6"/>
     </row>
-    <row r="304" spans="1:16">
+    <row r="304" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A304" s="4"/>
       <c r="B304" s="5" t="s">
-        <v>709</v>
+        <v>755</v>
       </c>
       <c r="C304" s="5"/>
       <c r="D304" s="5"/>
@@ -11945,10 +12044,10 @@
       <c r="O304" s="5"/>
       <c r="P304" s="6"/>
     </row>
-    <row r="305" spans="1:16">
+    <row r="305" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A305" s="4"/>
       <c r="B305" s="5" t="s">
-        <v>710</v>
+        <v>756</v>
       </c>
       <c r="C305" s="5"/>
       <c r="D305" s="5"/>
@@ -11965,10 +12064,10 @@
       <c r="O305" s="5"/>
       <c r="P305" s="6"/>
     </row>
-    <row r="306" spans="1:16">
+    <row r="306" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A306" s="4"/>
       <c r="B306" s="5" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="C306" s="5"/>
       <c r="D306" s="5"/>
@@ -11985,11 +12084,11 @@
       <c r="O306" s="5"/>
       <c r="P306" s="6"/>
     </row>
-    <row r="307" spans="1:16">
+    <row r="307" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A307" s="4"/>
       <c r="B307" s="5"/>
       <c r="C307" s="5" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="D307" s="5"/>
       <c r="E307" s="5"/>
@@ -12005,11 +12104,11 @@
       <c r="O307" s="5"/>
       <c r="P307" s="6"/>
     </row>
-    <row r="308" spans="1:16">
+    <row r="308" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A308" s="4"/>
       <c r="B308" s="5"/>
       <c r="C308" s="5" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="D308" s="5"/>
       <c r="E308" s="5"/>
@@ -12025,11 +12124,11 @@
       <c r="O308" s="5"/>
       <c r="P308" s="6"/>
     </row>
-    <row r="309" spans="1:16">
+    <row r="309" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A309" s="4"/>
       <c r="B309" s="5"/>
       <c r="C309" s="5" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="D309" s="5"/>
       <c r="E309" s="5"/>
@@ -12045,7 +12144,7 @@
       <c r="O309" s="5"/>
       <c r="P309" s="6"/>
     </row>
-    <row r="310" spans="1:16">
+    <row r="310" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A310" s="4"/>
       <c r="B310" s="5"/>
       <c r="C310" s="5"/>
@@ -12063,10 +12162,10 @@
       <c r="O310" s="5"/>
       <c r="P310" s="6"/>
     </row>
-    <row r="311" spans="1:16">
+    <row r="311" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A311" s="4"/>
       <c r="B311" s="5" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="C311" s="5"/>
       <c r="D311" s="5"/>
@@ -12083,9 +12182,9 @@
       <c r="O311" s="5"/>
       <c r="P311" s="6"/>
     </row>
-    <row r="312" spans="1:16">
+    <row r="312" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A312" s="7" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="B312" s="8"/>
       <c r="C312" s="8"/>
@@ -12103,9 +12202,14 @@
       <c r="O312" s="8"/>
       <c r="P312" s="9"/>
     </row>
-    <row r="314" spans="1:16">
+    <row r="313" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A313" s="23" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="314" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -12123,9 +12227,9 @@
       <c r="O314" s="2"/>
       <c r="P314" s="3"/>
     </row>
-    <row r="315" spans="1:16">
+    <row r="315" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A315" s="4" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="B315" s="5"/>
       <c r="C315" s="5"/>
@@ -12143,10 +12247,10 @@
       <c r="O315" s="5"/>
       <c r="P315" s="6"/>
     </row>
-    <row r="316" spans="1:16">
+    <row r="316" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A316" s="4"/>
       <c r="B316" s="5" t="s">
-        <v>644</v>
+        <v>757</v>
       </c>
       <c r="C316" s="5"/>
       <c r="D316" s="5"/>
@@ -12163,10 +12267,10 @@
       <c r="O316" s="5"/>
       <c r="P316" s="6"/>
     </row>
-    <row r="317" spans="1:16">
+    <row r="317" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A317" s="4"/>
       <c r="B317" s="5" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="C317" s="5"/>
       <c r="D317" s="5"/>
@@ -12183,10 +12287,10 @@
       <c r="O317" s="5"/>
       <c r="P317" s="6"/>
     </row>
-    <row r="318" spans="1:16">
+    <row r="318" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A318" s="4"/>
       <c r="B318" s="5" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="C318" s="5"/>
       <c r="D318" s="5"/>
@@ -12203,11 +12307,11 @@
       <c r="O318" s="5"/>
       <c r="P318" s="6"/>
     </row>
-    <row r="319" spans="1:16">
+    <row r="319" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A319" s="4"/>
       <c r="B319" s="5"/>
       <c r="C319" s="5" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="D319" s="5"/>
       <c r="E319" s="5"/>
@@ -12223,11 +12327,11 @@
       <c r="O319" s="5"/>
       <c r="P319" s="6"/>
     </row>
-    <row r="320" spans="1:16">
+    <row r="320" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A320" s="4"/>
       <c r="B320" s="5"/>
       <c r="C320" s="5" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="D320" s="5"/>
       <c r="E320" s="5"/>
@@ -12243,12 +12347,12 @@
       <c r="O320" s="5"/>
       <c r="P320" s="6"/>
     </row>
-    <row r="321" spans="1:16">
+    <row r="321" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A321" s="4"/>
       <c r="B321" s="5"/>
       <c r="C321" s="5"/>
       <c r="D321" s="5" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="E321" s="5"/>
       <c r="F321" s="5"/>
@@ -12263,12 +12367,12 @@
       <c r="O321" s="5"/>
       <c r="P321" s="6"/>
     </row>
-    <row r="322" spans="1:16">
+    <row r="322" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A322" s="4"/>
       <c r="B322" s="5"/>
       <c r="C322" s="5"/>
       <c r="D322" s="5" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="E322" s="5"/>
       <c r="F322" s="5"/>
@@ -12283,11 +12387,11 @@
       <c r="O322" s="5"/>
       <c r="P322" s="6"/>
     </row>
-    <row r="323" spans="1:16">
+    <row r="323" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A323" s="4"/>
       <c r="B323" s="5"/>
       <c r="C323" s="5" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="D323" s="5"/>
       <c r="E323" s="5"/>
@@ -12303,7 +12407,7 @@
       <c r="O323" s="5"/>
       <c r="P323" s="6"/>
     </row>
-    <row r="324" spans="1:16">
+    <row r="324" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A324" s="4"/>
       <c r="B324" s="5"/>
       <c r="C324" s="5"/>
@@ -12321,10 +12425,10 @@
       <c r="O324" s="5"/>
       <c r="P324" s="6"/>
     </row>
-    <row r="325" spans="1:16">
+    <row r="325" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A325" s="4"/>
       <c r="B325" s="5" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="C325" s="5"/>
       <c r="D325" s="5"/>
@@ -12341,9 +12445,9 @@
       <c r="O325" s="5"/>
       <c r="P325" s="6"/>
     </row>
-    <row r="326" spans="1:16">
+    <row r="326" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A326" s="7" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="B326" s="8"/>
       <c r="C326" s="8"/>
@@ -12361,14 +12465,14 @@
       <c r="O326" s="8"/>
       <c r="P326" s="9"/>
     </row>
-    <row r="328" spans="1:16">
+    <row r="328" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="329" spans="1:16">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="329" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A329" s="26" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="B329" s="27"/>
       <c r="C329" s="27"/>
@@ -12376,9 +12480,9 @@
       <c r="E329" s="27"/>
       <c r="F329" s="28"/>
     </row>
-    <row r="333" spans="1:16">
+    <row r="333" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A333" s="36" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="B333" s="36"/>
       <c r="C333" s="36"/>
@@ -12396,14 +12500,14 @@
       <c r="O333" s="36"/>
       <c r="P333" s="36"/>
     </row>
-    <row r="334" spans="1:16">
+    <row r="334" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="335" spans="1:16">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="335" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A335" s="26" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="B335" s="27"/>
       <c r="C335" s="27"/>
@@ -12412,14 +12516,14 @@
       <c r="F335" s="27"/>
       <c r="G335" s="28"/>
     </row>
-    <row r="338" spans="1:15">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="339" spans="1:15">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
-        <v>733</v>
+        <v>758</v>
       </c>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -12432,9 +12536,9 @@
       <c r="J339" s="2"/>
       <c r="K339" s="3"/>
     </row>
-    <row r="340" spans="1:15">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340" s="4" t="s">
-        <v>734</v>
+        <v>723</v>
       </c>
       <c r="B340" s="5"/>
       <c r="C340" s="5"/>
@@ -12447,9 +12551,9 @@
       <c r="J340" s="5"/>
       <c r="K340" s="6"/>
     </row>
-    <row r="341" spans="1:15">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" s="4" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
       <c r="B341" s="5"/>
       <c r="C341" s="5"/>
@@ -12462,9 +12566,9 @@
       <c r="J341" s="5"/>
       <c r="K341" s="6"/>
     </row>
-    <row r="342" spans="1:15">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" s="4" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="B342" s="5"/>
       <c r="C342" s="5"/>
@@ -12477,9 +12581,9 @@
       <c r="J342" s="5"/>
       <c r="K342" s="6"/>
     </row>
-    <row r="343" spans="1:15">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" s="4" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
       <c r="B343" s="5"/>
       <c r="C343" s="5"/>
@@ -12492,9 +12596,9 @@
       <c r="J343" s="5"/>
       <c r="K343" s="6"/>
     </row>
-    <row r="344" spans="1:15">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344" s="7" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
       <c r="B344" s="8"/>
       <c r="C344" s="8"/>
@@ -12507,9 +12611,9 @@
       <c r="J344" s="8"/>
       <c r="K344" s="9"/>
     </row>
-    <row r="347" spans="1:15">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A347" s="36" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
       <c r="B347" s="36"/>
       <c r="C347" s="36"/>
@@ -12526,14 +12630,14 @@
       <c r="N347" s="36"/>
       <c r="O347" s="36"/>
     </row>
-    <row r="348" spans="1:15">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="349" spans="1:15">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A349" s="26" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="B349" s="27"/>
       <c r="C349" s="27"/>
@@ -12542,9 +12646,9 @@
       <c r="F349" s="27"/>
       <c r="G349" s="28"/>
     </row>
-    <row r="351" spans="1:15">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
-        <v>740</v>
+        <v>759</v>
       </c>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -12557,9 +12661,9 @@
       <c r="J351" s="2"/>
       <c r="K351" s="3"/>
     </row>
-    <row r="352" spans="1:15">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352" s="4" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
       <c r="B352" s="5"/>
       <c r="C352" s="5"/>
@@ -12572,10 +12676,10 @@
       <c r="J352" s="5"/>
       <c r="K352" s="6"/>
     </row>
-    <row r="353" spans="1:11">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A353" s="4"/>
       <c r="B353" s="5" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="C353" s="5"/>
       <c r="D353" s="5"/>
@@ -12587,10 +12691,10 @@
       <c r="J353" s="5"/>
       <c r="K353" s="6"/>
     </row>
-    <row r="354" spans="1:11">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A354" s="4"/>
       <c r="B354" s="5" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
       <c r="C354" s="5"/>
       <c r="D354" s="5"/>
@@ -12602,10 +12706,10 @@
       <c r="J354" s="5"/>
       <c r="K354" s="6"/>
     </row>
-    <row r="355" spans="1:11">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A355" s="4"/>
       <c r="B355" s="5" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
       <c r="C355" s="5"/>
       <c r="D355" s="5"/>
@@ -12617,10 +12721,10 @@
       <c r="J355" s="5"/>
       <c r="K355" s="6"/>
     </row>
-    <row r="356" spans="1:11">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A356" s="4"/>
       <c r="B356" s="5" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="C356" s="5"/>
       <c r="D356" s="5"/>
@@ -12632,10 +12736,10 @@
       <c r="J356" s="5"/>
       <c r="K356" s="6"/>
     </row>
-    <row r="357" spans="1:11">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A357" s="4"/>
       <c r="B357" s="5" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
       <c r="C357" s="5"/>
       <c r="D357" s="5"/>
@@ -12647,10 +12751,10 @@
       <c r="J357" s="5"/>
       <c r="K357" s="6"/>
     </row>
-    <row r="358" spans="1:11">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A358" s="4"/>
       <c r="B358" s="5" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
       <c r="C358" s="5"/>
       <c r="D358" s="5"/>
@@ -12662,10 +12766,10 @@
       <c r="J358" s="5"/>
       <c r="K358" s="6"/>
     </row>
-    <row r="359" spans="1:11">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A359" s="4"/>
       <c r="B359" s="5" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="C359" s="5"/>
       <c r="D359" s="5"/>
@@ -12677,10 +12781,10 @@
       <c r="J359" s="5"/>
       <c r="K359" s="6"/>
     </row>
-    <row r="360" spans="1:11">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A360" s="4"/>
       <c r="B360" s="5" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="C360" s="5"/>
       <c r="D360" s="5"/>
@@ -12692,10 +12796,10 @@
       <c r="J360" s="5"/>
       <c r="K360" s="6"/>
     </row>
-    <row r="361" spans="1:11">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A361" s="4"/>
       <c r="B361" s="5" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
       <c r="C361" s="5"/>
       <c r="D361" s="5"/>
@@ -12707,10 +12811,10 @@
       <c r="J361" s="5"/>
       <c r="K361" s="6"/>
     </row>
-    <row r="362" spans="1:11">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A362" s="4"/>
       <c r="B362" s="5" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
       <c r="C362" s="5"/>
       <c r="D362" s="5"/>
@@ -12722,10 +12826,10 @@
       <c r="J362" s="5"/>
       <c r="K362" s="6"/>
     </row>
-    <row r="363" spans="1:11">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A363" s="4"/>
       <c r="B363" s="5" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="C363" s="5"/>
       <c r="D363" s="5"/>
@@ -12737,10 +12841,10 @@
       <c r="J363" s="5"/>
       <c r="K363" s="6"/>
     </row>
-    <row r="364" spans="1:11">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A364" s="4"/>
       <c r="B364" s="5" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="C364" s="5"/>
       <c r="D364" s="5"/>
@@ -12752,9 +12856,9 @@
       <c r="J364" s="5"/>
       <c r="K364" s="6"/>
     </row>
-    <row r="365" spans="1:11">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A365" s="7" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
       <c r="B365" s="8"/>
       <c r="C365" s="8"/>
@@ -12767,9 +12871,9 @@
       <c r="J365" s="8"/>
       <c r="K365" s="9"/>
     </row>
-    <row r="369" spans="1:15">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A369" s="36" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="B369" s="36"/>
       <c r="C369" s="36"/>
@@ -12787,6 +12891,7 @@
       <c r="O369" s="36"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -12801,14 +12906,14 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>159</v>
       </c>
@@ -12820,9 +12925,9 @@
       <c r="G4" s="2"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -12832,9 +12937,9 @@
       <c r="G5" s="5"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -12844,7 +12949,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>173</v>
       </c>
@@ -12855,7 +12960,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
         <v>162</v>
       </c>
@@ -12869,7 +12974,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
         <v>166</v>
       </c>
@@ -12883,22 +12988,22 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C11" s="23" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>447</v>
       </c>
@@ -12909,7 +13014,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>448</v>
       </c>
@@ -12920,7 +13025,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>449</v>
       </c>
@@ -12931,7 +13036,7 @@
       <c r="F24" s="5"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
         <v>450</v>
       </c>
@@ -12942,7 +13047,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>451</v>
       </c>
@@ -12953,7 +13058,7 @@
       <c r="F26" s="5"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>452</v>
       </c>
@@ -12964,7 +13069,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>453</v>
       </c>
@@ -12975,7 +13080,7 @@
       <c r="F28" s="5"/>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>454</v>
       </c>
@@ -12986,7 +13091,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>455</v>
       </c>
@@ -12997,7 +13102,7 @@
       <c r="F30" s="5"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>456</v>
       </c>
@@ -13008,7 +13113,7 @@
       <c r="F31" s="5"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>457</v>
       </c>
@@ -13019,7 +13124,7 @@
       <c r="F32" s="5"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>458</v>
       </c>
@@ -13031,6 +13136,7 @@
       <c r="G33" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
@@ -13044,17 +13150,17 @@
       <selection activeCell="A67" sqref="A67:XFD67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -13075,7 +13181,7 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -13094,7 +13200,7 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="6"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -13115,7 +13221,7 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="6"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
@@ -13138,7 +13244,7 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="6"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -13157,7 +13263,7 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="6"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -13176,7 +13282,7 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="6"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
@@ -13197,7 +13303,7 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="6"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -13216,7 +13322,7 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="6"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
@@ -13237,7 +13343,7 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="6"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>21</v>
       </c>
@@ -13260,7 +13366,7 @@
       <c r="P12" s="8"/>
       <c r="Q12" s="9"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -13279,7 +13385,7 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="29"/>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
@@ -13298,12 +13404,12 @@
       <c r="P14" s="29"/>
       <c r="Q14" s="29"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>156</v>
       </c>
@@ -13313,7 +13419,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>157</v>
       </c>
@@ -13323,7 +13429,7 @@
       <c r="E17" s="8"/>
       <c r="F17" s="9"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>460</v>
       </c>
@@ -13334,7 +13440,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>161</v>
       </c>
@@ -13345,7 +13451,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="9"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="22"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -13358,12 +13464,12 @@
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>159</v>
       </c>
@@ -13375,7 +13481,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>160</v>
       </c>
@@ -13387,7 +13493,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>161</v>
       </c>
@@ -13399,7 +13505,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>173</v>
       </c>
@@ -13410,7 +13516,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B30" s="24" t="s">
         <v>162</v>
       </c>
@@ -13424,7 +13530,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B31" s="24" t="s">
         <v>166</v>
       </c>
@@ -13438,12 +13544,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
@@ -13456,7 +13562,7 @@
       <c r="J34" s="22"/>
       <c r="K34" s="22"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>462</v>
       </c>
@@ -13469,7 +13575,7 @@
       <c r="H36" s="2"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>463</v>
       </c>
@@ -13482,7 +13588,7 @@
       <c r="H37" s="5"/>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>464</v>
       </c>
@@ -13495,7 +13601,7 @@
       <c r="H38" s="8"/>
       <c r="I38" s="9"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
       <c r="B42" s="22"/>
       <c r="C42" s="22"/>
@@ -13508,22 +13614,22 @@
       <c r="J42" s="22"/>
       <c r="K42" s="22"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="23"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="21" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="21" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="21" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A46" s="30" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -13532,9 +13638,9 @@
       <c r="F46" s="2"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="31" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -13543,7 +13649,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="9"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
@@ -13556,17 +13662,17 @@
       <c r="J49" s="22"/>
       <c r="K49" s="22"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="21" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C50" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -13575,7 +13681,7 @@
       <c r="F51" s="2"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -13584,9 +13690,9 @@
       <c r="F52" s="5"/>
       <c r="G52" s="6"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -13595,7 +13701,7 @@
       <c r="F53" s="5"/>
       <c r="G53" s="6"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -13604,9 +13710,9 @@
       <c r="F54" s="5"/>
       <c r="G54" s="6"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -13615,7 +13721,7 @@
       <c r="F55" s="5"/>
       <c r="G55" s="6"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -13624,9 +13730,9 @@
       <c r="F56" s="5"/>
       <c r="G56" s="6"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -13635,7 +13741,7 @@
       <c r="F57" s="5"/>
       <c r="G57" s="6"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -13644,9 +13750,9 @@
       <c r="F58" s="5"/>
       <c r="G58" s="6"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -13655,7 +13761,7 @@
       <c r="F59" s="5"/>
       <c r="G59" s="6"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -13664,9 +13770,9 @@
       <c r="F60" s="5"/>
       <c r="G60" s="6"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -13675,7 +13781,7 @@
       <c r="F61" s="5"/>
       <c r="G61" s="6"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -13684,9 +13790,9 @@
       <c r="F62" s="5"/>
       <c r="G62" s="6"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -13695,7 +13801,7 @@
       <c r="F63" s="5"/>
       <c r="G63" s="6"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -13704,9 +13810,9 @@
       <c r="F64" s="5"/>
       <c r="G64" s="6"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -13715,12 +13821,13 @@
       <c r="F65" s="8"/>
       <c r="G65" s="9"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
@@ -13734,14 +13841,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>174</v>
       </c>
@@ -13759,7 +13866,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>39</v>
       </c>
@@ -13777,7 +13884,7 @@
       <c r="M4" s="5"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>175</v>
       </c>
@@ -13795,7 +13902,7 @@
       <c r="M5" s="5"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>176</v>
       </c>
@@ -13813,7 +13920,7 @@
       <c r="M6" s="5"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>177</v>
       </c>
@@ -13831,7 +13938,7 @@
       <c r="M7" s="5"/>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>178</v>
       </c>
@@ -13849,7 +13956,7 @@
       <c r="M8" s="5"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>179</v>
       </c>
@@ -13867,7 +13974,7 @@
       <c r="M9" s="5"/>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>180</v>
       </c>
@@ -13885,7 +13992,7 @@
       <c r="M10" s="5"/>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>181</v>
       </c>
@@ -13903,7 +14010,7 @@
       <c r="M11" s="5"/>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>182</v>
       </c>
@@ -13921,7 +14028,7 @@
       <c r="M12" s="5"/>
       <c r="N12" s="6"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>183</v>
       </c>
@@ -13939,7 +14046,7 @@
       <c r="M13" s="5"/>
       <c r="N13" s="6"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>184</v>
       </c>
@@ -13957,7 +14064,7 @@
       <c r="M14" s="5"/>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>185</v>
       </c>
@@ -13975,7 +14082,7 @@
       <c r="M15" s="5"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>186</v>
       </c>
@@ -13993,7 +14100,7 @@
       <c r="M16" s="5"/>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>187</v>
       </c>
@@ -14011,7 +14118,7 @@
       <c r="M17" s="5"/>
       <c r="N17" s="6"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>188</v>
       </c>
@@ -14029,7 +14136,7 @@
       <c r="M18" s="5"/>
       <c r="N18" s="6"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>189</v>
       </c>
@@ -14047,7 +14154,7 @@
       <c r="M19" s="5"/>
       <c r="N19" s="6"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>190</v>
       </c>
@@ -14065,7 +14172,7 @@
       <c r="M20" s="5"/>
       <c r="N20" s="6"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>191</v>
       </c>
@@ -14083,7 +14190,7 @@
       <c r="M21" s="5"/>
       <c r="N21" s="6"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>192</v>
       </c>
@@ -14101,7 +14208,7 @@
       <c r="M22" s="5"/>
       <c r="N22" s="6"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>193</v>
       </c>
@@ -14119,7 +14226,7 @@
       <c r="M23" s="5"/>
       <c r="N23" s="6"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>194</v>
       </c>
@@ -14137,7 +14244,7 @@
       <c r="M24" s="5"/>
       <c r="N24" s="6"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>195</v>
       </c>
@@ -14155,7 +14262,7 @@
       <c r="M25" s="5"/>
       <c r="N25" s="6"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>196</v>
       </c>
@@ -14173,7 +14280,7 @@
       <c r="M26" s="5"/>
       <c r="N26" s="6"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>197</v>
       </c>
@@ -14191,7 +14298,7 @@
       <c r="M27" s="5"/>
       <c r="N27" s="6"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>198</v>
       </c>
@@ -14209,7 +14316,7 @@
       <c r="M28" s="5"/>
       <c r="N28" s="6"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>199</v>
       </c>
@@ -14227,7 +14334,7 @@
       <c r="M29" s="5"/>
       <c r="N29" s="6"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>200</v>
       </c>
@@ -14245,7 +14352,7 @@
       <c r="M30" s="5"/>
       <c r="N30" s="6"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>201</v>
       </c>
@@ -14263,7 +14370,7 @@
       <c r="M31" s="5"/>
       <c r="N31" s="6"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>202</v>
       </c>
@@ -14281,7 +14388,7 @@
       <c r="M32" s="5"/>
       <c r="N32" s="6"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>203</v>
       </c>
@@ -14299,7 +14406,7 @@
       <c r="M33" s="5"/>
       <c r="N33" s="6"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>204</v>
       </c>
@@ -14317,7 +14424,7 @@
       <c r="M34" s="5"/>
       <c r="N34" s="6"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>205</v>
       </c>
@@ -14335,7 +14442,7 @@
       <c r="M35" s="5"/>
       <c r="N35" s="6"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>206</v>
       </c>
@@ -14353,7 +14460,7 @@
       <c r="M36" s="5"/>
       <c r="N36" s="6"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>207</v>
       </c>
@@ -14371,7 +14478,7 @@
       <c r="M37" s="5"/>
       <c r="N37" s="6"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>208</v>
       </c>
@@ -14389,7 +14496,7 @@
       <c r="M38" s="5"/>
       <c r="N38" s="6"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>209</v>
       </c>
@@ -14407,7 +14514,7 @@
       <c r="M39" s="5"/>
       <c r="N39" s="6"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>209</v>
       </c>
@@ -14425,7 +14532,7 @@
       <c r="M40" s="5"/>
       <c r="N40" s="6"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>210</v>
       </c>
@@ -14443,7 +14550,7 @@
       <c r="M41" s="5"/>
       <c r="N41" s="6"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>211</v>
       </c>
@@ -14461,7 +14568,7 @@
       <c r="M42" s="5"/>
       <c r="N42" s="6"/>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>212</v>
       </c>
@@ -14479,7 +14586,7 @@
       <c r="M43" s="5"/>
       <c r="N43" s="6"/>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>213</v>
       </c>
@@ -14497,7 +14604,7 @@
       <c r="M44" s="5"/>
       <c r="N44" s="6"/>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>214</v>
       </c>
@@ -14515,7 +14622,7 @@
       <c r="M45" s="5"/>
       <c r="N45" s="6"/>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>215</v>
       </c>
@@ -14533,7 +14640,7 @@
       <c r="M46" s="5"/>
       <c r="N46" s="6"/>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>216</v>
       </c>
@@ -14551,7 +14658,7 @@
       <c r="M47" s="5"/>
       <c r="N47" s="6"/>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>217</v>
       </c>
@@ -14569,7 +14676,7 @@
       <c r="M48" s="5"/>
       <c r="N48" s="6"/>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>218</v>
       </c>
@@ -14587,7 +14694,7 @@
       <c r="M49" s="5"/>
       <c r="N49" s="6"/>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>219</v>
       </c>
@@ -14605,7 +14712,7 @@
       <c r="M50" s="5"/>
       <c r="N50" s="6"/>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>220</v>
       </c>
@@ -14623,7 +14730,7 @@
       <c r="M51" s="5"/>
       <c r="N51" s="6"/>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>221</v>
       </c>
@@ -14641,7 +14748,7 @@
       <c r="M52" s="5"/>
       <c r="N52" s="6"/>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>222</v>
       </c>
@@ -14659,7 +14766,7 @@
       <c r="M53" s="5"/>
       <c r="N53" s="6"/>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>223</v>
       </c>
@@ -14677,7 +14784,7 @@
       <c r="M54" s="5"/>
       <c r="N54" s="6"/>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>224</v>
       </c>
@@ -14695,7 +14802,7 @@
       <c r="M55" s="5"/>
       <c r="N55" s="6"/>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>225</v>
       </c>
@@ -14713,7 +14820,7 @@
       <c r="M56" s="5"/>
       <c r="N56" s="6"/>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>226</v>
       </c>
@@ -14731,7 +14838,7 @@
       <c r="M57" s="5"/>
       <c r="N57" s="6"/>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>227</v>
       </c>
@@ -14749,7 +14856,7 @@
       <c r="M58" s="5"/>
       <c r="N58" s="6"/>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>228</v>
       </c>
@@ -14767,7 +14874,7 @@
       <c r="M59" s="5"/>
       <c r="N59" s="6"/>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>229</v>
       </c>
@@ -14785,7 +14892,7 @@
       <c r="M60" s="5"/>
       <c r="N60" s="6"/>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>230</v>
       </c>
@@ -14803,7 +14910,7 @@
       <c r="M61" s="5"/>
       <c r="N61" s="6"/>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>231</v>
       </c>
@@ -14821,7 +14928,7 @@
       <c r="M62" s="5"/>
       <c r="N62" s="6"/>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>232</v>
       </c>
@@ -14839,7 +14946,7 @@
       <c r="M63" s="5"/>
       <c r="N63" s="6"/>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>233</v>
       </c>
@@ -14857,7 +14964,7 @@
       <c r="M64" s="5"/>
       <c r="N64" s="6"/>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>234</v>
       </c>
@@ -14875,7 +14982,7 @@
       <c r="M65" s="5"/>
       <c r="N65" s="6"/>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>235</v>
       </c>
@@ -14893,7 +15000,7 @@
       <c r="M66" s="5"/>
       <c r="N66" s="6"/>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -14909,7 +15016,7 @@
       <c r="M67" s="5"/>
       <c r="N67" s="6"/>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -14925,7 +15032,7 @@
       <c r="M68" s="5"/>
       <c r="N68" s="6"/>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -14941,7 +15048,7 @@
       <c r="M69" s="5"/>
       <c r="N69" s="6"/>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>236</v>
       </c>
@@ -14959,7 +15066,7 @@
       <c r="M70" s="5"/>
       <c r="N70" s="6"/>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>237</v>
       </c>
@@ -14977,7 +15084,7 @@
       <c r="M71" s="5"/>
       <c r="N71" s="6"/>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>238</v>
       </c>
@@ -14995,7 +15102,7 @@
       <c r="M72" s="5"/>
       <c r="N72" s="6"/>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>239</v>
       </c>
@@ -15013,7 +15120,7 @@
       <c r="M73" s="5"/>
       <c r="N73" s="6"/>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>240</v>
       </c>
@@ -15031,7 +15138,7 @@
       <c r="M74" s="5"/>
       <c r="N74" s="6"/>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>241</v>
       </c>
@@ -15049,7 +15156,7 @@
       <c r="M75" s="5"/>
       <c r="N75" s="6"/>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>242</v>
       </c>
@@ -15067,7 +15174,7 @@
       <c r="M76" s="5"/>
       <c r="N76" s="6"/>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>243</v>
       </c>
@@ -15085,7 +15192,7 @@
       <c r="M77" s="5"/>
       <c r="N77" s="6"/>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>244</v>
       </c>
@@ -15103,7 +15210,7 @@
       <c r="M78" s="5"/>
       <c r="N78" s="6"/>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>245</v>
       </c>
@@ -15121,7 +15228,7 @@
       <c r="M79" s="5"/>
       <c r="N79" s="6"/>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>246</v>
       </c>
@@ -15139,7 +15246,7 @@
       <c r="M80" s="5"/>
       <c r="N80" s="6"/>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>247</v>
       </c>
@@ -15157,7 +15264,7 @@
       <c r="M81" s="5"/>
       <c r="N81" s="6"/>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>248</v>
       </c>
@@ -15175,7 +15282,7 @@
       <c r="M82" s="5"/>
       <c r="N82" s="6"/>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>249</v>
       </c>
@@ -15193,7 +15300,7 @@
       <c r="M83" s="5"/>
       <c r="N83" s="6"/>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>250</v>
       </c>
@@ -15211,7 +15318,7 @@
       <c r="M84" s="5"/>
       <c r="N84" s="6"/>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>251</v>
       </c>
@@ -15229,7 +15336,7 @@
       <c r="M85" s="5"/>
       <c r="N85" s="6"/>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>252</v>
       </c>
@@ -15247,7 +15354,7 @@
       <c r="M86" s="5"/>
       <c r="N86" s="6"/>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>253</v>
       </c>
@@ -15265,7 +15372,7 @@
       <c r="M87" s="5"/>
       <c r="N87" s="6"/>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>254</v>
       </c>
@@ -15283,7 +15390,7 @@
       <c r="M88" s="5"/>
       <c r="N88" s="6"/>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>255</v>
       </c>
@@ -15301,7 +15408,7 @@
       <c r="M89" s="5"/>
       <c r="N89" s="6"/>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>256</v>
       </c>
@@ -15319,7 +15426,7 @@
       <c r="M90" s="5"/>
       <c r="N90" s="6"/>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>257</v>
       </c>
@@ -15337,7 +15444,7 @@
       <c r="M91" s="5"/>
       <c r="N91" s="6"/>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>258</v>
       </c>
@@ -15355,7 +15462,7 @@
       <c r="M92" s="5"/>
       <c r="N92" s="6"/>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>259</v>
       </c>
@@ -15373,7 +15480,7 @@
       <c r="M93" s="5"/>
       <c r="N93" s="6"/>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>260</v>
       </c>
@@ -15391,7 +15498,7 @@
       <c r="M94" s="5"/>
       <c r="N94" s="6"/>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>261</v>
       </c>
@@ -15409,7 +15516,7 @@
       <c r="M95" s="5"/>
       <c r="N95" s="6"/>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>262</v>
       </c>
@@ -15427,7 +15534,7 @@
       <c r="M96" s="5"/>
       <c r="N96" s="6"/>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>263</v>
       </c>
@@ -15445,7 +15552,7 @@
       <c r="M97" s="5"/>
       <c r="N97" s="6"/>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>264</v>
       </c>
@@ -15463,7 +15570,7 @@
       <c r="M98" s="5"/>
       <c r="N98" s="6"/>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>265</v>
       </c>
@@ -15481,7 +15588,7 @@
       <c r="M99" s="5"/>
       <c r="N99" s="6"/>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>266</v>
       </c>
@@ -15499,7 +15606,7 @@
       <c r="M100" s="5"/>
       <c r="N100" s="6"/>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>267</v>
       </c>
@@ -15517,7 +15624,7 @@
       <c r="M101" s="5"/>
       <c r="N101" s="6"/>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>268</v>
       </c>
@@ -15535,7 +15642,7 @@
       <c r="M102" s="5"/>
       <c r="N102" s="6"/>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>269</v>
       </c>
@@ -15553,7 +15660,7 @@
       <c r="M103" s="5"/>
       <c r="N103" s="6"/>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>270</v>
       </c>
@@ -15571,7 +15678,7 @@
       <c r="M104" s="5"/>
       <c r="N104" s="6"/>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>209</v>
       </c>
@@ -15589,7 +15696,7 @@
       <c r="M105" s="5"/>
       <c r="N105" s="6"/>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>271</v>
       </c>
@@ -15607,7 +15714,7 @@
       <c r="M106" s="5"/>
       <c r="N106" s="6"/>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>272</v>
       </c>
@@ -15625,7 +15732,7 @@
       <c r="M107" s="5"/>
       <c r="N107" s="6"/>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>273</v>
       </c>
@@ -15643,7 +15750,7 @@
       <c r="M108" s="5"/>
       <c r="N108" s="6"/>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>274</v>
       </c>
@@ -15661,7 +15768,7 @@
       <c r="M109" s="5"/>
       <c r="N109" s="6"/>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>275</v>
       </c>
@@ -15679,7 +15786,7 @@
       <c r="M110" s="5"/>
       <c r="N110" s="6"/>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>276</v>
       </c>
@@ -15697,7 +15804,7 @@
       <c r="M111" s="5"/>
       <c r="N111" s="6"/>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>277</v>
       </c>
@@ -15715,7 +15822,7 @@
       <c r="M112" s="5"/>
       <c r="N112" s="6"/>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>278</v>
       </c>
@@ -15733,7 +15840,7 @@
       <c r="M113" s="5"/>
       <c r="N113" s="6"/>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>279</v>
       </c>
@@ -15751,7 +15858,7 @@
       <c r="M114" s="5"/>
       <c r="N114" s="6"/>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>280</v>
       </c>
@@ -15769,7 +15876,7 @@
       <c r="M115" s="5"/>
       <c r="N115" s="6"/>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>281</v>
       </c>
@@ -15787,7 +15894,7 @@
       <c r="M116" s="5"/>
       <c r="N116" s="6"/>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>282</v>
       </c>
@@ -15805,7 +15912,7 @@
       <c r="M117" s="5"/>
       <c r="N117" s="6"/>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>283</v>
       </c>
@@ -15823,7 +15930,7 @@
       <c r="M118" s="5"/>
       <c r="N118" s="6"/>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>284</v>
       </c>
@@ -15841,7 +15948,7 @@
       <c r="M119" s="5"/>
       <c r="N119" s="6"/>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>285</v>
       </c>
@@ -15859,7 +15966,7 @@
       <c r="M120" s="5"/>
       <c r="N120" s="6"/>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>286</v>
       </c>
@@ -15877,7 +15984,7 @@
       <c r="M121" s="5"/>
       <c r="N121" s="6"/>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>287</v>
       </c>
@@ -15895,7 +16002,7 @@
       <c r="M122" s="5"/>
       <c r="N122" s="6"/>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>288</v>
       </c>
@@ -15913,7 +16020,7 @@
       <c r="M123" s="5"/>
       <c r="N123" s="6"/>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>289</v>
       </c>
@@ -15931,7 +16038,7 @@
       <c r="M124" s="5"/>
       <c r="N124" s="6"/>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>290</v>
       </c>
@@ -15949,7 +16056,7 @@
       <c r="M125" s="5"/>
       <c r="N125" s="6"/>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>291</v>
       </c>
@@ -15967,7 +16074,7 @@
       <c r="M126" s="5"/>
       <c r="N126" s="6"/>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>292</v>
       </c>
@@ -15985,7 +16092,7 @@
       <c r="M127" s="5"/>
       <c r="N127" s="6"/>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>293</v>
       </c>
@@ -16003,7 +16110,7 @@
       <c r="M128" s="5"/>
       <c r="N128" s="6"/>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>294</v>
       </c>
@@ -16021,7 +16128,7 @@
       <c r="M129" s="5"/>
       <c r="N129" s="6"/>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>295</v>
       </c>
@@ -16039,7 +16146,7 @@
       <c r="M130" s="5"/>
       <c r="N130" s="6"/>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>296</v>
       </c>
@@ -16057,7 +16164,7 @@
       <c r="M131" s="5"/>
       <c r="N131" s="6"/>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>297</v>
       </c>
@@ -16075,7 +16182,7 @@
       <c r="M132" s="5"/>
       <c r="N132" s="6"/>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>298</v>
       </c>
@@ -16093,7 +16200,7 @@
       <c r="M133" s="5"/>
       <c r="N133" s="6"/>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>299</v>
       </c>
@@ -16111,7 +16218,7 @@
       <c r="M134" s="5"/>
       <c r="N134" s="6"/>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>300</v>
       </c>
@@ -16129,7 +16236,7 @@
       <c r="M135" s="5"/>
       <c r="N135" s="6"/>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>301</v>
       </c>
@@ -16147,7 +16254,7 @@
       <c r="M136" s="5"/>
       <c r="N136" s="6"/>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>302</v>
       </c>
@@ -16165,7 +16272,7 @@
       <c r="M137" s="5"/>
       <c r="N137" s="6"/>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>303</v>
       </c>
@@ -16183,7 +16290,7 @@
       <c r="M138" s="5"/>
       <c r="N138" s="6"/>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>304</v>
       </c>
@@ -16201,7 +16308,7 @@
       <c r="M139" s="5"/>
       <c r="N139" s="6"/>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>305</v>
       </c>
@@ -16219,7 +16326,7 @@
       <c r="M140" s="5"/>
       <c r="N140" s="6"/>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>306</v>
       </c>
@@ -16237,7 +16344,7 @@
       <c r="M141" s="5"/>
       <c r="N141" s="6"/>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>307</v>
       </c>
@@ -16255,7 +16362,7 @@
       <c r="M142" s="5"/>
       <c r="N142" s="6"/>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>308</v>
       </c>
@@ -16273,7 +16380,7 @@
       <c r="M143" s="5"/>
       <c r="N143" s="6"/>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>309</v>
       </c>
@@ -16291,7 +16398,7 @@
       <c r="M144" s="5"/>
       <c r="N144" s="6"/>
     </row>
-    <row r="145" spans="1:14">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>310</v>
       </c>
@@ -16309,7 +16416,7 @@
       <c r="M145" s="5"/>
       <c r="N145" s="6"/>
     </row>
-    <row r="146" spans="1:14">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>311</v>
       </c>
@@ -16327,7 +16434,7 @@
       <c r="M146" s="5"/>
       <c r="N146" s="6"/>
     </row>
-    <row r="147" spans="1:14">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>312</v>
       </c>
@@ -16345,7 +16452,7 @@
       <c r="M147" s="5"/>
       <c r="N147" s="6"/>
     </row>
-    <row r="148" spans="1:14">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>313</v>
       </c>
@@ -16363,7 +16470,7 @@
       <c r="M148" s="5"/>
       <c r="N148" s="6"/>
     </row>
-    <row r="149" spans="1:14">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>314</v>
       </c>
@@ -16381,7 +16488,7 @@
       <c r="M149" s="5"/>
       <c r="N149" s="6"/>
     </row>
-    <row r="150" spans="1:14">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>315</v>
       </c>
@@ -16399,7 +16506,7 @@
       <c r="M150" s="5"/>
       <c r="N150" s="6"/>
     </row>
-    <row r="151" spans="1:14">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>316</v>
       </c>
@@ -16417,7 +16524,7 @@
       <c r="M151" s="5"/>
       <c r="N151" s="6"/>
     </row>
-    <row r="152" spans="1:14">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>317</v>
       </c>
@@ -16435,7 +16542,7 @@
       <c r="M152" s="5"/>
       <c r="N152" s="6"/>
     </row>
-    <row r="153" spans="1:14">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>318</v>
       </c>
@@ -16453,7 +16560,7 @@
       <c r="M153" s="5"/>
       <c r="N153" s="6"/>
     </row>
-    <row r="154" spans="1:14">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>319</v>
       </c>
@@ -16471,7 +16578,7 @@
       <c r="M154" s="5"/>
       <c r="N154" s="6"/>
     </row>
-    <row r="155" spans="1:14">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
         <v>320</v>
       </c>
@@ -16489,7 +16596,7 @@
       <c r="M155" s="5"/>
       <c r="N155" s="6"/>
     </row>
-    <row r="156" spans="1:14">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>321</v>
       </c>
@@ -16507,7 +16614,7 @@
       <c r="M156" s="5"/>
       <c r="N156" s="6"/>
     </row>
-    <row r="157" spans="1:14">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>322</v>
       </c>
@@ -16525,7 +16632,7 @@
       <c r="M157" s="5"/>
       <c r="N157" s="6"/>
     </row>
-    <row r="158" spans="1:14">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
         <v>323</v>
       </c>
@@ -16543,7 +16650,7 @@
       <c r="M158" s="5"/>
       <c r="N158" s="6"/>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
         <v>324</v>
       </c>
@@ -16561,7 +16668,7 @@
       <c r="M159" s="5"/>
       <c r="N159" s="6"/>
     </row>
-    <row r="160" spans="1:14">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
         <v>325</v>
       </c>
@@ -16579,7 +16686,7 @@
       <c r="M160" s="5"/>
       <c r="N160" s="6"/>
     </row>
-    <row r="161" spans="1:14">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
         <v>326</v>
       </c>
@@ -16597,7 +16704,7 @@
       <c r="M161" s="5"/>
       <c r="N161" s="6"/>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
         <v>327</v>
       </c>
@@ -16615,7 +16722,7 @@
       <c r="M162" s="5"/>
       <c r="N162" s="6"/>
     </row>
-    <row r="163" spans="1:14">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
         <v>328</v>
       </c>
@@ -16633,7 +16740,7 @@
       <c r="M163" s="5"/>
       <c r="N163" s="6"/>
     </row>
-    <row r="164" spans="1:14">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>329</v>
       </c>
@@ -16651,7 +16758,7 @@
       <c r="M164" s="5"/>
       <c r="N164" s="6"/>
     </row>
-    <row r="165" spans="1:14">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>330</v>
       </c>
@@ -16669,7 +16776,7 @@
       <c r="M165" s="5"/>
       <c r="N165" s="6"/>
     </row>
-    <row r="166" spans="1:14">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
         <v>331</v>
       </c>
@@ -16687,7 +16794,7 @@
       <c r="M166" s="5"/>
       <c r="N166" s="6"/>
     </row>
-    <row r="167" spans="1:14">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
         <v>332</v>
       </c>
@@ -16705,7 +16812,7 @@
       <c r="M167" s="5"/>
       <c r="N167" s="6"/>
     </row>
-    <row r="168" spans="1:14">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
         <v>333</v>
       </c>
@@ -16723,7 +16830,7 @@
       <c r="M168" s="5"/>
       <c r="N168" s="6"/>
     </row>
-    <row r="169" spans="1:14">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
         <v>209</v>
       </c>
@@ -16741,7 +16848,7 @@
       <c r="M169" s="5"/>
       <c r="N169" s="6"/>
     </row>
-    <row r="170" spans="1:14">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
         <v>334</v>
       </c>
@@ -16759,7 +16866,7 @@
       <c r="M170" s="5"/>
       <c r="N170" s="6"/>
     </row>
-    <row r="171" spans="1:14">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
         <v>335</v>
       </c>
@@ -16777,7 +16884,7 @@
       <c r="M171" s="5"/>
       <c r="N171" s="6"/>
     </row>
-    <row r="172" spans="1:14">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>336</v>
       </c>
@@ -16795,7 +16902,7 @@
       <c r="M172" s="5"/>
       <c r="N172" s="6"/>
     </row>
-    <row r="173" spans="1:14">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
         <v>337</v>
       </c>
@@ -16813,7 +16920,7 @@
       <c r="M173" s="5"/>
       <c r="N173" s="6"/>
     </row>
-    <row r="174" spans="1:14">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
         <v>338</v>
       </c>
@@ -16831,7 +16938,7 @@
       <c r="M174" s="5"/>
       <c r="N174" s="6"/>
     </row>
-    <row r="175" spans="1:14">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
         <v>339</v>
       </c>
@@ -16849,7 +16956,7 @@
       <c r="M175" s="5"/>
       <c r="N175" s="6"/>
     </row>
-    <row r="176" spans="1:14">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
         <v>340</v>
       </c>
@@ -16867,7 +16974,7 @@
       <c r="M176" s="5"/>
       <c r="N176" s="6"/>
     </row>
-    <row r="177" spans="1:14">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>341</v>
       </c>
@@ -16885,7 +16992,7 @@
       <c r="M177" s="5"/>
       <c r="N177" s="6"/>
     </row>
-    <row r="178" spans="1:14">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
         <v>342</v>
       </c>
@@ -16903,7 +17010,7 @@
       <c r="M178" s="5"/>
       <c r="N178" s="6"/>
     </row>
-    <row r="179" spans="1:14">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
         <v>343</v>
       </c>
@@ -16921,7 +17028,7 @@
       <c r="M179" s="5"/>
       <c r="N179" s="6"/>
     </row>
-    <row r="180" spans="1:14">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
         <v>344</v>
       </c>
@@ -16939,7 +17046,7 @@
       <c r="M180" s="5"/>
       <c r="N180" s="6"/>
     </row>
-    <row r="181" spans="1:14">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
         <v>345</v>
       </c>
@@ -16957,7 +17064,7 @@
       <c r="M181" s="5"/>
       <c r="N181" s="6"/>
     </row>
-    <row r="182" spans="1:14">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
         <v>346</v>
       </c>
@@ -16975,7 +17082,7 @@
       <c r="M182" s="5"/>
       <c r="N182" s="6"/>
     </row>
-    <row r="183" spans="1:14">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
         <v>347</v>
       </c>
@@ -16993,7 +17100,7 @@
       <c r="M183" s="5"/>
       <c r="N183" s="6"/>
     </row>
-    <row r="184" spans="1:14">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
         <v>348</v>
       </c>
@@ -17011,7 +17118,7 @@
       <c r="M184" s="5"/>
       <c r="N184" s="6"/>
     </row>
-    <row r="185" spans="1:14">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
         <v>349</v>
       </c>
@@ -17029,7 +17136,7 @@
       <c r="M185" s="5"/>
       <c r="N185" s="6"/>
     </row>
-    <row r="186" spans="1:14">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
         <v>350</v>
       </c>
@@ -17047,7 +17154,7 @@
       <c r="M186" s="5"/>
       <c r="N186" s="6"/>
     </row>
-    <row r="187" spans="1:14">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
         <v>351</v>
       </c>
@@ -17065,7 +17172,7 @@
       <c r="M187" s="5"/>
       <c r="N187" s="6"/>
     </row>
-    <row r="188" spans="1:14">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
         <v>352</v>
       </c>
@@ -17083,7 +17190,7 @@
       <c r="M188" s="5"/>
       <c r="N188" s="6"/>
     </row>
-    <row r="189" spans="1:14">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
         <v>353</v>
       </c>
@@ -17101,7 +17208,7 @@
       <c r="M189" s="5"/>
       <c r="N189" s="6"/>
     </row>
-    <row r="190" spans="1:14">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
         <v>354</v>
       </c>
@@ -17119,7 +17226,7 @@
       <c r="M190" s="5"/>
       <c r="N190" s="6"/>
     </row>
-    <row r="191" spans="1:14">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
         <v>355</v>
       </c>
@@ -17137,7 +17244,7 @@
       <c r="M191" s="5"/>
       <c r="N191" s="6"/>
     </row>
-    <row r="192" spans="1:14">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
         <v>356</v>
       </c>
@@ -17155,7 +17262,7 @@
       <c r="M192" s="5"/>
       <c r="N192" s="6"/>
     </row>
-    <row r="193" spans="1:14">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
         <v>357</v>
       </c>
@@ -17173,7 +17280,7 @@
       <c r="M193" s="5"/>
       <c r="N193" s="6"/>
     </row>
-    <row r="194" spans="1:14">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
         <v>358</v>
       </c>
@@ -17191,7 +17298,7 @@
       <c r="M194" s="5"/>
       <c r="N194" s="6"/>
     </row>
-    <row r="195" spans="1:14">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
         <v>359</v>
       </c>
@@ -17209,7 +17316,7 @@
       <c r="M195" s="5"/>
       <c r="N195" s="6"/>
     </row>
-    <row r="196" spans="1:14">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
         <v>360</v>
       </c>
@@ -17227,7 +17334,7 @@
       <c r="M196" s="5"/>
       <c r="N196" s="6"/>
     </row>
-    <row r="197" spans="1:14">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
         <v>361</v>
       </c>
@@ -17245,7 +17352,7 @@
       <c r="M197" s="5"/>
       <c r="N197" s="6"/>
     </row>
-    <row r="198" spans="1:14">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
         <v>362</v>
       </c>
@@ -17263,7 +17370,7 @@
       <c r="M198" s="5"/>
       <c r="N198" s="6"/>
     </row>
-    <row r="199" spans="1:14">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
         <v>363</v>
       </c>
@@ -17281,7 +17388,7 @@
       <c r="M199" s="5"/>
       <c r="N199" s="6"/>
     </row>
-    <row r="200" spans="1:14">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
         <v>362</v>
       </c>
@@ -17299,7 +17406,7 @@
       <c r="M200" s="5"/>
       <c r="N200" s="6"/>
     </row>
-    <row r="201" spans="1:14">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
         <v>363</v>
       </c>
@@ -17317,7 +17424,7 @@
       <c r="M201" s="5"/>
       <c r="N201" s="6"/>
     </row>
-    <row r="202" spans="1:14">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
         <v>364</v>
       </c>
@@ -17335,7 +17442,7 @@
       <c r="M202" s="5"/>
       <c r="N202" s="6"/>
     </row>
-    <row r="203" spans="1:14">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
         <v>365</v>
       </c>
@@ -17353,7 +17460,7 @@
       <c r="M203" s="5"/>
       <c r="N203" s="6"/>
     </row>
-    <row r="204" spans="1:14">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
         <v>366</v>
       </c>
@@ -17371,7 +17478,7 @@
       <c r="M204" s="5"/>
       <c r="N204" s="6"/>
     </row>
-    <row r="205" spans="1:14">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
         <v>367</v>
       </c>
@@ -17389,7 +17496,7 @@
       <c r="M205" s="5"/>
       <c r="N205" s="6"/>
     </row>
-    <row r="206" spans="1:14">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
         <v>368</v>
       </c>
@@ -17407,7 +17514,7 @@
       <c r="M206" s="5"/>
       <c r="N206" s="6"/>
     </row>
-    <row r="207" spans="1:14">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
         <v>369</v>
       </c>
@@ -17425,7 +17532,7 @@
       <c r="M207" s="5"/>
       <c r="N207" s="6"/>
     </row>
-    <row r="208" spans="1:14">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
         <v>370</v>
       </c>
@@ -17443,7 +17550,7 @@
       <c r="M208" s="5"/>
       <c r="N208" s="6"/>
     </row>
-    <row r="209" spans="1:14">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
         <v>371</v>
       </c>
@@ -17461,7 +17568,7 @@
       <c r="M209" s="5"/>
       <c r="N209" s="6"/>
     </row>
-    <row r="210" spans="1:14">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
         <v>372</v>
       </c>
@@ -17479,7 +17586,7 @@
       <c r="M210" s="5"/>
       <c r="N210" s="6"/>
     </row>
-    <row r="211" spans="1:14">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
         <v>373</v>
       </c>
@@ -17497,7 +17604,7 @@
       <c r="M211" s="5"/>
       <c r="N211" s="6"/>
     </row>
-    <row r="212" spans="1:14">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
         <v>374</v>
       </c>
@@ -17515,7 +17622,7 @@
       <c r="M212" s="5"/>
       <c r="N212" s="6"/>
     </row>
-    <row r="213" spans="1:14">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
         <v>375</v>
       </c>
@@ -17533,7 +17640,7 @@
       <c r="M213" s="5"/>
       <c r="N213" s="6"/>
     </row>
-    <row r="214" spans="1:14">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
         <v>376</v>
       </c>
@@ -17551,7 +17658,7 @@
       <c r="M214" s="5"/>
       <c r="N214" s="6"/>
     </row>
-    <row r="215" spans="1:14">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
         <v>377</v>
       </c>
@@ -17569,7 +17676,7 @@
       <c r="M215" s="5"/>
       <c r="N215" s="6"/>
     </row>
-    <row r="216" spans="1:14">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
         <v>378</v>
       </c>
@@ -17587,7 +17694,7 @@
       <c r="M216" s="5"/>
       <c r="N216" s="6"/>
     </row>
-    <row r="217" spans="1:14">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
         <v>379</v>
       </c>
@@ -17605,7 +17712,7 @@
       <c r="M217" s="5"/>
       <c r="N217" s="6"/>
     </row>
-    <row r="218" spans="1:14">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
         <v>380</v>
       </c>
@@ -17623,7 +17730,7 @@
       <c r="M218" s="5"/>
       <c r="N218" s="6"/>
     </row>
-    <row r="219" spans="1:14">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
         <v>381</v>
       </c>
@@ -17641,7 +17748,7 @@
       <c r="M219" s="5"/>
       <c r="N219" s="6"/>
     </row>
-    <row r="220" spans="1:14">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
         <v>382</v>
       </c>
@@ -17659,7 +17766,7 @@
       <c r="M220" s="5"/>
       <c r="N220" s="6"/>
     </row>
-    <row r="221" spans="1:14">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
         <v>383</v>
       </c>
@@ -17677,7 +17784,7 @@
       <c r="M221" s="5"/>
       <c r="N221" s="6"/>
     </row>
-    <row r="222" spans="1:14">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
         <v>384</v>
       </c>
@@ -17695,7 +17802,7 @@
       <c r="M222" s="5"/>
       <c r="N222" s="6"/>
     </row>
-    <row r="223" spans="1:14">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
         <v>385</v>
       </c>
@@ -17713,7 +17820,7 @@
       <c r="M223" s="5"/>
       <c r="N223" s="6"/>
     </row>
-    <row r="224" spans="1:14">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
         <v>386</v>
       </c>
@@ -17731,7 +17838,7 @@
       <c r="M224" s="5"/>
       <c r="N224" s="6"/>
     </row>
-    <row r="225" spans="1:14">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
         <v>387</v>
       </c>
@@ -17749,7 +17856,7 @@
       <c r="M225" s="5"/>
       <c r="N225" s="6"/>
     </row>
-    <row r="226" spans="1:14">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
         <v>388</v>
       </c>
@@ -17767,7 +17874,7 @@
       <c r="M226" s="5"/>
       <c r="N226" s="6"/>
     </row>
-    <row r="227" spans="1:14">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
         <v>389</v>
       </c>
@@ -17785,7 +17892,7 @@
       <c r="M227" s="5"/>
       <c r="N227" s="6"/>
     </row>
-    <row r="228" spans="1:14">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
         <v>390</v>
       </c>
@@ -17803,7 +17910,7 @@
       <c r="M228" s="5"/>
       <c r="N228" s="6"/>
     </row>
-    <row r="229" spans="1:14">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
         <v>391</v>
       </c>
@@ -17821,7 +17928,7 @@
       <c r="M229" s="5"/>
       <c r="N229" s="6"/>
     </row>
-    <row r="230" spans="1:14">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
         <v>392</v>
       </c>
@@ -17839,7 +17946,7 @@
       <c r="M230" s="5"/>
       <c r="N230" s="6"/>
     </row>
-    <row r="231" spans="1:14">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
         <v>393</v>
       </c>
@@ -17857,7 +17964,7 @@
       <c r="M231" s="5"/>
       <c r="N231" s="6"/>
     </row>
-    <row r="232" spans="1:14">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
         <v>394</v>
       </c>
@@ -17875,7 +17982,7 @@
       <c r="M232" s="5"/>
       <c r="N232" s="6"/>
     </row>
-    <row r="233" spans="1:14">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
         <v>395</v>
       </c>
@@ -17893,7 +18000,7 @@
       <c r="M233" s="5"/>
       <c r="N233" s="6"/>
     </row>
-    <row r="234" spans="1:14">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
         <v>396</v>
       </c>
@@ -17911,7 +18018,7 @@
       <c r="M234" s="5"/>
       <c r="N234" s="6"/>
     </row>
-    <row r="235" spans="1:14">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
         <v>397</v>
       </c>
@@ -17929,7 +18036,7 @@
       <c r="M235" s="5"/>
       <c r="N235" s="6"/>
     </row>
-    <row r="236" spans="1:14">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
         <v>398</v>
       </c>
@@ -17947,7 +18054,7 @@
       <c r="M236" s="5"/>
       <c r="N236" s="6"/>
     </row>
-    <row r="237" spans="1:14">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
         <v>399</v>
       </c>
@@ -17965,7 +18072,7 @@
       <c r="M237" s="5"/>
       <c r="N237" s="6"/>
     </row>
-    <row r="238" spans="1:14">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
         <v>400</v>
       </c>
@@ -17983,7 +18090,7 @@
       <c r="M238" s="5"/>
       <c r="N238" s="6"/>
     </row>
-    <row r="239" spans="1:14">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
         <v>401</v>
       </c>
@@ -18001,7 +18108,7 @@
       <c r="M239" s="5"/>
       <c r="N239" s="6"/>
     </row>
-    <row r="240" spans="1:14">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
         <v>402</v>
       </c>
@@ -18019,7 +18126,7 @@
       <c r="M240" s="5"/>
       <c r="N240" s="6"/>
     </row>
-    <row r="241" spans="1:14">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
         <v>403</v>
       </c>
@@ -18037,7 +18144,7 @@
       <c r="M241" s="5"/>
       <c r="N241" s="6"/>
     </row>
-    <row r="242" spans="1:14">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242" s="4" t="s">
         <v>404</v>
       </c>
@@ -18055,7 +18162,7 @@
       <c r="M242" s="5"/>
       <c r="N242" s="6"/>
     </row>
-    <row r="243" spans="1:14">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
         <v>405</v>
       </c>
@@ -18073,7 +18180,7 @@
       <c r="M243" s="5"/>
       <c r="N243" s="6"/>
     </row>
-    <row r="244" spans="1:14">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
         <v>406</v>
       </c>
@@ -18091,7 +18198,7 @@
       <c r="M244" s="5"/>
       <c r="N244" s="6"/>
     </row>
-    <row r="245" spans="1:14">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
         <v>317</v>
       </c>
@@ -18109,7 +18216,7 @@
       <c r="M245" s="5"/>
       <c r="N245" s="6"/>
     </row>
-    <row r="246" spans="1:14">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246" s="4" t="s">
         <v>407</v>
       </c>
@@ -18127,7 +18234,7 @@
       <c r="M246" s="5"/>
       <c r="N246" s="6"/>
     </row>
-    <row r="247" spans="1:14">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
         <v>408</v>
       </c>
@@ -18145,7 +18252,7 @@
       <c r="M247" s="5"/>
       <c r="N247" s="6"/>
     </row>
-    <row r="248" spans="1:14">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
         <v>409</v>
       </c>
@@ -18163,7 +18270,7 @@
       <c r="M248" s="5"/>
       <c r="N248" s="6"/>
     </row>
-    <row r="249" spans="1:14">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="s">
         <v>410</v>
       </c>
@@ -18181,7 +18288,7 @@
       <c r="M249" s="5"/>
       <c r="N249" s="6"/>
     </row>
-    <row r="250" spans="1:14">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250" s="4" t="s">
         <v>411</v>
       </c>
@@ -18199,7 +18306,7 @@
       <c r="M250" s="5"/>
       <c r="N250" s="6"/>
     </row>
-    <row r="251" spans="1:14">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251" s="4" t="s">
         <v>412</v>
       </c>
@@ -18217,7 +18324,7 @@
       <c r="M251" s="5"/>
       <c r="N251" s="6"/>
     </row>
-    <row r="252" spans="1:14">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
         <v>413</v>
       </c>
@@ -18235,7 +18342,7 @@
       <c r="M252" s="5"/>
       <c r="N252" s="6"/>
     </row>
-    <row r="253" spans="1:14">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
         <v>414</v>
       </c>
@@ -18253,7 +18360,7 @@
       <c r="M253" s="5"/>
       <c r="N253" s="6"/>
     </row>
-    <row r="254" spans="1:14">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="s">
         <v>415</v>
       </c>
@@ -18271,7 +18378,7 @@
       <c r="M254" s="5"/>
       <c r="N254" s="6"/>
     </row>
-    <row r="255" spans="1:14">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
         <v>416</v>
       </c>
@@ -18289,7 +18396,7 @@
       <c r="M255" s="5"/>
       <c r="N255" s="6"/>
     </row>
-    <row r="256" spans="1:14">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
         <v>417</v>
       </c>
@@ -18307,7 +18414,7 @@
       <c r="M256" s="5"/>
       <c r="N256" s="6"/>
     </row>
-    <row r="257" spans="1:14">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
         <v>418</v>
       </c>
@@ -18325,7 +18432,7 @@
       <c r="M257" s="5"/>
       <c r="N257" s="6"/>
     </row>
-    <row r="258" spans="1:14">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258" s="4" t="s">
         <v>209</v>
       </c>
@@ -18343,7 +18450,7 @@
       <c r="M258" s="5"/>
       <c r="N258" s="6"/>
     </row>
-    <row r="259" spans="1:14">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259" s="4" t="s">
         <v>419</v>
       </c>
@@ -18361,7 +18468,7 @@
       <c r="M259" s="5"/>
       <c r="N259" s="6"/>
     </row>
-    <row r="260" spans="1:14">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
         <v>420</v>
       </c>
@@ -18379,7 +18486,7 @@
       <c r="M260" s="5"/>
       <c r="N260" s="6"/>
     </row>
-    <row r="261" spans="1:14">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261" s="4" t="s">
         <v>421</v>
       </c>
@@ -18397,7 +18504,7 @@
       <c r="M261" s="5"/>
       <c r="N261" s="6"/>
     </row>
-    <row r="262" spans="1:14">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262" s="4" t="s">
         <v>422</v>
       </c>
@@ -18415,7 +18522,7 @@
       <c r="M262" s="5"/>
       <c r="N262" s="6"/>
     </row>
-    <row r="263" spans="1:14">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263" s="4" t="s">
         <v>62</v>
       </c>
@@ -18433,7 +18540,7 @@
       <c r="M263" s="5"/>
       <c r="N263" s="6"/>
     </row>
-    <row r="264" spans="1:14">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A264" s="4" t="s">
         <v>423</v>
       </c>
@@ -18451,7 +18558,7 @@
       <c r="M264" s="5"/>
       <c r="N264" s="6"/>
     </row>
-    <row r="265" spans="1:14">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265" s="4"/>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
@@ -18467,7 +18574,7 @@
       <c r="M265" s="5"/>
       <c r="N265" s="6"/>
     </row>
-    <row r="266" spans="1:14">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A266" s="7" t="s">
         <v>37</v>
       </c>
@@ -18486,6 +18593,7 @@
       <c r="N266" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
@@ -18499,14 +18607,14 @@
       <selection activeCell="O7" sqref="O7:U18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>424</v>
       </c>
@@ -18522,7 +18630,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>39</v>
       </c>
@@ -18538,7 +18646,7 @@
       <c r="K3" s="5"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>425</v>
       </c>
@@ -18554,7 +18662,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>426</v>
       </c>
@@ -18570,7 +18678,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>427</v>
       </c>
@@ -18586,7 +18694,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>428</v>
       </c>
@@ -18611,7 +18719,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="3"/>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>429</v>
       </c>
@@ -18636,7 +18744,7 @@
       <c r="T8" s="5"/>
       <c r="U8" s="6"/>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>430</v>
       </c>
@@ -18661,7 +18769,7 @@
       <c r="T9" s="5"/>
       <c r="U9" s="6"/>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>431</v>
       </c>
@@ -18686,7 +18794,7 @@
       <c r="T10" s="5"/>
       <c r="U10" s="6"/>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>432</v>
       </c>
@@ -18711,7 +18819,7 @@
       <c r="T11" s="5"/>
       <c r="U11" s="6"/>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>433</v>
       </c>
@@ -18736,7 +18844,7 @@
       <c r="T12" s="5"/>
       <c r="U12" s="6"/>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>434</v>
       </c>
@@ -18761,7 +18869,7 @@
       <c r="T13" s="5"/>
       <c r="U13" s="6"/>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>435</v>
       </c>
@@ -18786,7 +18894,7 @@
       <c r="T14" s="5"/>
       <c r="U14" s="6"/>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>62</v>
       </c>
@@ -18811,7 +18919,7 @@
       <c r="T15" s="5"/>
       <c r="U15" s="6"/>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -18834,7 +18942,7 @@
       <c r="T16" s="5"/>
       <c r="U16" s="6"/>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>37</v>
       </c>
@@ -18859,7 +18967,7 @@
       <c r="T17" s="5"/>
       <c r="U17" s="6"/>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="O18" s="7" t="s">
         <v>458</v>
       </c>
@@ -18870,7 +18978,7 @@
       <c r="T18" s="8"/>
       <c r="U18" s="9"/>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>436</v>
       </c>
@@ -18886,7 +18994,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>39</v>
       </c>
@@ -18902,7 +19010,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>437</v>
       </c>
@@ -18918,7 +19026,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -18932,7 +19040,7 @@
       <c r="K22" s="5"/>
       <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>438</v>
       </c>
@@ -18948,7 +19056,7 @@
       <c r="K23" s="5"/>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>426</v>
       </c>
@@ -18964,7 +19072,7 @@
       <c r="K24" s="5"/>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>439</v>
       </c>
@@ -18980,7 +19088,7 @@
       <c r="K25" s="5"/>
       <c r="L25" s="6"/>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>440</v>
       </c>
@@ -18996,7 +19104,7 @@
       <c r="K26" s="5"/>
       <c r="L26" s="6"/>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>441</v>
       </c>
@@ -19012,7 +19120,7 @@
       <c r="K27" s="5"/>
       <c r="L27" s="6"/>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>428</v>
       </c>
@@ -19028,7 +19136,7 @@
       <c r="K28" s="5"/>
       <c r="L28" s="6"/>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>442</v>
       </c>
@@ -19044,7 +19152,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="6"/>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>430</v>
       </c>
@@ -19060,7 +19168,7 @@
       <c r="K30" s="5"/>
       <c r="L30" s="6"/>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>443</v>
       </c>
@@ -19076,7 +19184,7 @@
       <c r="K31" s="5"/>
       <c r="L31" s="6"/>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>432</v>
       </c>
@@ -19092,7 +19200,7 @@
       <c r="K32" s="5"/>
       <c r="L32" s="6"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>444</v>
       </c>
@@ -19108,7 +19216,7 @@
       <c r="K33" s="5"/>
       <c r="L33" s="6"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>434</v>
       </c>
@@ -19124,7 +19232,7 @@
       <c r="K34" s="5"/>
       <c r="L34" s="6"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>445</v>
       </c>
@@ -19140,7 +19248,7 @@
       <c r="K35" s="5"/>
       <c r="L35" s="6"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>62</v>
       </c>
@@ -19156,7 +19264,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="6"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>446</v>
       </c>
@@ -19172,7 +19280,7 @@
       <c r="K37" s="5"/>
       <c r="L37" s="6"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -19186,7 +19294,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="6"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>37</v>
       </c>
@@ -19203,6 +19311,7 @@
       <c r="L39" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>

--- a/Batch.xlsx
+++ b/Batch.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
@@ -83,7 +83,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -93,7 +93,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -103,7 +103,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -113,7 +113,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -191,7 +191,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -201,7 +201,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -378,7 +378,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -388,7 +388,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -398,7 +398,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -408,7 +408,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -595,7 +595,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -605,7 +605,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1592,7 +1592,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1602,7 +1602,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1788,7 +1788,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1803,7 +1803,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1914,7 +1914,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1924,7 +1924,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1934,7 +1934,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2003,7 +2003,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2013,7 +2013,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2028,7 +2028,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2427,7 +2427,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2437,7 +2437,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2455,7 +2455,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2465,7 +2465,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2501,7 +2501,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2511,7 +2511,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2584,7 +2584,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2600,7 +2600,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2632,7 +2632,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2689,19 +2689,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2709,7 +2709,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2722,7 +2722,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2730,7 +2730,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2935,7 +2935,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3899,7 +3899,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3909,18 +3909,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A11:Q59"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -3941,7 +3941,7 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17">
       <c r="A13" s="4" t="s">
         <v>1</v>
       </c>
@@ -3962,7 +3962,7 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="6"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17">
       <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
@@ -3983,7 +3983,7 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="6"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
@@ -4006,7 +4006,7 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17">
       <c r="A16" s="4" t="s">
         <v>3</v>
       </c>
@@ -4029,7 +4029,7 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="6"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17">
       <c r="A17" s="4" t="s">
         <v>4</v>
       </c>
@@ -4050,7 +4050,7 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="6"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17">
       <c r="A18" s="11" t="s">
         <v>5</v>
       </c>
@@ -4071,7 +4071,7 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="6"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17">
       <c r="A19" s="4" t="s">
         <v>6</v>
       </c>
@@ -4092,7 +4092,7 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="6"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17">
       <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
@@ -4113,7 +4113,7 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="6"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
@@ -4134,7 +4134,7 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="6"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17">
       <c r="A22" s="4" t="s">
         <v>9</v>
       </c>
@@ -4155,7 +4155,7 @@
       <c r="P22" s="5"/>
       <c r="Q22" s="6"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17">
       <c r="A23" s="4" t="s">
         <v>10</v>
       </c>
@@ -4176,7 +4176,7 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="6"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17">
       <c r="A24" s="4" t="s">
         <v>11</v>
       </c>
@@ -4197,7 +4197,7 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="6"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17">
       <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
@@ -4218,7 +4218,7 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="6"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17">
       <c r="A26" s="4" t="s">
         <v>13</v>
       </c>
@@ -4239,7 +4239,7 @@
       <c r="P26" s="5"/>
       <c r="Q26" s="6"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17">
       <c r="A27" s="7" t="s">
         <v>14</v>
       </c>
@@ -4260,7 +4260,7 @@
       <c r="P27" s="8"/>
       <c r="Q27" s="9"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
@@ -4281,7 +4281,7 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="3"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -4300,7 +4300,7 @@
       <c r="P30" s="5"/>
       <c r="Q30" s="6"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17">
       <c r="A31" s="4" t="s">
         <v>26</v>
       </c>
@@ -4321,7 +4321,7 @@
       <c r="P31" s="5"/>
       <c r="Q31" s="6"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17">
       <c r="A32" s="4" t="s">
         <v>38</v>
       </c>
@@ -4342,7 +4342,7 @@
       <c r="P32" s="5"/>
       <c r="Q32" s="6"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17">
       <c r="A33" s="4" t="s">
         <v>27</v>
       </c>
@@ -4363,7 +4363,7 @@
       <c r="P33" s="5"/>
       <c r="Q33" s="6"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17">
       <c r="A34" s="4" t="s">
         <v>28</v>
       </c>
@@ -4384,7 +4384,7 @@
       <c r="P34" s="5"/>
       <c r="Q34" s="6"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17">
       <c r="A35" s="4" t="s">
         <v>29</v>
       </c>
@@ -4405,7 +4405,7 @@
       <c r="P35" s="5"/>
       <c r="Q35" s="6"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17">
       <c r="A36" s="4" t="s">
         <v>30</v>
       </c>
@@ -4426,7 +4426,7 @@
       <c r="P36" s="5"/>
       <c r="Q36" s="6"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17">
       <c r="A37" s="4" t="s">
         <v>31</v>
       </c>
@@ -4447,7 +4447,7 @@
       <c r="P37" s="5"/>
       <c r="Q37" s="6"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17">
       <c r="A38" s="4" t="s">
         <v>32</v>
       </c>
@@ -4468,7 +4468,7 @@
       <c r="P38" s="5"/>
       <c r="Q38" s="6"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17">
       <c r="A39" s="4" t="s">
         <v>33</v>
       </c>
@@ -4489,7 +4489,7 @@
       <c r="P39" s="5"/>
       <c r="Q39" s="6"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17">
       <c r="A40" s="4" t="s">
         <v>34</v>
       </c>
@@ -4510,7 +4510,7 @@
       <c r="P40" s="5"/>
       <c r="Q40" s="6"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17">
       <c r="A41" s="4" t="s">
         <v>11</v>
       </c>
@@ -4531,7 +4531,7 @@
       <c r="P41" s="5"/>
       <c r="Q41" s="6"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17">
       <c r="A42" s="4" t="s">
         <v>35</v>
       </c>
@@ -4552,7 +4552,7 @@
       <c r="P42" s="5"/>
       <c r="Q42" s="6"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17">
       <c r="A43" s="4" t="s">
         <v>36</v>
       </c>
@@ -4573,7 +4573,7 @@
       <c r="P43" s="5"/>
       <c r="Q43" s="6"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17">
       <c r="A44" s="4" t="s">
         <v>14</v>
       </c>
@@ -4594,7 +4594,7 @@
       <c r="P44" s="5"/>
       <c r="Q44" s="6"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17">
       <c r="A45" s="4"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -4613,7 +4613,7 @@
       <c r="P45" s="5"/>
       <c r="Q45" s="6"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17">
       <c r="A46" s="7" t="s">
         <v>37</v>
       </c>
@@ -4634,7 +4634,7 @@
       <c r="P46" s="8"/>
       <c r="Q46" s="9"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17">
       <c r="A50" s="1" t="s">
         <v>19</v>
       </c>
@@ -4655,7 +4655,7 @@
       <c r="P50" s="2"/>
       <c r="Q50" s="3"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17">
       <c r="A51" s="4"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -4674,7 +4674,7 @@
       <c r="P51" s="5"/>
       <c r="Q51" s="6"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17">
       <c r="A52" s="4" t="s">
         <v>20</v>
       </c>
@@ -4695,7 +4695,7 @@
       <c r="P52" s="5"/>
       <c r="Q52" s="6"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17">
       <c r="A53" s="4" t="s">
         <v>21</v>
       </c>
@@ -4718,7 +4718,7 @@
       <c r="P53" s="5"/>
       <c r="Q53" s="6"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -4737,7 +4737,7 @@
       <c r="P54" s="5"/>
       <c r="Q54" s="6"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17">
       <c r="A55" s="4"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -4756,7 +4756,7 @@
       <c r="P55" s="5"/>
       <c r="Q55" s="6"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17">
       <c r="A56" s="4" t="s">
         <v>23</v>
       </c>
@@ -4777,7 +4777,7 @@
       <c r="P56" s="5"/>
       <c r="Q56" s="6"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17">
       <c r="A57" s="4"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -4796,7 +4796,7 @@
       <c r="P57" s="5"/>
       <c r="Q57" s="6"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17">
       <c r="A58" s="4" t="s">
         <v>24</v>
       </c>
@@ -4817,7 +4817,7 @@
       <c r="P58" s="5"/>
       <c r="Q58" s="6"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17">
       <c r="A59" s="7" t="s">
         <v>21</v>
       </c>
@@ -4852,18 +4852,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A34:V154"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="J133" sqref="J133"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="I147" sqref="I147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14">
       <c r="A35" s="1" t="s">
         <v>93</v>
       </c>
@@ -4879,7 +4879,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14">
       <c r="A36" s="4" t="s">
         <v>39</v>
       </c>
@@ -4895,7 +4895,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="6"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14">
       <c r="A37" s="4" t="s">
         <v>40</v>
       </c>
@@ -4911,7 +4911,7 @@
       <c r="K37" s="5"/>
       <c r="L37" s="6"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14">
       <c r="A38" s="4" t="s">
         <v>41</v>
       </c>
@@ -4927,7 +4927,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="6"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14">
       <c r="A39" s="4" t="s">
         <v>42</v>
       </c>
@@ -4943,7 +4943,7 @@
       <c r="K39" s="5"/>
       <c r="L39" s="6"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14">
       <c r="A40" s="4" t="s">
         <v>43</v>
       </c>
@@ -4959,7 +4959,7 @@
       <c r="K40" s="5"/>
       <c r="L40" s="6"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14">
       <c r="A41" s="4" t="s">
         <v>44</v>
       </c>
@@ -4975,7 +4975,7 @@
       <c r="K41" s="5"/>
       <c r="L41" s="6"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14">
       <c r="A42" s="4" t="s">
         <v>45</v>
       </c>
@@ -4991,7 +4991,7 @@
       <c r="K42" s="5"/>
       <c r="L42" s="6"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14">
       <c r="A43" s="4" t="s">
         <v>14</v>
       </c>
@@ -5007,7 +5007,7 @@
       <c r="K43" s="5"/>
       <c r="L43" s="6"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -5021,7 +5021,7 @@
       <c r="K44" s="5"/>
       <c r="L44" s="6"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14">
       <c r="A45" s="4" t="s">
         <v>46</v>
       </c>
@@ -5039,7 +5039,7 @@
       <c r="K45" s="5"/>
       <c r="L45" s="6"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14">
       <c r="A46" s="4" t="s">
         <v>47</v>
       </c>
@@ -5055,7 +5055,7 @@
       <c r="K46" s="5"/>
       <c r="L46" s="6"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14">
       <c r="A47" s="4" t="s">
         <v>48</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14">
       <c r="A48" s="4" t="s">
         <v>49</v>
       </c>
@@ -5091,7 +5091,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14">
       <c r="A49" s="4" t="s">
         <v>50</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14">
       <c r="A50" s="4" t="s">
         <v>51</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14">
       <c r="A51" s="4" t="s">
         <v>52</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14">
       <c r="A52" s="4" t="s">
         <v>53</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14">
       <c r="A53" s="4" t="s">
         <v>54</v>
       </c>
@@ -5183,7 +5183,7 @@
       </c>
       <c r="L53" s="6"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14">
       <c r="A54" s="4" t="s">
         <v>55</v>
       </c>
@@ -5201,7 +5201,7 @@
       </c>
       <c r="L54" s="6"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14">
       <c r="A55" s="4" t="s">
         <v>56</v>
       </c>
@@ -5217,7 +5217,7 @@
       <c r="K55" s="13"/>
       <c r="L55" s="6"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14">
       <c r="A56" s="4" t="s">
         <v>57</v>
       </c>
@@ -5235,7 +5235,7 @@
       </c>
       <c r="L56" s="6"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14">
       <c r="A57" s="4" t="s">
         <v>58</v>
       </c>
@@ -5253,7 +5253,7 @@
       </c>
       <c r="L57" s="6"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14">
       <c r="A58" s="4" t="s">
         <v>59</v>
       </c>
@@ -5269,7 +5269,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="6"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14">
       <c r="A59" s="4" t="s">
         <v>60</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14">
       <c r="A60" s="4" t="s">
         <v>61</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14">
       <c r="A61" s="4" t="s">
         <v>62</v>
       </c>
@@ -5321,7 +5321,7 @@
       <c r="K61" s="5"/>
       <c r="L61" s="6"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14">
       <c r="A62" s="4" t="s">
         <v>39</v>
       </c>
@@ -5337,7 +5337,7 @@
       <c r="K62" s="5"/>
       <c r="L62" s="6"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14">
       <c r="A63" s="4" t="s">
         <v>63</v>
       </c>
@@ -5353,7 +5353,7 @@
       <c r="K63" s="5"/>
       <c r="L63" s="6"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14">
       <c r="A64" s="4" t="s">
         <v>64</v>
       </c>
@@ -5369,7 +5369,7 @@
       <c r="K64" s="5"/>
       <c r="L64" s="6"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12">
       <c r="A65" s="4" t="s">
         <v>44</v>
       </c>
@@ -5385,7 +5385,7 @@
       <c r="K65" s="5"/>
       <c r="L65" s="6"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12">
       <c r="A66" s="4" t="s">
         <v>65</v>
       </c>
@@ -5401,7 +5401,7 @@
       <c r="K66" s="5"/>
       <c r="L66" s="6"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12">
       <c r="A67" s="4" t="s">
         <v>66</v>
       </c>
@@ -5417,7 +5417,7 @@
       <c r="K67" s="5"/>
       <c r="L67" s="6"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12">
       <c r="A68" s="4" t="s">
         <v>67</v>
       </c>
@@ -5433,7 +5433,7 @@
       <c r="K68" s="5"/>
       <c r="L68" s="6"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12">
       <c r="A69" s="4" t="s">
         <v>68</v>
       </c>
@@ -5449,7 +5449,7 @@
       <c r="K69" s="5"/>
       <c r="L69" s="6"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12">
       <c r="A70" s="4" t="s">
         <v>69</v>
       </c>
@@ -5465,7 +5465,7 @@
       <c r="K70" s="5"/>
       <c r="L70" s="6"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12">
       <c r="A71" s="4" t="s">
         <v>70</v>
       </c>
@@ -5481,7 +5481,7 @@
       <c r="K71" s="5"/>
       <c r="L71" s="6"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12">
       <c r="A72" s="4" t="s">
         <v>71</v>
       </c>
@@ -5497,7 +5497,7 @@
       <c r="K72" s="5"/>
       <c r="L72" s="6"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12">
       <c r="A73" s="4" t="s">
         <v>72</v>
       </c>
@@ -5513,7 +5513,7 @@
       <c r="K73" s="5"/>
       <c r="L73" s="6"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12">
       <c r="A74" s="4" t="s">
         <v>73</v>
       </c>
@@ -5529,7 +5529,7 @@
       <c r="K74" s="5"/>
       <c r="L74" s="6"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12">
       <c r="A75" s="4" t="s">
         <v>74</v>
       </c>
@@ -5545,7 +5545,7 @@
       <c r="K75" s="5"/>
       <c r="L75" s="6"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12">
       <c r="A76" s="4" t="s">
         <v>75</v>
       </c>
@@ -5561,7 +5561,7 @@
       <c r="K76" s="5"/>
       <c r="L76" s="6"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12">
       <c r="A77" s="4" t="s">
         <v>76</v>
       </c>
@@ -5577,7 +5577,7 @@
       <c r="K77" s="5"/>
       <c r="L77" s="6"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12">
       <c r="A78" s="4" t="s">
         <v>77</v>
       </c>
@@ -5593,7 +5593,7 @@
       <c r="K78" s="5"/>
       <c r="L78" s="6"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12">
       <c r="A79" s="4" t="s">
         <v>78</v>
       </c>
@@ -5609,7 +5609,7 @@
       <c r="K79" s="5"/>
       <c r="L79" s="6"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12">
       <c r="A80" s="19" t="s">
         <v>79</v>
       </c>
@@ -5627,7 +5627,7 @@
       <c r="K80" s="5"/>
       <c r="L80" s="6"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12">
       <c r="A81" s="4" t="s">
         <v>80</v>
       </c>
@@ -5643,7 +5643,7 @@
       <c r="K81" s="5"/>
       <c r="L81" s="6"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12">
       <c r="A82" s="4" t="s">
         <v>81</v>
       </c>
@@ -5659,7 +5659,7 @@
       <c r="K82" s="5"/>
       <c r="L82" s="6"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12">
       <c r="A83" s="4" t="s">
         <v>76</v>
       </c>
@@ -5675,7 +5675,7 @@
       <c r="K83" s="5"/>
       <c r="L83" s="6"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12">
       <c r="A84" s="4" t="s">
         <v>82</v>
       </c>
@@ -5691,7 +5691,7 @@
       <c r="K84" s="5"/>
       <c r="L84" s="6"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12">
       <c r="A85" s="4" t="s">
         <v>83</v>
       </c>
@@ -5707,7 +5707,7 @@
       <c r="K85" s="5"/>
       <c r="L85" s="6"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12">
       <c r="A86" s="4"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -5721,7 +5721,7 @@
       <c r="K86" s="5"/>
       <c r="L86" s="6"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12">
       <c r="A87" s="4" t="s">
         <v>84</v>
       </c>
@@ -5737,7 +5737,7 @@
       <c r="K87" s="5"/>
       <c r="L87" s="6"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12">
       <c r="A88" s="4" t="s">
         <v>85</v>
       </c>
@@ -5753,7 +5753,7 @@
       <c r="K88" s="5"/>
       <c r="L88" s="6"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12">
       <c r="A89" s="4" t="s">
         <v>11</v>
       </c>
@@ -5769,7 +5769,7 @@
       <c r="K89" s="5"/>
       <c r="L89" s="6"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12">
       <c r="A90" s="4" t="s">
         <v>86</v>
       </c>
@@ -5785,7 +5785,7 @@
       <c r="K90" s="5"/>
       <c r="L90" s="6"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12">
       <c r="A91" s="4" t="s">
         <v>44</v>
       </c>
@@ -5801,7 +5801,7 @@
       <c r="K91" s="5"/>
       <c r="L91" s="6"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12">
       <c r="A92" s="4" t="s">
         <v>65</v>
       </c>
@@ -5817,7 +5817,7 @@
       <c r="K92" s="5"/>
       <c r="L92" s="6"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12">
       <c r="A93" s="4" t="s">
         <v>87</v>
       </c>
@@ -5833,7 +5833,7 @@
       <c r="K93" s="5"/>
       <c r="L93" s="6"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12">
       <c r="A94" s="4" t="s">
         <v>85</v>
       </c>
@@ -5849,7 +5849,7 @@
       <c r="K94" s="5"/>
       <c r="L94" s="6"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12">
       <c r="A95" s="4" t="s">
         <v>88</v>
       </c>
@@ -5865,7 +5865,7 @@
       <c r="K95" s="5"/>
       <c r="L95" s="6"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12">
       <c r="A96" s="4" t="s">
         <v>89</v>
       </c>
@@ -5881,7 +5881,7 @@
       <c r="K96" s="5"/>
       <c r="L96" s="6"/>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:18">
       <c r="A97" s="4" t="s">
         <v>90</v>
       </c>
@@ -5897,7 +5897,7 @@
       <c r="K97" s="5"/>
       <c r="L97" s="6"/>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:18">
       <c r="A98" s="4" t="s">
         <v>10</v>
       </c>
@@ -5913,7 +5913,7 @@
       <c r="K98" s="5"/>
       <c r="L98" s="6"/>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:18">
       <c r="A99" s="4" t="s">
         <v>14</v>
       </c>
@@ -5929,7 +5929,7 @@
       <c r="K99" s="5"/>
       <c r="L99" s="6"/>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:18">
       <c r="A100" s="4" t="s">
         <v>41</v>
       </c>
@@ -5945,7 +5945,7 @@
       <c r="K100" s="5"/>
       <c r="L100" s="6"/>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:18">
       <c r="A101" s="7" t="s">
         <v>91</v>
       </c>
@@ -5961,7 +5961,7 @@
       <c r="K101" s="8"/>
       <c r="L101" s="9"/>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:18">
       <c r="A107" s="22"/>
       <c r="B107" s="22"/>
       <c r="C107" s="22"/>
@@ -5981,17 +5981,17 @@
       <c r="Q107" s="22"/>
       <c r="R107" s="22"/>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:18">
       <c r="A109" s="21" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:18">
       <c r="A110" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:18">
       <c r="A111" s="20" t="s">
         <v>112</v>
       </c>
@@ -6007,7 +6007,7 @@
       <c r="K111" s="2"/>
       <c r="L111" s="3"/>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:18">
       <c r="A112" s="4" t="s">
         <v>113</v>
       </c>
@@ -6023,7 +6023,7 @@
       <c r="K112" s="5"/>
       <c r="L112" s="6"/>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:22">
       <c r="A113" s="4" t="s">
         <v>114</v>
       </c>
@@ -6039,7 +6039,7 @@
       <c r="K113" s="5"/>
       <c r="L113" s="6"/>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:22">
       <c r="A114" s="4" t="s">
         <v>115</v>
       </c>
@@ -6055,7 +6055,7 @@
       <c r="K114" s="5"/>
       <c r="L114" s="6"/>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:22">
       <c r="A115" s="4" t="s">
         <v>116</v>
       </c>
@@ -6071,7 +6071,7 @@
       <c r="K115" s="5"/>
       <c r="L115" s="6"/>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:22">
       <c r="A116" s="4" t="s">
         <v>117</v>
       </c>
@@ -6087,7 +6087,7 @@
       <c r="K116" s="5"/>
       <c r="L116" s="6"/>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:22">
       <c r="A117" s="4" t="s">
         <v>118</v>
       </c>
@@ -6103,7 +6103,7 @@
       <c r="K117" s="5"/>
       <c r="L117" s="6"/>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:22">
       <c r="A118" s="4" t="s">
         <v>119</v>
       </c>
@@ -6119,7 +6119,7 @@
       <c r="K118" s="5"/>
       <c r="L118" s="6"/>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:22">
       <c r="A119" s="4" t="s">
         <v>120</v>
       </c>
@@ -6135,7 +6135,7 @@
       <c r="K119" s="5"/>
       <c r="L119" s="6"/>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:22">
       <c r="A120" s="4" t="s">
         <v>121</v>
       </c>
@@ -6151,7 +6151,7 @@
       <c r="K120" s="5"/>
       <c r="L120" s="6"/>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:22">
       <c r="A121" s="4" t="s">
         <v>122</v>
       </c>
@@ -6167,7 +6167,7 @@
       <c r="K121" s="5"/>
       <c r="L121" s="6"/>
     </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:22">
       <c r="A122" s="4"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -6181,7 +6181,7 @@
       <c r="K122" s="5"/>
       <c r="L122" s="6"/>
     </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:22">
       <c r="A123" s="4" t="s">
         <v>123</v>
       </c>
@@ -6197,7 +6197,7 @@
       <c r="K123" s="5"/>
       <c r="L123" s="6"/>
     </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:22">
       <c r="A124" s="4" t="s">
         <v>124</v>
       </c>
@@ -6213,7 +6213,7 @@
       <c r="K124" s="5"/>
       <c r="L124" s="6"/>
     </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:22">
       <c r="A125" s="7" t="s">
         <v>125</v>
       </c>
@@ -6229,12 +6229,12 @@
       <c r="K125" s="8"/>
       <c r="L125" s="9"/>
     </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:22">
       <c r="A127" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:22">
       <c r="A128" s="1" t="s">
         <v>151</v>
       </c>
@@ -6260,7 +6260,7 @@
       <c r="U128" s="2"/>
       <c r="V128" s="3"/>
     </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:22">
       <c r="A129" s="4" t="s">
         <v>126</v>
       </c>
@@ -6286,7 +6286,7 @@
       <c r="U129" s="5"/>
       <c r="V129" s="6"/>
     </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:22">
       <c r="A130" s="4" t="s">
         <v>127</v>
       </c>
@@ -6312,7 +6312,7 @@
       <c r="U130" s="5"/>
       <c r="V130" s="6"/>
     </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:22">
       <c r="A131" s="4" t="s">
         <v>128</v>
       </c>
@@ -6338,7 +6338,7 @@
       <c r="U131" s="5"/>
       <c r="V131" s="6"/>
     </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:22">
       <c r="A132" s="4" t="s">
         <v>129</v>
       </c>
@@ -6364,7 +6364,7 @@
       <c r="U132" s="5"/>
       <c r="V132" s="6"/>
     </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:22">
       <c r="A133" s="4" t="s">
         <v>130</v>
       </c>
@@ -6390,7 +6390,7 @@
       <c r="U133" s="5"/>
       <c r="V133" s="6"/>
     </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:22">
       <c r="A134" s="4" t="s">
         <v>131</v>
       </c>
@@ -6416,7 +6416,7 @@
       <c r="U134" s="5"/>
       <c r="V134" s="6"/>
     </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:22">
       <c r="A135" s="4" t="s">
         <v>132</v>
       </c>
@@ -6442,7 +6442,7 @@
       <c r="U135" s="5"/>
       <c r="V135" s="6"/>
     </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:22">
       <c r="A136" s="4" t="s">
         <v>133</v>
       </c>
@@ -6468,7 +6468,7 @@
       <c r="U136" s="5"/>
       <c r="V136" s="6"/>
     </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:22">
       <c r="A137" s="4" t="s">
         <v>134</v>
       </c>
@@ -6494,7 +6494,7 @@
       <c r="U137" s="5"/>
       <c r="V137" s="6"/>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:22">
       <c r="A138" s="4" t="s">
         <v>135</v>
       </c>
@@ -6520,7 +6520,7 @@
       <c r="U138" s="5"/>
       <c r="V138" s="6"/>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:22">
       <c r="A139" s="4" t="s">
         <v>136</v>
       </c>
@@ -6546,7 +6546,7 @@
       <c r="U139" s="5"/>
       <c r="V139" s="6"/>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:22">
       <c r="A140" s="4" t="s">
         <v>137</v>
       </c>
@@ -6572,7 +6572,7 @@
       <c r="U140" s="5"/>
       <c r="V140" s="6"/>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:22">
       <c r="A141" s="4" t="s">
         <v>138</v>
       </c>
@@ -6598,7 +6598,7 @@
       <c r="U141" s="5"/>
       <c r="V141" s="6"/>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:22">
       <c r="A142" s="4" t="s">
         <v>139</v>
       </c>
@@ -6624,7 +6624,7 @@
       <c r="U142" s="5"/>
       <c r="V142" s="6"/>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:22">
       <c r="A143" s="4" t="s">
         <v>140</v>
       </c>
@@ -6650,7 +6650,7 @@
       <c r="U143" s="5"/>
       <c r="V143" s="6"/>
     </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:22">
       <c r="A144" s="4" t="s">
         <v>141</v>
       </c>
@@ -6676,7 +6676,7 @@
       <c r="U144" s="5"/>
       <c r="V144" s="6"/>
     </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:22">
       <c r="A145" s="4" t="s">
         <v>142</v>
       </c>
@@ -6702,7 +6702,7 @@
       <c r="U145" s="5"/>
       <c r="V145" s="6"/>
     </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:22">
       <c r="A146" s="4" t="s">
         <v>143</v>
       </c>
@@ -6728,7 +6728,7 @@
       <c r="U146" s="5"/>
       <c r="V146" s="6"/>
     </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:22">
       <c r="A147" s="4" t="s">
         <v>144</v>
       </c>
@@ -6754,7 +6754,7 @@
       <c r="U147" s="5"/>
       <c r="V147" s="6"/>
     </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:22">
       <c r="A148" s="19" t="s">
         <v>145</v>
       </c>
@@ -6780,7 +6780,7 @@
       <c r="U148" s="5"/>
       <c r="V148" s="6"/>
     </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:22">
       <c r="A149" s="19" t="s">
         <v>146</v>
       </c>
@@ -6806,7 +6806,7 @@
       <c r="U149" s="5"/>
       <c r="V149" s="6"/>
     </row>
-    <row r="150" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:22">
       <c r="A150" s="4" t="s">
         <v>147</v>
       </c>
@@ -6832,7 +6832,7 @@
       <c r="U150" s="5"/>
       <c r="V150" s="6"/>
     </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:22">
       <c r="A151" s="4" t="s">
         <v>148</v>
       </c>
@@ -6858,7 +6858,7 @@
       <c r="U151" s="5"/>
       <c r="V151" s="6"/>
     </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:22">
       <c r="A152" s="4" t="s">
         <v>149</v>
       </c>
@@ -6884,7 +6884,7 @@
       <c r="U152" s="5"/>
       <c r="V152" s="6"/>
     </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:22">
       <c r="A153" s="4" t="s">
         <v>80</v>
       </c>
@@ -6910,7 +6910,7 @@
       <c r="U153" s="5"/>
       <c r="V153" s="6"/>
     </row>
-    <row r="154" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:22">
       <c r="A154" s="7" t="s">
         <v>75</v>
       </c>
@@ -6948,13 +6948,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R129"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="F122" sqref="F122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="21" t="s">
         <v>152</v>
       </c>
@@ -6962,7 +6962,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15">
       <c r="A29" s="22"/>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
@@ -6979,12 +6979,12 @@
       <c r="N29" s="22"/>
       <c r="O29" s="22"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15">
       <c r="A31" s="21" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17">
       <c r="A82" s="22"/>
       <c r="B82" s="22"/>
       <c r="C82" s="22"/>
@@ -7003,12 +7003,12 @@
       <c r="P82" s="22"/>
       <c r="Q82" s="22"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17">
       <c r="A84" s="21" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17">
       <c r="L90" s="1" t="s">
         <v>156</v>
       </c>
@@ -7018,7 +7018,7 @@
       <c r="P90" s="2"/>
       <c r="Q90" s="3"/>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17">
       <c r="L91" s="7" t="s">
         <v>157</v>
       </c>
@@ -7028,7 +7028,7 @@
       <c r="P91" s="8"/>
       <c r="Q91" s="9"/>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:18">
       <c r="A113" s="22"/>
       <c r="B113" s="22"/>
       <c r="C113" s="22"/>
@@ -7048,12 +7048,12 @@
       <c r="Q113" s="22"/>
       <c r="R113" s="22"/>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:18">
       <c r="A115" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:18">
       <c r="A116" s="26" t="s">
         <v>477</v>
       </c>
@@ -7065,12 +7065,12 @@
       <c r="G116" s="27"/>
       <c r="H116" s="28"/>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:18">
       <c r="A118" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:18">
       <c r="A119" s="1" t="s">
         <v>466</v>
       </c>
@@ -7090,7 +7090,7 @@
       <c r="O119" s="2"/>
       <c r="P119" s="3"/>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:18">
       <c r="A120" s="4"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -7108,7 +7108,7 @@
       <c r="O120" s="5"/>
       <c r="P120" s="6"/>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:18">
       <c r="A121" s="4" t="s">
         <v>467</v>
       </c>
@@ -7128,7 +7128,7 @@
       <c r="O121" s="5"/>
       <c r="P121" s="6"/>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:18">
       <c r="A122" s="4" t="s">
         <v>468</v>
       </c>
@@ -7148,7 +7148,7 @@
       <c r="O122" s="5"/>
       <c r="P122" s="6"/>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:18">
       <c r="A123" s="4" t="s">
         <v>469</v>
       </c>
@@ -7168,7 +7168,7 @@
       <c r="O123" s="5"/>
       <c r="P123" s="6"/>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:18">
       <c r="A124" s="4" t="s">
         <v>470</v>
       </c>
@@ -7188,7 +7188,7 @@
       <c r="O124" s="5"/>
       <c r="P124" s="6"/>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:18">
       <c r="A125" s="4" t="s">
         <v>471</v>
       </c>
@@ -7208,7 +7208,7 @@
       <c r="O125" s="5"/>
       <c r="P125" s="6"/>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:18">
       <c r="A126" s="4" t="s">
         <v>472</v>
       </c>
@@ -7228,7 +7228,7 @@
       <c r="O126" s="5"/>
       <c r="P126" s="6"/>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:18">
       <c r="A127" s="4" t="s">
         <v>473</v>
       </c>
@@ -7248,7 +7248,7 @@
       <c r="O127" s="5"/>
       <c r="P127" s="6"/>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:18">
       <c r="A128" s="4" t="s">
         <v>474</v>
       </c>
@@ -7268,7 +7268,7 @@
       <c r="O128" s="5"/>
       <c r="P128" s="6"/>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16">
       <c r="A129" s="7" t="s">
         <v>475</v>
       </c>
@@ -7300,18 +7300,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
-      <selection activeCell="F317" sqref="F317"/>
+    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
+      <selection activeCell="R359" sqref="R359"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" s="26" t="s">
         <v>478</v>
       </c>
@@ -7321,12 +7321,12 @@
       <c r="E3" s="27"/>
       <c r="F3" s="28"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5" s="26" t="s">
         <v>480</v>
       </c>
@@ -7339,7 +7339,7 @@
       <c r="H5" s="27"/>
       <c r="I5" s="28"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="A9" s="36" t="s">
         <v>747</v>
       </c>
@@ -7358,17 +7358,17 @@
       <c r="N9" s="22"/>
       <c r="O9" s="22"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15">
       <c r="A12" s="26" t="s">
         <v>720</v>
       </c>
@@ -7379,7 +7379,7 @@
       <c r="F12" s="27"/>
       <c r="G12" s="28"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15">
       <c r="A14" s="26" t="s">
         <v>481</v>
       </c>
@@ -7393,7 +7393,7 @@
       <c r="I14" s="27"/>
       <c r="J14" s="28"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -7405,12 +7405,12 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15">
       <c r="A16" s="23" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
         <v>569</v>
       </c>
@@ -7422,7 +7422,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="A18" s="4" t="s">
         <v>565</v>
       </c>
@@ -7434,7 +7434,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
         <v>566</v>
@@ -7446,7 +7446,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="A20" s="7"/>
       <c r="B20" s="32" t="s">
         <v>567</v>
@@ -7458,7 +7458,7 @@
       <c r="G20" s="8"/>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="A21" s="5"/>
       <c r="B21" s="13"/>
       <c r="C21" s="5"/>
@@ -7468,7 +7468,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="A22" s="34" t="s">
         <v>581</v>
       </c>
@@ -7480,7 +7480,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="B23" s="26" t="s">
         <v>580</v>
       </c>
@@ -7495,7 +7495,7 @@
       <c r="K23" s="27"/>
       <c r="L23" s="28"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
       <c r="D24" s="5"/>
@@ -7505,7 +7505,7 @@
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12">
       <c r="B25" s="5" t="s">
         <v>590</v>
       </c>
@@ -7517,7 +7517,7 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12">
       <c r="B26" s="1" t="s">
         <v>582</v>
       </c>
@@ -7532,7 +7532,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="B27" s="4" t="s">
         <v>583</v>
       </c>
@@ -7547,7 +7547,7 @@
       <c r="K27" s="5"/>
       <c r="L27" s="6"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="B28" s="4" t="s">
         <v>584</v>
       </c>
@@ -7562,7 +7562,7 @@
       <c r="K28" s="5"/>
       <c r="L28" s="6"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="B29" s="4"/>
       <c r="C29" s="13"/>
       <c r="D29" s="5"/>
@@ -7575,7 +7575,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="6"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12">
       <c r="B30" s="4" t="s">
         <v>582</v>
       </c>
@@ -7590,7 +7590,7 @@
       <c r="K30" s="5"/>
       <c r="L30" s="6"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12">
       <c r="B31" s="4" t="s">
         <v>585</v>
       </c>
@@ -7605,7 +7605,7 @@
       <c r="K31" s="5"/>
       <c r="L31" s="6"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12">
       <c r="B32" s="7" t="s">
         <v>586</v>
       </c>
@@ -7620,7 +7620,7 @@
       <c r="K32" s="8"/>
       <c r="L32" s="9"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14">
       <c r="A33" s="5"/>
       <c r="B33" s="13"/>
       <c r="C33" s="5"/>
@@ -7630,7 +7630,7 @@
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14">
       <c r="A34" s="5"/>
       <c r="B34" s="13"/>
       <c r="C34" s="5"/>
@@ -7640,7 +7640,7 @@
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14">
       <c r="A35" s="5"/>
       <c r="B35" s="13"/>
       <c r="C35" s="5"/>
@@ -7650,7 +7650,7 @@
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14">
       <c r="A37" s="1" t="s">
         <v>482</v>
       </c>
@@ -7668,7 +7668,7 @@
       <c r="M37" s="2"/>
       <c r="N37" s="3"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14">
       <c r="A38" s="4"/>
       <c r="B38" s="5" t="s">
         <v>483</v>
@@ -7686,7 +7686,7 @@
       <c r="M38" s="5"/>
       <c r="N38" s="6"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14">
       <c r="A39" s="4"/>
       <c r="B39" s="5" t="s">
         <v>484</v>
@@ -7704,7 +7704,7 @@
       <c r="M39" s="5"/>
       <c r="N39" s="6"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14">
       <c r="A40" s="4"/>
       <c r="B40" s="5" t="s">
         <v>485</v>
@@ -7722,7 +7722,7 @@
       <c r="M40" s="5"/>
       <c r="N40" s="6"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14">
       <c r="A41" s="4"/>
       <c r="B41" s="5" t="s">
         <v>486</v>
@@ -7740,7 +7740,7 @@
       <c r="M41" s="5"/>
       <c r="N41" s="6"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14">
       <c r="A42" s="4"/>
       <c r="B42" s="5" t="s">
         <v>487</v>
@@ -7758,7 +7758,7 @@
       <c r="M42" s="5"/>
       <c r="N42" s="6"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14">
       <c r="A43" s="4"/>
       <c r="B43" s="5" t="s">
         <v>488</v>
@@ -7776,7 +7776,7 @@
       <c r="M43" s="5"/>
       <c r="N43" s="6"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14">
       <c r="A44" s="4"/>
       <c r="B44" s="5" t="s">
         <v>489</v>
@@ -7794,7 +7794,7 @@
       <c r="M44" s="5"/>
       <c r="N44" s="6"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14">
       <c r="A45" s="4"/>
       <c r="B45" s="5" t="s">
         <v>490</v>
@@ -7812,7 +7812,7 @@
       <c r="M45" s="5"/>
       <c r="N45" s="6"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14">
       <c r="A46" s="4"/>
       <c r="B46" s="5" t="s">
         <v>491</v>
@@ -7830,7 +7830,7 @@
       <c r="M46" s="5"/>
       <c r="N46" s="6"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5" t="s">
@@ -7848,7 +7848,7 @@
       <c r="M47" s="5"/>
       <c r="N47" s="6"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5" t="s">
@@ -7866,7 +7866,7 @@
       <c r="M48" s="5"/>
       <c r="N48" s="6"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14">
       <c r="A49" s="4"/>
       <c r="B49" s="5" t="s">
         <v>494</v>
@@ -7884,7 +7884,7 @@
       <c r="M49" s="5"/>
       <c r="N49" s="6"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14">
       <c r="A50" s="4"/>
       <c r="B50" s="5" t="s">
         <v>495</v>
@@ -7902,7 +7902,7 @@
       <c r="M50" s="5"/>
       <c r="N50" s="6"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14">
       <c r="A51" s="4"/>
       <c r="B51" s="5" t="s">
         <v>496</v>
@@ -7920,7 +7920,7 @@
       <c r="M51" s="5"/>
       <c r="N51" s="6"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14">
       <c r="A52" s="4"/>
       <c r="B52" s="5" t="s">
         <v>497</v>
@@ -7938,7 +7938,7 @@
       <c r="M52" s="5"/>
       <c r="N52" s="6"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14">
       <c r="A53" s="4"/>
       <c r="B53" s="5" t="s">
         <v>498</v>
@@ -7956,7 +7956,7 @@
       <c r="M53" s="5"/>
       <c r="N53" s="6"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14">
       <c r="A54" s="4"/>
       <c r="B54" s="5" t="s">
         <v>499</v>
@@ -7974,7 +7974,7 @@
       <c r="M54" s="5"/>
       <c r="N54" s="6"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14">
       <c r="A55" s="4"/>
       <c r="B55" s="5" t="s">
         <v>500</v>
@@ -7992,7 +7992,7 @@
       <c r="M55" s="5"/>
       <c r="N55" s="6"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14">
       <c r="A56" s="4"/>
       <c r="B56" s="5" t="s">
         <v>501</v>
@@ -8010,7 +8010,7 @@
       <c r="M56" s="5"/>
       <c r="N56" s="6"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14">
       <c r="A57" s="4"/>
       <c r="B57" s="5" t="s">
         <v>502</v>
@@ -8028,7 +8028,7 @@
       <c r="M57" s="5"/>
       <c r="N57" s="6"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14">
       <c r="A58" s="4"/>
       <c r="B58" s="5" t="s">
         <v>503</v>
@@ -8046,7 +8046,7 @@
       <c r="M58" s="5"/>
       <c r="N58" s="6"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14">
       <c r="A59" s="4"/>
       <c r="B59" s="5" t="s">
         <v>504</v>
@@ -8064,7 +8064,7 @@
       <c r="M59" s="5"/>
       <c r="N59" s="6"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14">
       <c r="A60" s="4"/>
       <c r="B60" s="5" t="s">
         <v>505</v>
@@ -8082,7 +8082,7 @@
       <c r="M60" s="5"/>
       <c r="N60" s="6"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14">
       <c r="A61" s="4"/>
       <c r="B61" s="5" t="s">
         <v>506</v>
@@ -8100,7 +8100,7 @@
       <c r="M61" s="5"/>
       <c r="N61" s="6"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14">
       <c r="A62" s="4"/>
       <c r="B62" s="5" t="s">
         <v>507</v>
@@ -8118,7 +8118,7 @@
       <c r="M62" s="5"/>
       <c r="N62" s="6"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14">
       <c r="A63" s="4"/>
       <c r="B63" s="5" t="s">
         <v>508</v>
@@ -8136,7 +8136,7 @@
       <c r="M63" s="5"/>
       <c r="N63" s="6"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14">
       <c r="A64" s="4"/>
       <c r="B64" s="5" t="s">
         <v>509</v>
@@ -8154,7 +8154,7 @@
       <c r="M64" s="5"/>
       <c r="N64" s="6"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14">
       <c r="A65" s="4"/>
       <c r="B65" s="5" t="s">
         <v>510</v>
@@ -8172,7 +8172,7 @@
       <c r="M65" s="5"/>
       <c r="N65" s="6"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14">
       <c r="A66" s="4"/>
       <c r="B66" s="5" t="s">
         <v>511</v>
@@ -8190,7 +8190,7 @@
       <c r="M66" s="5"/>
       <c r="N66" s="6"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14">
       <c r="A67" s="4"/>
       <c r="B67" s="5" t="s">
         <v>512</v>
@@ -8208,7 +8208,7 @@
       <c r="M67" s="5"/>
       <c r="N67" s="6"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14">
       <c r="A68" s="4"/>
       <c r="B68" s="5" t="s">
         <v>513</v>
@@ -8226,7 +8226,7 @@
       <c r="M68" s="5"/>
       <c r="N68" s="6"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14">
       <c r="A69" s="4"/>
       <c r="B69" s="5" t="s">
         <v>514</v>
@@ -8244,7 +8244,7 @@
       <c r="M69" s="5"/>
       <c r="N69" s="6"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14">
       <c r="A70" s="4"/>
       <c r="B70" s="5" t="s">
         <v>515</v>
@@ -8262,7 +8262,7 @@
       <c r="M70" s="5"/>
       <c r="N70" s="6"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14">
       <c r="A71" s="4"/>
       <c r="B71" s="5" t="s">
         <v>516</v>
@@ -8280,7 +8280,7 @@
       <c r="M71" s="5"/>
       <c r="N71" s="6"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14">
       <c r="A72" s="4"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5" t="s">
@@ -8298,7 +8298,7 @@
       <c r="M72" s="5"/>
       <c r="N72" s="6"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14">
       <c r="A73" s="4"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5" t="s">
@@ -8316,7 +8316,7 @@
       <c r="M73" s="5"/>
       <c r="N73" s="6"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14">
       <c r="A74" s="4"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5" t="s">
@@ -8334,7 +8334,7 @@
       <c r="M74" s="5"/>
       <c r="N74" s="6"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14">
       <c r="A75" s="4" t="s">
         <v>520</v>
       </c>
@@ -8354,7 +8354,7 @@
       <c r="M75" s="5"/>
       <c r="N75" s="6"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14">
       <c r="A76" s="4" t="s">
         <v>749</v>
       </c>
@@ -8372,7 +8372,7 @@
       <c r="M76" s="5"/>
       <c r="N76" s="6"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14">
       <c r="A77" s="4" t="s">
         <v>748</v>
       </c>
@@ -8390,7 +8390,7 @@
       <c r="M77" s="5"/>
       <c r="N77" s="6"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14">
       <c r="A78" s="4" t="s">
         <v>522</v>
       </c>
@@ -8408,7 +8408,7 @@
       <c r="M78" s="5"/>
       <c r="N78" s="6"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14">
       <c r="A79" s="4"/>
       <c r="B79" s="5" t="s">
         <v>523</v>
@@ -8426,7 +8426,7 @@
       <c r="M79" s="5"/>
       <c r="N79" s="6"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14">
       <c r="A80" s="4"/>
       <c r="B80" s="5" t="s">
         <v>524</v>
@@ -8444,7 +8444,7 @@
       <c r="M80" s="5"/>
       <c r="N80" s="6"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14">
       <c r="A81" s="4"/>
       <c r="B81" s="5" t="s">
         <v>525</v>
@@ -8462,7 +8462,7 @@
       <c r="M81" s="5"/>
       <c r="N81" s="6"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14">
       <c r="A82" s="4"/>
       <c r="B82" s="5" t="s">
         <v>526</v>
@@ -8480,7 +8480,7 @@
       <c r="M82" s="5"/>
       <c r="N82" s="6"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14">
       <c r="A83" s="4"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5" t="s">
@@ -8498,7 +8498,7 @@
       <c r="M83" s="5"/>
       <c r="N83" s="6"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14">
       <c r="A84" s="4"/>
       <c r="B84" s="5" t="s">
         <v>528</v>
@@ -8516,7 +8516,7 @@
       <c r="M84" s="5"/>
       <c r="N84" s="6"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14">
       <c r="A85" s="4"/>
       <c r="B85" s="5" t="s">
         <v>529</v>
@@ -8534,7 +8534,7 @@
       <c r="M85" s="5"/>
       <c r="N85" s="6"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14">
       <c r="A86" s="4"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5" t="s">
@@ -8552,7 +8552,7 @@
       <c r="M86" s="5"/>
       <c r="N86" s="6"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14">
       <c r="A87" s="7"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8" t="s">
@@ -8570,22 +8570,22 @@
       <c r="M87" s="8"/>
       <c r="N87" s="9"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14">
       <c r="A90" s="23" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14">
       <c r="A91" s="21" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14">
       <c r="A92" s="21" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14">
       <c r="A93" s="30" t="s">
         <v>541</v>
       </c>
@@ -8596,7 +8596,7 @@
       <c r="F93" s="2"/>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14">
       <c r="A94" s="31" t="s">
         <v>540</v>
       </c>
@@ -8607,7 +8607,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="9"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7">
       <c r="A98" s="21" t="s">
         <v>552</v>
       </c>
@@ -8615,7 +8615,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
         <v>543</v>
       </c>
@@ -8626,7 +8626,7 @@
       <c r="F99" s="2"/>
       <c r="G99" s="3"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7">
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -8635,7 +8635,7 @@
       <c r="F100" s="5"/>
       <c r="G100" s="6"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7">
       <c r="A101" s="4" t="s">
         <v>544</v>
       </c>
@@ -8646,7 +8646,7 @@
       <c r="F101" s="5"/>
       <c r="G101" s="6"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7">
       <c r="A102" s="4"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -8655,7 +8655,7 @@
       <c r="F102" s="5"/>
       <c r="G102" s="6"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7">
       <c r="A103" s="4" t="s">
         <v>545</v>
       </c>
@@ -8666,7 +8666,7 @@
       <c r="F103" s="5"/>
       <c r="G103" s="6"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7">
       <c r="A104" s="4"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -8675,7 +8675,7 @@
       <c r="F104" s="5"/>
       <c r="G104" s="6"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7">
       <c r="A105" s="4" t="s">
         <v>546</v>
       </c>
@@ -8686,7 +8686,7 @@
       <c r="F105" s="5"/>
       <c r="G105" s="6"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7">
       <c r="A106" s="4"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -8695,7 +8695,7 @@
       <c r="F106" s="5"/>
       <c r="G106" s="6"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7">
       <c r="A107" s="4" t="s">
         <v>547</v>
       </c>
@@ -8706,7 +8706,7 @@
       <c r="F107" s="5"/>
       <c r="G107" s="6"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7">
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -8715,7 +8715,7 @@
       <c r="F108" s="5"/>
       <c r="G108" s="6"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7">
       <c r="A109" s="4" t="s">
         <v>548</v>
       </c>
@@ -8726,7 +8726,7 @@
       <c r="F109" s="5"/>
       <c r="G109" s="6"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7">
       <c r="A110" s="4"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -8735,7 +8735,7 @@
       <c r="F110" s="5"/>
       <c r="G110" s="6"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7">
       <c r="A111" s="4" t="s">
         <v>549</v>
       </c>
@@ -8746,7 +8746,7 @@
       <c r="F111" s="5"/>
       <c r="G111" s="6"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7">
       <c r="A112" s="4"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -8755,7 +8755,7 @@
       <c r="F112" s="5"/>
       <c r="G112" s="6"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12">
       <c r="A113" s="7" t="s">
         <v>550</v>
       </c>
@@ -8766,17 +8766,17 @@
       <c r="F113" s="8"/>
       <c r="G113" s="9"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12">
       <c r="A115" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12">
       <c r="A118" s="23" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12">
       <c r="A119" s="1" t="s">
         <v>562</v>
       </c>
@@ -8792,7 +8792,7 @@
       <c r="K119" s="2"/>
       <c r="L119" s="3"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12">
       <c r="A120" s="4" t="s">
         <v>563</v>
       </c>
@@ -8808,7 +8808,7 @@
       <c r="K120" s="5"/>
       <c r="L120" s="6"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12">
       <c r="A121" s="4" t="s">
         <v>554</v>
       </c>
@@ -8824,7 +8824,7 @@
       <c r="K121" s="5"/>
       <c r="L121" s="6"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12">
       <c r="A122" s="4" t="s">
         <v>555</v>
       </c>
@@ -8840,7 +8840,7 @@
       <c r="K122" s="5"/>
       <c r="L122" s="6"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12">
       <c r="A123" s="4"/>
       <c r="B123" s="5" t="s">
         <v>556</v>
@@ -8856,7 +8856,7 @@
       <c r="K123" s="5"/>
       <c r="L123" s="6"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12">
       <c r="A124" s="4"/>
       <c r="B124" s="5" t="s">
         <v>557</v>
@@ -8872,7 +8872,7 @@
       <c r="K124" s="5"/>
       <c r="L124" s="6"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12">
       <c r="A125" s="4"/>
       <c r="B125" s="5" t="s">
         <v>558</v>
@@ -8888,7 +8888,7 @@
       <c r="K125" s="5"/>
       <c r="L125" s="6"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12">
       <c r="A126" s="4"/>
       <c r="B126" s="5" t="s">
         <v>559</v>
@@ -8904,7 +8904,7 @@
       <c r="K126" s="5"/>
       <c r="L126" s="6"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12">
       <c r="A127" s="4"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5" t="s">
@@ -8920,7 +8920,7 @@
       <c r="K127" s="5"/>
       <c r="L127" s="6"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12">
       <c r="A128" s="7"/>
       <c r="B128" s="8" t="s">
         <v>561</v>
@@ -8936,12 +8936,12 @@
       <c r="K128" s="8"/>
       <c r="L128" s="9"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:19">
       <c r="A130" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:19">
       <c r="A131" s="26" t="s">
         <v>564</v>
       </c>
@@ -8952,12 +8952,12 @@
       <c r="F131" s="27"/>
       <c r="G131" s="28"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:19">
       <c r="A134" s="23" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:19">
       <c r="B135" s="1" t="s">
         <v>562</v>
       </c>
@@ -8979,7 +8979,7 @@
       <c r="R135" s="2"/>
       <c r="S135" s="3"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:19">
       <c r="B136" s="4" t="s">
         <v>563</v>
       </c>
@@ -9001,7 +9001,7 @@
       <c r="R136" s="5"/>
       <c r="S136" s="6"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:19">
       <c r="B137" s="4" t="s">
         <v>588</v>
       </c>
@@ -9023,7 +9023,7 @@
       <c r="R137" s="5"/>
       <c r="S137" s="6"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:19">
       <c r="B138" s="4" t="s">
         <v>522</v>
       </c>
@@ -9045,7 +9045,7 @@
       <c r="R138" s="5"/>
       <c r="S138" s="6"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:19">
       <c r="B139" s="4"/>
       <c r="C139" s="5" t="s">
         <v>570</v>
@@ -9067,7 +9067,7 @@
       <c r="R139" s="5"/>
       <c r="S139" s="6"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:19">
       <c r="B140" s="4"/>
       <c r="C140" s="5" t="s">
         <v>571</v>
@@ -9089,7 +9089,7 @@
       <c r="R140" s="5"/>
       <c r="S140" s="6"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:19">
       <c r="B141" s="4"/>
       <c r="C141" s="5" t="s">
         <v>572</v>
@@ -9111,7 +9111,7 @@
       <c r="R141" s="5"/>
       <c r="S141" s="6"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:19">
       <c r="B142" s="4"/>
       <c r="C142" s="5" t="s">
         <v>573</v>
@@ -9133,7 +9133,7 @@
       <c r="R142" s="5"/>
       <c r="S142" s="6"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:19">
       <c r="B143" s="4"/>
       <c r="C143" s="5" t="s">
         <v>574</v>
@@ -9155,7 +9155,7 @@
       <c r="R143" s="5"/>
       <c r="S143" s="6"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:19">
       <c r="B144" s="4"/>
       <c r="C144" s="5" t="s">
         <v>525</v>
@@ -9177,7 +9177,7 @@
       <c r="R144" s="5"/>
       <c r="S144" s="6"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:19">
       <c r="B145" s="4"/>
       <c r="C145" s="5" t="s">
         <v>559</v>
@@ -9199,7 +9199,7 @@
       <c r="R145" s="5"/>
       <c r="S145" s="6"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:19">
       <c r="B146" s="4"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5" t="s">
@@ -9221,7 +9221,7 @@
       <c r="R146" s="5"/>
       <c r="S146" s="6"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:19">
       <c r="B147" s="4"/>
       <c r="C147" s="5" t="s">
         <v>576</v>
@@ -9243,7 +9243,7 @@
       <c r="R147" s="5"/>
       <c r="S147" s="6"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:19">
       <c r="B148" s="4"/>
       <c r="C148" s="5" t="s">
         <v>577</v>
@@ -9265,7 +9265,7 @@
       <c r="R148" s="5"/>
       <c r="S148" s="6"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:19">
       <c r="B149" s="4"/>
       <c r="C149" s="5"/>
       <c r="D149" s="5" t="s">
@@ -9287,7 +9287,7 @@
       <c r="R149" s="5"/>
       <c r="S149" s="6"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:19">
       <c r="B150" s="4"/>
       <c r="C150" s="5" t="s">
         <v>579</v>
@@ -9309,7 +9309,7 @@
       <c r="R150" s="5"/>
       <c r="S150" s="6"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:19">
       <c r="B151" s="7"/>
       <c r="C151" s="8" t="s">
         <v>589</v>
@@ -9331,12 +9331,12 @@
       <c r="R151" s="8"/>
       <c r="S151" s="9"/>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:19">
       <c r="A154" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:19">
       <c r="A155" s="26" t="s">
         <v>591</v>
       </c>
@@ -9347,12 +9347,12 @@
       <c r="F155" s="27"/>
       <c r="G155" s="28"/>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:19">
       <c r="A157" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:19">
       <c r="A159" s="36" t="s">
         <v>750</v>
       </c>
@@ -9375,12 +9375,12 @@
       <c r="R159" s="22"/>
       <c r="S159" s="22"/>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:19">
       <c r="A160" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:14">
       <c r="A161" s="26" t="s">
         <v>718</v>
       </c>
@@ -9391,7 +9391,7 @@
       <c r="F161" s="27"/>
       <c r="G161" s="28"/>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:14">
       <c r="A163" s="1" t="s">
         <v>594</v>
       </c>
@@ -9403,7 +9403,7 @@
       <c r="G163" s="2"/>
       <c r="H163" s="3"/>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:14">
       <c r="A164" s="7" t="s">
         <v>595</v>
       </c>
@@ -9415,12 +9415,12 @@
       <c r="G164" s="8"/>
       <c r="H164" s="9"/>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:14">
       <c r="A165" s="37" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:14">
       <c r="A166" s="1" t="s">
         <v>596</v>
       </c>
@@ -9438,7 +9438,7 @@
       <c r="M166" s="2"/>
       <c r="N166" s="3"/>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:14">
       <c r="A167" s="4"/>
       <c r="B167" s="5" t="s">
         <v>597</v>
@@ -9456,7 +9456,7 @@
       <c r="M167" s="5"/>
       <c r="N167" s="6"/>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:14">
       <c r="A168" s="4" t="s">
         <v>598</v>
       </c>
@@ -9474,7 +9474,7 @@
       <c r="M168" s="5"/>
       <c r="N168" s="6"/>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:14">
       <c r="A169" s="4"/>
       <c r="B169" s="5" t="s">
         <v>751</v>
@@ -9492,7 +9492,7 @@
       <c r="M169" s="5"/>
       <c r="N169" s="6"/>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:14">
       <c r="A170" s="4"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5" t="s">
@@ -9510,7 +9510,7 @@
       <c r="M170" s="5"/>
       <c r="N170" s="6"/>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:14">
       <c r="A171" s="4"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5" t="s">
@@ -9528,7 +9528,7 @@
       <c r="M171" s="5"/>
       <c r="N171" s="6"/>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:14">
       <c r="A172" s="4"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5" t="s">
@@ -9546,7 +9546,7 @@
       <c r="M172" s="5"/>
       <c r="N172" s="6"/>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:14">
       <c r="A173" s="4"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5" t="s">
@@ -9564,7 +9564,7 @@
       <c r="M173" s="5"/>
       <c r="N173" s="6"/>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:14">
       <c r="A174" s="4"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5" t="s">
@@ -9582,7 +9582,7 @@
       <c r="M174" s="5"/>
       <c r="N174" s="6"/>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:14">
       <c r="A175" s="4"/>
       <c r="B175" s="5" t="s">
         <v>604</v>
@@ -9600,7 +9600,7 @@
       <c r="M175" s="5"/>
       <c r="N175" s="6"/>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:14">
       <c r="A176" s="4"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5" t="s">
@@ -9618,7 +9618,7 @@
       <c r="M176" s="5"/>
       <c r="N176" s="6"/>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:14">
       <c r="A177" s="4"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5" t="s">
@@ -9636,7 +9636,7 @@
       <c r="M177" s="5"/>
       <c r="N177" s="6"/>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:14">
       <c r="A178" s="4"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5" t="s">
@@ -9654,7 +9654,7 @@
       <c r="M178" s="5"/>
       <c r="N178" s="6"/>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:14">
       <c r="A179" s="4"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5" t="s">
@@ -9672,7 +9672,7 @@
       <c r="M179" s="5"/>
       <c r="N179" s="6"/>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:14">
       <c r="A180" s="4"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5" t="s">
@@ -9690,7 +9690,7 @@
       <c r="M180" s="5"/>
       <c r="N180" s="6"/>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:14">
       <c r="A181" s="4"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5" t="s">
@@ -9708,7 +9708,7 @@
       <c r="M181" s="5"/>
       <c r="N181" s="6"/>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:14">
       <c r="A182" s="4"/>
       <c r="B182" s="5" t="s">
         <v>611</v>
@@ -9726,7 +9726,7 @@
       <c r="M182" s="5"/>
       <c r="N182" s="6"/>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:14">
       <c r="A183" s="4"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -9742,7 +9742,7 @@
       <c r="M183" s="5"/>
       <c r="N183" s="6"/>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:14">
       <c r="A184" s="4"/>
       <c r="B184" s="5" t="s">
         <v>612</v>
@@ -9760,7 +9760,7 @@
       <c r="M184" s="5"/>
       <c r="N184" s="6"/>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:14">
       <c r="A185" s="7" t="s">
         <v>613</v>
       </c>
@@ -9778,12 +9778,12 @@
       <c r="M185" s="8"/>
       <c r="N185" s="9"/>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:14">
       <c r="A186" s="23" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:14">
       <c r="A187" s="1" t="s">
         <v>614</v>
       </c>
@@ -9801,7 +9801,7 @@
       <c r="M187" s="2"/>
       <c r="N187" s="3"/>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:14">
       <c r="A188" s="4" t="s">
         <v>615</v>
       </c>
@@ -9819,7 +9819,7 @@
       <c r="M188" s="5"/>
       <c r="N188" s="6"/>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:14">
       <c r="A189" s="4"/>
       <c r="B189" s="5" t="s">
         <v>752</v>
@@ -9837,7 +9837,7 @@
       <c r="M189" s="5"/>
       <c r="N189" s="6"/>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:14">
       <c r="A190" s="4"/>
       <c r="B190" s="5" t="s">
         <v>616</v>
@@ -9855,7 +9855,7 @@
       <c r="M190" s="5"/>
       <c r="N190" s="6"/>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:14">
       <c r="A191" s="4"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5" t="s">
@@ -9873,7 +9873,7 @@
       <c r="M191" s="5"/>
       <c r="N191" s="6"/>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:14">
       <c r="A192" s="4"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5" t="s">
@@ -9891,7 +9891,7 @@
       <c r="M192" s="5"/>
       <c r="N192" s="6"/>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:16">
       <c r="A193" s="4"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5" t="s">
@@ -9909,7 +9909,7 @@
       <c r="M193" s="5"/>
       <c r="N193" s="6"/>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:16">
       <c r="A194" s="4"/>
       <c r="B194" s="5" t="s">
         <v>620</v>
@@ -9927,7 +9927,7 @@
       <c r="M194" s="5"/>
       <c r="N194" s="6"/>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:16">
       <c r="A195" s="4"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5" t="s">
@@ -9945,7 +9945,7 @@
       <c r="M195" s="5"/>
       <c r="N195" s="6"/>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:16">
       <c r="A196" s="4"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5" t="s">
@@ -9963,7 +9963,7 @@
       <c r="M196" s="5"/>
       <c r="N196" s="6"/>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:16">
       <c r="A197" s="4"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -9981,7 +9981,7 @@
       <c r="M197" s="5"/>
       <c r="N197" s="6"/>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:16">
       <c r="A198" s="4"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -9997,7 +9997,7 @@
       <c r="M198" s="5"/>
       <c r="N198" s="6"/>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:16">
       <c r="A199" s="4"/>
       <c r="B199" s="5" t="s">
         <v>624</v>
@@ -10015,7 +10015,7 @@
       <c r="M199" s="5"/>
       <c r="N199" s="6"/>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:16">
       <c r="A200" s="7" t="s">
         <v>625</v>
       </c>
@@ -10033,12 +10033,12 @@
       <c r="M200" s="8"/>
       <c r="N200" s="9"/>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:16">
       <c r="A201" s="23" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:16">
       <c r="A202" s="1" t="s">
         <v>626</v>
       </c>
@@ -10058,7 +10058,7 @@
       <c r="O202" s="2"/>
       <c r="P202" s="3"/>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:16">
       <c r="A203" s="4" t="s">
         <v>627</v>
       </c>
@@ -10078,7 +10078,7 @@
       <c r="O203" s="5"/>
       <c r="P203" s="6"/>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:16">
       <c r="A204" s="4"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -10096,7 +10096,7 @@
       <c r="O204" s="5"/>
       <c r="P204" s="6"/>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:16">
       <c r="A205" s="4" t="s">
         <v>628</v>
       </c>
@@ -10116,7 +10116,7 @@
       <c r="O205" s="5"/>
       <c r="P205" s="6"/>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:16">
       <c r="A206" s="4"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -10134,7 +10134,7 @@
       <c r="O206" s="5"/>
       <c r="P206" s="6"/>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:16">
       <c r="A207" s="4"/>
       <c r="B207" s="5" t="s">
         <v>753</v>
@@ -10154,7 +10154,7 @@
       <c r="O207" s="5"/>
       <c r="P207" s="6"/>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:16">
       <c r="A208" s="4"/>
       <c r="B208" s="5" t="s">
         <v>629</v>
@@ -10174,7 +10174,7 @@
       <c r="O208" s="5"/>
       <c r="P208" s="6"/>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:16">
       <c r="A209" s="4"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5" t="s">
@@ -10194,7 +10194,7 @@
       <c r="O209" s="5"/>
       <c r="P209" s="6"/>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:16">
       <c r="A210" s="4"/>
       <c r="B210" s="5" t="s">
         <v>631</v>
@@ -10214,7 +10214,7 @@
       <c r="O210" s="5"/>
       <c r="P210" s="6"/>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:16">
       <c r="A211" s="4"/>
       <c r="B211" s="5" t="s">
         <v>632</v>
@@ -10234,7 +10234,7 @@
       <c r="O211" s="5"/>
       <c r="P211" s="6"/>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:16">
       <c r="A212" s="4"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5" t="s">
@@ -10254,7 +10254,7 @@
       <c r="O212" s="5"/>
       <c r="P212" s="6"/>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:16">
       <c r="A213" s="4"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5" t="s">
@@ -10274,7 +10274,7 @@
       <c r="O213" s="5"/>
       <c r="P213" s="6"/>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:16">
       <c r="A214" s="4"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5" t="s">
@@ -10294,7 +10294,7 @@
       <c r="O214" s="5"/>
       <c r="P214" s="6"/>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:16">
       <c r="A215" s="4"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5" t="s">
@@ -10314,7 +10314,7 @@
       <c r="O215" s="5"/>
       <c r="P215" s="6"/>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:16">
       <c r="A216" s="4"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -10332,7 +10332,7 @@
       <c r="O216" s="5"/>
       <c r="P216" s="6"/>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:16">
       <c r="A217" s="4"/>
       <c r="B217" s="5" t="s">
         <v>637</v>
@@ -10352,7 +10352,7 @@
       <c r="O217" s="5"/>
       <c r="P217" s="6"/>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:16">
       <c r="A218" s="4"/>
       <c r="B218" s="5" t="s">
         <v>39</v>
@@ -10372,7 +10372,7 @@
       <c r="O218" s="5"/>
       <c r="P218" s="6"/>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:16">
       <c r="A219" s="4"/>
       <c r="B219" s="5" t="s">
         <v>638</v>
@@ -10392,7 +10392,7 @@
       <c r="O219" s="5"/>
       <c r="P219" s="6"/>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:16">
       <c r="A220" s="4"/>
       <c r="B220" s="5" t="s">
         <v>639</v>
@@ -10412,7 +10412,7 @@
       <c r="O220" s="5"/>
       <c r="P220" s="6"/>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:16">
       <c r="A221" s="4"/>
       <c r="B221" s="5" t="s">
         <v>640</v>
@@ -10432,7 +10432,7 @@
       <c r="O221" s="5"/>
       <c r="P221" s="6"/>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:16">
       <c r="A222" s="4"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5" t="s">
@@ -10452,7 +10452,7 @@
       <c r="O222" s="5"/>
       <c r="P222" s="6"/>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:16">
       <c r="A223" s="4"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5" t="s">
@@ -10472,7 +10472,7 @@
       <c r="O223" s="5"/>
       <c r="P223" s="6"/>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:16">
       <c r="A224" s="4"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -10492,7 +10492,7 @@
       <c r="O224" s="5"/>
       <c r="P224" s="6"/>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:16">
       <c r="A225" s="4"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -10512,7 +10512,7 @@
       <c r="O225" s="5"/>
       <c r="P225" s="6"/>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:16">
       <c r="A226" s="4"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -10532,7 +10532,7 @@
       <c r="O226" s="5"/>
       <c r="P226" s="6"/>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:16">
       <c r="A227" s="4"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -10552,7 +10552,7 @@
       <c r="O227" s="5"/>
       <c r="P227" s="6"/>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:16">
       <c r="A228" s="4"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -10570,7 +10570,7 @@
       <c r="O228" s="5"/>
       <c r="P228" s="6"/>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:16">
       <c r="A229" s="4"/>
       <c r="B229" s="5" t="s">
         <v>647</v>
@@ -10590,7 +10590,7 @@
       <c r="O229" s="5"/>
       <c r="P229" s="6"/>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:16">
       <c r="A230" s="4"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -10608,7 +10608,7 @@
       <c r="O230" s="5"/>
       <c r="P230" s="6"/>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:16">
       <c r="A231" s="4"/>
       <c r="B231" s="5" t="s">
         <v>648</v>
@@ -10628,7 +10628,7 @@
       <c r="O231" s="5"/>
       <c r="P231" s="6"/>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:16">
       <c r="A232" s="4"/>
       <c r="B232" s="5" t="s">
         <v>649</v>
@@ -10648,7 +10648,7 @@
       <c r="O232" s="5"/>
       <c r="P232" s="6"/>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:16">
       <c r="A233" s="4"/>
       <c r="B233" s="5" t="s">
         <v>522</v>
@@ -10668,7 +10668,7 @@
       <c r="O233" s="5"/>
       <c r="P233" s="6"/>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:16">
       <c r="A234" s="4"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5" t="s">
@@ -10688,7 +10688,7 @@
       <c r="O234" s="5"/>
       <c r="P234" s="6"/>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:16">
       <c r="A235" s="4"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5" t="s">
@@ -10708,7 +10708,7 @@
       <c r="O235" s="5"/>
       <c r="P235" s="6"/>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:16">
       <c r="A236" s="4"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5" t="s">
@@ -10728,7 +10728,7 @@
       <c r="O236" s="5"/>
       <c r="P236" s="6"/>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:16">
       <c r="A237" s="4"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5" t="s">
@@ -10748,7 +10748,7 @@
       <c r="O237" s="5"/>
       <c r="P237" s="6"/>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:16">
       <c r="A238" s="4"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5" t="s">
@@ -10768,7 +10768,7 @@
       <c r="O238" s="5"/>
       <c r="P238" s="6"/>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:16">
       <c r="A239" s="4"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5" t="s">
@@ -10788,7 +10788,7 @@
       <c r="O239" s="5"/>
       <c r="P239" s="6"/>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:16">
       <c r="A240" s="4"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5" t="s">
@@ -10808,7 +10808,7 @@
       <c r="O240" s="5"/>
       <c r="P240" s="6"/>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:16">
       <c r="A241" s="4"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5" t="s">
@@ -10828,7 +10828,7 @@
       <c r="O241" s="5"/>
       <c r="P241" s="6"/>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:16">
       <c r="A242" s="4"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5" t="s">
@@ -10848,7 +10848,7 @@
       <c r="O242" s="5"/>
       <c r="P242" s="6"/>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:16">
       <c r="A243" s="4"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5" t="s">
@@ -10868,7 +10868,7 @@
       <c r="O243" s="5"/>
       <c r="P243" s="6"/>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:16">
       <c r="A244" s="4"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -10886,7 +10886,7 @@
       <c r="O244" s="5"/>
       <c r="P244" s="6"/>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:16">
       <c r="A245" s="4"/>
       <c r="B245" s="5" t="s">
         <v>655</v>
@@ -10906,7 +10906,7 @@
       <c r="O245" s="5"/>
       <c r="P245" s="6"/>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:16">
       <c r="A246" s="4"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -10924,7 +10924,7 @@
       <c r="O246" s="5"/>
       <c r="P246" s="6"/>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:16">
       <c r="A247" s="4"/>
       <c r="B247" s="5" t="s">
         <v>482</v>
@@ -10944,7 +10944,7 @@
       <c r="O247" s="5"/>
       <c r="P247" s="6"/>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:16">
       <c r="A248" s="4"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5" t="s">
@@ -10964,7 +10964,7 @@
       <c r="O248" s="5"/>
       <c r="P248" s="6"/>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:16">
       <c r="A249" s="4"/>
       <c r="B249" s="5"/>
       <c r="C249" s="5" t="s">
@@ -10984,7 +10984,7 @@
       <c r="O249" s="5"/>
       <c r="P249" s="6"/>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:16">
       <c r="A250" s="4"/>
       <c r="B250" s="5"/>
       <c r="C250" s="5" t="s">
@@ -11004,7 +11004,7 @@
       <c r="O250" s="5"/>
       <c r="P250" s="6"/>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:16">
       <c r="A251" s="4"/>
       <c r="B251" s="5"/>
       <c r="C251" s="5" t="s">
@@ -11024,7 +11024,7 @@
       <c r="O251" s="5"/>
       <c r="P251" s="6"/>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:16">
       <c r="A252" s="7" t="s">
         <v>625</v>
       </c>
@@ -11044,12 +11044,12 @@
       <c r="O252" s="8"/>
       <c r="P252" s="9"/>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:16">
       <c r="A253" s="23" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:16">
       <c r="A254" s="1" t="s">
         <v>660</v>
       </c>
@@ -11069,7 +11069,7 @@
       <c r="O254" s="2"/>
       <c r="P254" s="3"/>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:16">
       <c r="A255" s="4"/>
       <c r="B255" s="5" t="s">
         <v>661</v>
@@ -11089,7 +11089,7 @@
       <c r="O255" s="5"/>
       <c r="P255" s="6"/>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:16">
       <c r="A256" s="4" t="s">
         <v>662</v>
       </c>
@@ -11109,7 +11109,7 @@
       <c r="O256" s="5"/>
       <c r="P256" s="6"/>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:16">
       <c r="A257" s="4" t="s">
         <v>663</v>
       </c>
@@ -11129,7 +11129,7 @@
       <c r="O257" s="5"/>
       <c r="P257" s="6"/>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:16">
       <c r="A258" s="4"/>
       <c r="B258" s="5" t="s">
         <v>664</v>
@@ -11149,7 +11149,7 @@
       <c r="O258" s="5"/>
       <c r="P258" s="6"/>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:16">
       <c r="A259" s="4" t="s">
         <v>665</v>
       </c>
@@ -11169,7 +11169,7 @@
       <c r="O259" s="5"/>
       <c r="P259" s="6"/>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:16">
       <c r="A260" s="4"/>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
@@ -11187,7 +11187,7 @@
       <c r="O260" s="5"/>
       <c r="P260" s="6"/>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:16">
       <c r="A261" s="4" t="s">
         <v>666</v>
       </c>
@@ -11207,7 +11207,7 @@
       <c r="O261" s="5"/>
       <c r="P261" s="6"/>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:16">
       <c r="A262" s="4" t="s">
         <v>667</v>
       </c>
@@ -11227,7 +11227,7 @@
       <c r="O262" s="5"/>
       <c r="P262" s="6"/>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:16">
       <c r="A263" s="4" t="s">
         <v>668</v>
       </c>
@@ -11247,7 +11247,7 @@
       <c r="O263" s="5"/>
       <c r="P263" s="6"/>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:16">
       <c r="A264" s="4" t="s">
         <v>669</v>
       </c>
@@ -11267,7 +11267,7 @@
       <c r="O264" s="5"/>
       <c r="P264" s="6"/>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:16">
       <c r="A265" s="4"/>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
@@ -11285,7 +11285,7 @@
       <c r="O265" s="5"/>
       <c r="P265" s="6"/>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:16">
       <c r="A266" s="4"/>
       <c r="B266" s="5" t="s">
         <v>670</v>
@@ -11305,7 +11305,7 @@
       <c r="O266" s="5"/>
       <c r="P266" s="6"/>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:16">
       <c r="A267" s="4"/>
       <c r="B267" s="5" t="s">
         <v>671</v>
@@ -11325,7 +11325,7 @@
       <c r="O267" s="5"/>
       <c r="P267" s="6"/>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:16">
       <c r="A268" s="4"/>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
@@ -11343,7 +11343,7 @@
       <c r="O268" s="5"/>
       <c r="P268" s="6"/>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:16">
       <c r="A269" s="4"/>
       <c r="B269" s="5" t="s">
         <v>672</v>
@@ -11363,7 +11363,7 @@
       <c r="O269" s="5"/>
       <c r="P269" s="6"/>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:16">
       <c r="A270" s="4"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5" t="s">
@@ -11383,7 +11383,7 @@
       <c r="O270" s="5"/>
       <c r="P270" s="6"/>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:16">
       <c r="A271" s="4"/>
       <c r="B271" s="5"/>
       <c r="C271" s="5" t="s">
@@ -11403,7 +11403,7 @@
       <c r="O271" s="5"/>
       <c r="P271" s="6"/>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:16">
       <c r="A272" s="4"/>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
@@ -11423,7 +11423,7 @@
       <c r="O272" s="5"/>
       <c r="P272" s="6"/>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:16">
       <c r="A273" s="4"/>
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
@@ -11443,7 +11443,7 @@
       <c r="O273" s="5"/>
       <c r="P273" s="6"/>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:16">
       <c r="A274" s="4"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
@@ -11463,7 +11463,7 @@
       <c r="O274" s="5"/>
       <c r="P274" s="6"/>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:16">
       <c r="A275" s="4"/>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
@@ -11483,7 +11483,7 @@
       <c r="O275" s="5"/>
       <c r="P275" s="6"/>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:16">
       <c r="A276" s="4"/>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
@@ -11503,7 +11503,7 @@
       <c r="O276" s="5"/>
       <c r="P276" s="6"/>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:16">
       <c r="A277" s="4"/>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
@@ -11523,7 +11523,7 @@
       <c r="O277" s="5"/>
       <c r="P277" s="6"/>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:16">
       <c r="A278" s="4"/>
       <c r="B278" s="5" t="s">
         <v>681</v>
@@ -11543,7 +11543,7 @@
       <c r="O278" s="5"/>
       <c r="P278" s="6"/>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:16">
       <c r="A279" s="4"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
@@ -11561,7 +11561,7 @@
       <c r="O279" s="5"/>
       <c r="P279" s="6"/>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:16">
       <c r="A280" s="4"/>
       <c r="B280" s="5" t="s">
         <v>682</v>
@@ -11581,7 +11581,7 @@
       <c r="O280" s="5"/>
       <c r="P280" s="6"/>
     </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:16">
       <c r="A281" s="4"/>
       <c r="B281" s="5" t="s">
         <v>754</v>
@@ -11601,7 +11601,7 @@
       <c r="O281" s="5"/>
       <c r="P281" s="6"/>
     </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:16">
       <c r="A282" s="4"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5" t="s">
@@ -11621,7 +11621,7 @@
       <c r="O282" s="5"/>
       <c r="P282" s="6"/>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:16">
       <c r="A283" s="4"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5" t="s">
@@ -11641,7 +11641,7 @@
       <c r="O283" s="5"/>
       <c r="P283" s="6"/>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:16">
       <c r="A284" s="4"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5" t="s">
@@ -11661,7 +11661,7 @@
       <c r="O284" s="5"/>
       <c r="P284" s="6"/>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:16">
       <c r="A285" s="4"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5" t="s">
@@ -11681,7 +11681,7 @@
       <c r="O285" s="5"/>
       <c r="P285" s="6"/>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:16">
       <c r="A286" s="4"/>
       <c r="B286" s="5" t="s">
         <v>687</v>
@@ -11701,7 +11701,7 @@
       <c r="O286" s="5"/>
       <c r="P286" s="6"/>
     </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:16">
       <c r="A287" s="4"/>
       <c r="B287" s="5"/>
       <c r="C287" s="5" t="s">
@@ -11721,7 +11721,7 @@
       <c r="O287" s="5"/>
       <c r="P287" s="6"/>
     </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:16">
       <c r="A288" s="4"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5" t="s">
@@ -11741,7 +11741,7 @@
       <c r="O288" s="5"/>
       <c r="P288" s="6"/>
     </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:16">
       <c r="A289" s="4"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5" t="s">
@@ -11761,7 +11761,7 @@
       <c r="O289" s="5"/>
       <c r="P289" s="6"/>
     </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:16">
       <c r="A290" s="4"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5" t="s">
@@ -11781,7 +11781,7 @@
       <c r="O290" s="5"/>
       <c r="P290" s="6"/>
     </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:16">
       <c r="A291" s="4"/>
       <c r="B291" s="5"/>
       <c r="C291" s="5" t="s">
@@ -11801,7 +11801,7 @@
       <c r="O291" s="5"/>
       <c r="P291" s="6"/>
     </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:16">
       <c r="A292" s="4"/>
       <c r="B292" s="5" t="s">
         <v>693</v>
@@ -11821,7 +11821,7 @@
       <c r="O292" s="5"/>
       <c r="P292" s="6"/>
     </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:16">
       <c r="A293" s="4"/>
       <c r="B293" s="5" t="s">
         <v>694</v>
@@ -11841,7 +11841,7 @@
       <c r="O293" s="5"/>
       <c r="P293" s="6"/>
     </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:16">
       <c r="A294" s="4"/>
       <c r="B294" s="5" t="s">
         <v>695</v>
@@ -11861,7 +11861,7 @@
       <c r="O294" s="5"/>
       <c r="P294" s="6"/>
     </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:16">
       <c r="A295" s="4"/>
       <c r="B295" s="5"/>
       <c r="C295" s="5" t="s">
@@ -11881,7 +11881,7 @@
       <c r="O295" s="5"/>
       <c r="P295" s="6"/>
     </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:16">
       <c r="A296" s="4"/>
       <c r="B296" s="5"/>
       <c r="C296" s="5" t="s">
@@ -11901,7 +11901,7 @@
       <c r="O296" s="5"/>
       <c r="P296" s="6"/>
     </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:16">
       <c r="A297" s="4"/>
       <c r="B297" s="5" t="s">
         <v>698</v>
@@ -11921,7 +11921,7 @@
       <c r="O297" s="5"/>
       <c r="P297" s="6"/>
     </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:16">
       <c r="A298" s="4"/>
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
@@ -11939,7 +11939,7 @@
       <c r="O298" s="5"/>
       <c r="P298" s="6"/>
     </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:16">
       <c r="A299" s="4"/>
       <c r="B299" s="5" t="s">
         <v>699</v>
@@ -11959,7 +11959,7 @@
       <c r="O299" s="5"/>
       <c r="P299" s="6"/>
     </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:16">
       <c r="A300" s="7" t="s">
         <v>625</v>
       </c>
@@ -11979,12 +11979,12 @@
       <c r="O300" s="8"/>
       <c r="P300" s="9"/>
     </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:16">
       <c r="A301" s="23" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:16">
       <c r="A302" s="1" t="s">
         <v>700</v>
       </c>
@@ -12004,7 +12004,7 @@
       <c r="O302" s="2"/>
       <c r="P302" s="3"/>
     </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:16">
       <c r="A303" s="4" t="s">
         <v>627</v>
       </c>
@@ -12024,7 +12024,7 @@
       <c r="O303" s="5"/>
       <c r="P303" s="6"/>
     </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:16">
       <c r="A304" s="4"/>
       <c r="B304" s="5" t="s">
         <v>755</v>
@@ -12044,7 +12044,7 @@
       <c r="O304" s="5"/>
       <c r="P304" s="6"/>
     </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:16">
       <c r="A305" s="4"/>
       <c r="B305" s="5" t="s">
         <v>756</v>
@@ -12064,7 +12064,7 @@
       <c r="O305" s="5"/>
       <c r="P305" s="6"/>
     </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:16">
       <c r="A306" s="4"/>
       <c r="B306" s="5" t="s">
         <v>701</v>
@@ -12084,7 +12084,7 @@
       <c r="O306" s="5"/>
       <c r="P306" s="6"/>
     </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:16">
       <c r="A307" s="4"/>
       <c r="B307" s="5"/>
       <c r="C307" s="5" t="s">
@@ -12104,7 +12104,7 @@
       <c r="O307" s="5"/>
       <c r="P307" s="6"/>
     </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:16">
       <c r="A308" s="4"/>
       <c r="B308" s="5"/>
       <c r="C308" s="5" t="s">
@@ -12124,7 +12124,7 @@
       <c r="O308" s="5"/>
       <c r="P308" s="6"/>
     </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:16">
       <c r="A309" s="4"/>
       <c r="B309" s="5"/>
       <c r="C309" s="5" t="s">
@@ -12144,7 +12144,7 @@
       <c r="O309" s="5"/>
       <c r="P309" s="6"/>
     </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:16">
       <c r="A310" s="4"/>
       <c r="B310" s="5"/>
       <c r="C310" s="5"/>
@@ -12162,7 +12162,7 @@
       <c r="O310" s="5"/>
       <c r="P310" s="6"/>
     </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:16">
       <c r="A311" s="4"/>
       <c r="B311" s="5" t="s">
         <v>705</v>
@@ -12182,7 +12182,7 @@
       <c r="O311" s="5"/>
       <c r="P311" s="6"/>
     </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:16">
       <c r="A312" s="7" t="s">
         <v>625</v>
       </c>
@@ -12202,12 +12202,12 @@
       <c r="O312" s="8"/>
       <c r="P312" s="9"/>
     </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:16">
       <c r="A313" s="23" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:16">
       <c r="A314" s="1" t="s">
         <v>706</v>
       </c>
@@ -12227,7 +12227,7 @@
       <c r="O314" s="2"/>
       <c r="P314" s="3"/>
     </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:16">
       <c r="A315" s="4" t="s">
         <v>707</v>
       </c>
@@ -12247,7 +12247,7 @@
       <c r="O315" s="5"/>
       <c r="P315" s="6"/>
     </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:16">
       <c r="A316" s="4"/>
       <c r="B316" s="5" t="s">
         <v>757</v>
@@ -12267,7 +12267,7 @@
       <c r="O316" s="5"/>
       <c r="P316" s="6"/>
     </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:16">
       <c r="A317" s="4"/>
       <c r="B317" s="5" t="s">
         <v>639</v>
@@ -12287,7 +12287,7 @@
       <c r="O317" s="5"/>
       <c r="P317" s="6"/>
     </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:16">
       <c r="A318" s="4"/>
       <c r="B318" s="5" t="s">
         <v>708</v>
@@ -12307,7 +12307,7 @@
       <c r="O318" s="5"/>
       <c r="P318" s="6"/>
     </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:16">
       <c r="A319" s="4"/>
       <c r="B319" s="5"/>
       <c r="C319" s="5" t="s">
@@ -12327,7 +12327,7 @@
       <c r="O319" s="5"/>
       <c r="P319" s="6"/>
     </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:16">
       <c r="A320" s="4"/>
       <c r="B320" s="5"/>
       <c r="C320" s="5" t="s">
@@ -12347,7 +12347,7 @@
       <c r="O320" s="5"/>
       <c r="P320" s="6"/>
     </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:16">
       <c r="A321" s="4"/>
       <c r="B321" s="5"/>
       <c r="C321" s="5"/>
@@ -12367,7 +12367,7 @@
       <c r="O321" s="5"/>
       <c r="P321" s="6"/>
     </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:16">
       <c r="A322" s="4"/>
       <c r="B322" s="5"/>
       <c r="C322" s="5"/>
@@ -12387,7 +12387,7 @@
       <c r="O322" s="5"/>
       <c r="P322" s="6"/>
     </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:16">
       <c r="A323" s="4"/>
       <c r="B323" s="5"/>
       <c r="C323" s="5" t="s">
@@ -12407,7 +12407,7 @@
       <c r="O323" s="5"/>
       <c r="P323" s="6"/>
     </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:16">
       <c r="A324" s="4"/>
       <c r="B324" s="5"/>
       <c r="C324" s="5"/>
@@ -12425,7 +12425,7 @@
       <c r="O324" s="5"/>
       <c r="P324" s="6"/>
     </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:16">
       <c r="A325" s="4"/>
       <c r="B325" s="5" t="s">
         <v>714</v>
@@ -12445,7 +12445,7 @@
       <c r="O325" s="5"/>
       <c r="P325" s="6"/>
     </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:16">
       <c r="A326" s="7" t="s">
         <v>625</v>
       </c>
@@ -12465,12 +12465,12 @@
       <c r="O326" s="8"/>
       <c r="P326" s="9"/>
     </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:16">
       <c r="A328" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:16">
       <c r="A329" s="26" t="s">
         <v>715</v>
       </c>
@@ -12480,7 +12480,7 @@
       <c r="E329" s="27"/>
       <c r="F329" s="28"/>
     </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:16">
       <c r="A333" s="36" t="s">
         <v>745</v>
       </c>
@@ -12500,12 +12500,12 @@
       <c r="O333" s="36"/>
       <c r="P333" s="36"/>
     </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:16">
       <c r="A334" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:16">
       <c r="A335" s="26" t="s">
         <v>722</v>
       </c>
@@ -12516,12 +12516,12 @@
       <c r="F335" s="27"/>
       <c r="G335" s="28"/>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:15">
       <c r="A338" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:15">
       <c r="A339" s="1" t="s">
         <v>758</v>
       </c>
@@ -12536,7 +12536,7 @@
       <c r="J339" s="2"/>
       <c r="K339" s="3"/>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:15">
       <c r="A340" s="4" t="s">
         <v>723</v>
       </c>
@@ -12551,7 +12551,7 @@
       <c r="J340" s="5"/>
       <c r="K340" s="6"/>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:15">
       <c r="A341" s="4" t="s">
         <v>724</v>
       </c>
@@ -12566,7 +12566,7 @@
       <c r="J341" s="5"/>
       <c r="K341" s="6"/>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:15">
       <c r="A342" s="4" t="s">
         <v>725</v>
       </c>
@@ -12581,7 +12581,7 @@
       <c r="J342" s="5"/>
       <c r="K342" s="6"/>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:15">
       <c r="A343" s="4" t="s">
         <v>726</v>
       </c>
@@ -12596,7 +12596,7 @@
       <c r="J343" s="5"/>
       <c r="K343" s="6"/>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:15">
       <c r="A344" s="7" t="s">
         <v>727</v>
       </c>
@@ -12611,7 +12611,7 @@
       <c r="J344" s="8"/>
       <c r="K344" s="9"/>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:15">
       <c r="A347" s="36" t="s">
         <v>743</v>
       </c>
@@ -12630,12 +12630,12 @@
       <c r="N347" s="36"/>
       <c r="O347" s="36"/>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:15">
       <c r="A348" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:15">
       <c r="A349" s="26" t="s">
         <v>744</v>
       </c>
@@ -12646,7 +12646,7 @@
       <c r="F349" s="27"/>
       <c r="G349" s="28"/>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:15">
       <c r="A351" s="1" t="s">
         <v>759</v>
       </c>
@@ -12661,7 +12661,7 @@
       <c r="J351" s="2"/>
       <c r="K351" s="3"/>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:15">
       <c r="A352" s="4" t="s">
         <v>729</v>
       </c>
@@ -12676,7 +12676,7 @@
       <c r="J352" s="5"/>
       <c r="K352" s="6"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:11">
       <c r="A353" s="4"/>
       <c r="B353" s="5" t="s">
         <v>730</v>
@@ -12691,7 +12691,7 @@
       <c r="J353" s="5"/>
       <c r="K353" s="6"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:11">
       <c r="A354" s="4"/>
       <c r="B354" s="5" t="s">
         <v>731</v>
@@ -12706,7 +12706,7 @@
       <c r="J354" s="5"/>
       <c r="K354" s="6"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:11">
       <c r="A355" s="4"/>
       <c r="B355" s="5" t="s">
         <v>732</v>
@@ -12721,7 +12721,7 @@
       <c r="J355" s="5"/>
       <c r="K355" s="6"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:11">
       <c r="A356" s="4"/>
       <c r="B356" s="5" t="s">
         <v>733</v>
@@ -12736,7 +12736,7 @@
       <c r="J356" s="5"/>
       <c r="K356" s="6"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:11">
       <c r="A357" s="4"/>
       <c r="B357" s="5" t="s">
         <v>734</v>
@@ -12751,7 +12751,7 @@
       <c r="J357" s="5"/>
       <c r="K357" s="6"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:11">
       <c r="A358" s="4"/>
       <c r="B358" s="5" t="s">
         <v>735</v>
@@ -12766,7 +12766,7 @@
       <c r="J358" s="5"/>
       <c r="K358" s="6"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:11">
       <c r="A359" s="4"/>
       <c r="B359" s="5" t="s">
         <v>736</v>
@@ -12781,7 +12781,7 @@
       <c r="J359" s="5"/>
       <c r="K359" s="6"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:11">
       <c r="A360" s="4"/>
       <c r="B360" s="5" t="s">
         <v>737</v>
@@ -12796,7 +12796,7 @@
       <c r="J360" s="5"/>
       <c r="K360" s="6"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:11">
       <c r="A361" s="4"/>
       <c r="B361" s="5" t="s">
         <v>738</v>
@@ -12811,7 +12811,7 @@
       <c r="J361" s="5"/>
       <c r="K361" s="6"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:11">
       <c r="A362" s="4"/>
       <c r="B362" s="5" t="s">
         <v>739</v>
@@ -12826,7 +12826,7 @@
       <c r="J362" s="5"/>
       <c r="K362" s="6"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:11">
       <c r="A363" s="4"/>
       <c r="B363" s="5" t="s">
         <v>740</v>
@@ -12841,7 +12841,7 @@
       <c r="J363" s="5"/>
       <c r="K363" s="6"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:11">
       <c r="A364" s="4"/>
       <c r="B364" s="5" t="s">
         <v>741</v>
@@ -12856,7 +12856,7 @@
       <c r="J364" s="5"/>
       <c r="K364" s="6"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:11">
       <c r="A365" s="7" t="s">
         <v>742</v>
       </c>
@@ -12871,7 +12871,7 @@
       <c r="J365" s="8"/>
       <c r="K365" s="9"/>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:15">
       <c r="A369" s="36" t="s">
         <v>746</v>
       </c>
@@ -12906,14 +12906,14 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>159</v>
       </c>
@@ -12925,7 +12925,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="4" t="s">
         <v>536</v>
       </c>
@@ -12937,7 +12937,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="7" t="s">
         <v>535</v>
       </c>
@@ -12949,7 +12949,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="B8" t="s">
         <v>173</v>
       </c>
@@ -12960,7 +12960,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="B9" s="24" t="s">
         <v>162</v>
       </c>
@@ -12974,7 +12974,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="B10" s="24" t="s">
         <v>166</v>
       </c>
@@ -12988,22 +12988,22 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="C11" s="23" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>447</v>
       </c>
@@ -13014,7 +13014,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="4" t="s">
         <v>448</v>
       </c>
@@ -13025,7 +13025,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="4" t="s">
         <v>449</v>
       </c>
@@ -13036,7 +13036,7 @@
       <c r="F24" s="5"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="19" t="s">
         <v>450</v>
       </c>
@@ -13047,7 +13047,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="4" t="s">
         <v>451</v>
       </c>
@@ -13058,7 +13058,7 @@
       <c r="F26" s="5"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="4" t="s">
         <v>452</v>
       </c>
@@ -13069,7 +13069,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="4" t="s">
         <v>453</v>
       </c>
@@ -13080,7 +13080,7 @@
       <c r="F28" s="5"/>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="4" t="s">
         <v>454</v>
       </c>
@@ -13091,7 +13091,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="4" t="s">
         <v>455</v>
       </c>
@@ -13102,7 +13102,7 @@
       <c r="F30" s="5"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="4" t="s">
         <v>456</v>
       </c>
@@ -13113,7 +13113,7 @@
       <c r="F31" s="5"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="4" t="s">
         <v>457</v>
       </c>
@@ -13124,7 +13124,7 @@
       <c r="F32" s="5"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="7" t="s">
         <v>458</v>
       </c>
@@ -13150,17 +13150,17 @@
       <selection activeCell="A67" sqref="A67:XFD67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -13181,7 +13181,7 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -13200,7 +13200,7 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="6"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -13221,7 +13221,7 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="6"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
@@ -13244,7 +13244,7 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="6"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -13263,7 +13263,7 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="6"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -13282,7 +13282,7 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="6"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
@@ -13303,7 +13303,7 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="6"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -13322,7 +13322,7 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="6"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17">
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
@@ -13343,7 +13343,7 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="6"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17">
       <c r="A12" s="7" t="s">
         <v>21</v>
       </c>
@@ -13366,7 +13366,7 @@
       <c r="P12" s="8"/>
       <c r="Q12" s="9"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -13385,7 +13385,7 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17">
       <c r="A14" s="29"/>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
@@ -13404,12 +13404,12 @@
       <c r="P14" s="29"/>
       <c r="Q14" s="29"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17">
       <c r="A15" s="23" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
         <v>156</v>
       </c>
@@ -13419,7 +13419,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" s="7" t="s">
         <v>157</v>
       </c>
@@ -13429,7 +13429,7 @@
       <c r="E17" s="8"/>
       <c r="F17" s="9"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
         <v>460</v>
       </c>
@@ -13440,7 +13440,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" s="7" t="s">
         <v>161</v>
       </c>
@@ -13451,7 +13451,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="9"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="A23" s="22"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -13464,12 +13464,12 @@
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
         <v>159</v>
       </c>
@@ -13481,7 +13481,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="A26" s="4" t="s">
         <v>160</v>
       </c>
@@ -13493,7 +13493,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="A27" s="7" t="s">
         <v>161</v>
       </c>
@@ -13505,7 +13505,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="B29" t="s">
         <v>173</v>
       </c>
@@ -13516,7 +13516,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="B30" s="24" t="s">
         <v>162</v>
       </c>
@@ -13530,7 +13530,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11">
       <c r="B31" s="24" t="s">
         <v>166</v>
       </c>
@@ -13544,12 +13544,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11">
       <c r="C32" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11">
       <c r="A34" s="22"/>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
@@ -13562,7 +13562,7 @@
       <c r="J34" s="22"/>
       <c r="K34" s="22"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
         <v>462</v>
       </c>
@@ -13575,7 +13575,7 @@
       <c r="H36" s="2"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11">
       <c r="A37" s="4" t="s">
         <v>463</v>
       </c>
@@ -13588,7 +13588,7 @@
       <c r="H37" s="5"/>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11">
       <c r="A38" s="7" t="s">
         <v>464</v>
       </c>
@@ -13601,7 +13601,7 @@
       <c r="H38" s="8"/>
       <c r="I38" s="9"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11">
       <c r="A42" s="22"/>
       <c r="B42" s="22"/>
       <c r="C42" s="22"/>
@@ -13614,20 +13614,20 @@
       <c r="J42" s="22"/>
       <c r="K42" s="22"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11">
       <c r="A43" s="23"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11">
       <c r="A44" s="21" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11">
       <c r="A45" s="21" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11">
       <c r="A46" s="30" t="s">
         <v>541</v>
       </c>
@@ -13638,7 +13638,7 @@
       <c r="F46" s="2"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11">
       <c r="A47" s="31" t="s">
         <v>540</v>
       </c>
@@ -13649,7 +13649,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="9"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11">
       <c r="A49" s="22"/>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
@@ -13662,7 +13662,7 @@
       <c r="J49" s="22"/>
       <c r="K49" s="22"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11">
       <c r="A50" s="21" t="s">
         <v>552</v>
       </c>
@@ -13670,7 +13670,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
         <v>543</v>
       </c>
@@ -13681,7 +13681,7 @@
       <c r="F51" s="2"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11">
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -13690,7 +13690,7 @@
       <c r="F52" s="5"/>
       <c r="G52" s="6"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11">
       <c r="A53" s="4" t="s">
         <v>544</v>
       </c>
@@ -13701,7 +13701,7 @@
       <c r="F53" s="5"/>
       <c r="G53" s="6"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -13710,7 +13710,7 @@
       <c r="F54" s="5"/>
       <c r="G54" s="6"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11">
       <c r="A55" s="4" t="s">
         <v>545</v>
       </c>
@@ -13721,7 +13721,7 @@
       <c r="F55" s="5"/>
       <c r="G55" s="6"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11">
       <c r="A56" s="4"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -13730,7 +13730,7 @@
       <c r="F56" s="5"/>
       <c r="G56" s="6"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11">
       <c r="A57" s="4" t="s">
         <v>546</v>
       </c>
@@ -13741,7 +13741,7 @@
       <c r="F57" s="5"/>
       <c r="G57" s="6"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -13750,7 +13750,7 @@
       <c r="F58" s="5"/>
       <c r="G58" s="6"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11">
       <c r="A59" s="4" t="s">
         <v>547</v>
       </c>
@@ -13761,7 +13761,7 @@
       <c r="F59" s="5"/>
       <c r="G59" s="6"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -13770,7 +13770,7 @@
       <c r="F60" s="5"/>
       <c r="G60" s="6"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11">
       <c r="A61" s="4" t="s">
         <v>548</v>
       </c>
@@ -13781,7 +13781,7 @@
       <c r="F61" s="5"/>
       <c r="G61" s="6"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11">
       <c r="A62" s="4"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -13790,7 +13790,7 @@
       <c r="F62" s="5"/>
       <c r="G62" s="6"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11">
       <c r="A63" s="4" t="s">
         <v>549</v>
       </c>
@@ -13801,7 +13801,7 @@
       <c r="F63" s="5"/>
       <c r="G63" s="6"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11">
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -13810,7 +13810,7 @@
       <c r="F64" s="5"/>
       <c r="G64" s="6"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65" s="7" t="s">
         <v>550</v>
       </c>
@@ -13821,7 +13821,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="9"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>551</v>
       </c>
@@ -13841,14 +13841,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>174</v>
       </c>
@@ -13866,7 +13866,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="4" t="s">
         <v>39</v>
       </c>
@@ -13884,7 +13884,7 @@
       <c r="M4" s="5"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="4" t="s">
         <v>175</v>
       </c>
@@ -13902,7 +13902,7 @@
       <c r="M5" s="5"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" s="4" t="s">
         <v>176</v>
       </c>
@@ -13920,7 +13920,7 @@
       <c r="M6" s="5"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7" s="4" t="s">
         <v>177</v>
       </c>
@@ -13938,7 +13938,7 @@
       <c r="M7" s="5"/>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8" s="4" t="s">
         <v>178</v>
       </c>
@@ -13956,7 +13956,7 @@
       <c r="M8" s="5"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9" s="4" t="s">
         <v>179</v>
       </c>
@@ -13974,7 +13974,7 @@
       <c r="M9" s="5"/>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10" s="4" t="s">
         <v>180</v>
       </c>
@@ -13992,7 +13992,7 @@
       <c r="M10" s="5"/>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11" s="4" t="s">
         <v>181</v>
       </c>
@@ -14010,7 +14010,7 @@
       <c r="M11" s="5"/>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12" s="4" t="s">
         <v>182</v>
       </c>
@@ -14028,7 +14028,7 @@
       <c r="M12" s="5"/>
       <c r="N12" s="6"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13" s="4" t="s">
         <v>183</v>
       </c>
@@ -14046,7 +14046,7 @@
       <c r="M13" s="5"/>
       <c r="N13" s="6"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14" s="4" t="s">
         <v>184</v>
       </c>
@@ -14064,7 +14064,7 @@
       <c r="M14" s="5"/>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15" s="4" t="s">
         <v>185</v>
       </c>
@@ -14082,7 +14082,7 @@
       <c r="M15" s="5"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="A16" s="4" t="s">
         <v>186</v>
       </c>
@@ -14100,7 +14100,7 @@
       <c r="M16" s="5"/>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14">
       <c r="A17" s="4" t="s">
         <v>187</v>
       </c>
@@ -14118,7 +14118,7 @@
       <c r="M17" s="5"/>
       <c r="N17" s="6"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14">
       <c r="A18" s="4" t="s">
         <v>188</v>
       </c>
@@ -14136,7 +14136,7 @@
       <c r="M18" s="5"/>
       <c r="N18" s="6"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14">
       <c r="A19" s="4" t="s">
         <v>189</v>
       </c>
@@ -14154,7 +14154,7 @@
       <c r="M19" s="5"/>
       <c r="N19" s="6"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14">
       <c r="A20" s="4" t="s">
         <v>190</v>
       </c>
@@ -14172,7 +14172,7 @@
       <c r="M20" s="5"/>
       <c r="N20" s="6"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14">
       <c r="A21" s="4" t="s">
         <v>191</v>
       </c>
@@ -14190,7 +14190,7 @@
       <c r="M21" s="5"/>
       <c r="N21" s="6"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14">
       <c r="A22" s="4" t="s">
         <v>192</v>
       </c>
@@ -14208,7 +14208,7 @@
       <c r="M22" s="5"/>
       <c r="N22" s="6"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14">
       <c r="A23" s="4" t="s">
         <v>193</v>
       </c>
@@ -14226,7 +14226,7 @@
       <c r="M23" s="5"/>
       <c r="N23" s="6"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14">
       <c r="A24" s="4" t="s">
         <v>194</v>
       </c>
@@ -14244,7 +14244,7 @@
       <c r="M24" s="5"/>
       <c r="N24" s="6"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14">
       <c r="A25" s="4" t="s">
         <v>195</v>
       </c>
@@ -14262,7 +14262,7 @@
       <c r="M25" s="5"/>
       <c r="N25" s="6"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14">
       <c r="A26" s="4" t="s">
         <v>196</v>
       </c>
@@ -14280,7 +14280,7 @@
       <c r="M26" s="5"/>
       <c r="N26" s="6"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14">
       <c r="A27" s="4" t="s">
         <v>197</v>
       </c>
@@ -14298,7 +14298,7 @@
       <c r="M27" s="5"/>
       <c r="N27" s="6"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14">
       <c r="A28" s="4" t="s">
         <v>198</v>
       </c>
@@ -14316,7 +14316,7 @@
       <c r="M28" s="5"/>
       <c r="N28" s="6"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14">
       <c r="A29" s="4" t="s">
         <v>199</v>
       </c>
@@ -14334,7 +14334,7 @@
       <c r="M29" s="5"/>
       <c r="N29" s="6"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14">
       <c r="A30" s="4" t="s">
         <v>200</v>
       </c>
@@ -14352,7 +14352,7 @@
       <c r="M30" s="5"/>
       <c r="N30" s="6"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14">
       <c r="A31" s="4" t="s">
         <v>201</v>
       </c>
@@ -14370,7 +14370,7 @@
       <c r="M31" s="5"/>
       <c r="N31" s="6"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14">
       <c r="A32" s="4" t="s">
         <v>202</v>
       </c>
@@ -14388,7 +14388,7 @@
       <c r="M32" s="5"/>
       <c r="N32" s="6"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14">
       <c r="A33" s="4" t="s">
         <v>203</v>
       </c>
@@ -14406,7 +14406,7 @@
       <c r="M33" s="5"/>
       <c r="N33" s="6"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14">
       <c r="A34" s="4" t="s">
         <v>204</v>
       </c>
@@ -14424,7 +14424,7 @@
       <c r="M34" s="5"/>
       <c r="N34" s="6"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14">
       <c r="A35" s="4" t="s">
         <v>205</v>
       </c>
@@ -14442,7 +14442,7 @@
       <c r="M35" s="5"/>
       <c r="N35" s="6"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14">
       <c r="A36" s="4" t="s">
         <v>206</v>
       </c>
@@ -14460,7 +14460,7 @@
       <c r="M36" s="5"/>
       <c r="N36" s="6"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14">
       <c r="A37" s="4" t="s">
         <v>207</v>
       </c>
@@ -14478,7 +14478,7 @@
       <c r="M37" s="5"/>
       <c r="N37" s="6"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14">
       <c r="A38" s="4" t="s">
         <v>208</v>
       </c>
@@ -14496,7 +14496,7 @@
       <c r="M38" s="5"/>
       <c r="N38" s="6"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14">
       <c r="A39" s="4" t="s">
         <v>209</v>
       </c>
@@ -14514,7 +14514,7 @@
       <c r="M39" s="5"/>
       <c r="N39" s="6"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14">
       <c r="A40" s="4" t="s">
         <v>209</v>
       </c>
@@ -14532,7 +14532,7 @@
       <c r="M40" s="5"/>
       <c r="N40" s="6"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14">
       <c r="A41" s="4" t="s">
         <v>210</v>
       </c>
@@ -14550,7 +14550,7 @@
       <c r="M41" s="5"/>
       <c r="N41" s="6"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14">
       <c r="A42" s="4" t="s">
         <v>211</v>
       </c>
@@ -14568,7 +14568,7 @@
       <c r="M42" s="5"/>
       <c r="N42" s="6"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14">
       <c r="A43" s="4" t="s">
         <v>212</v>
       </c>
@@ -14586,7 +14586,7 @@
       <c r="M43" s="5"/>
       <c r="N43" s="6"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14">
       <c r="A44" s="4" t="s">
         <v>213</v>
       </c>
@@ -14604,7 +14604,7 @@
       <c r="M44" s="5"/>
       <c r="N44" s="6"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14">
       <c r="A45" s="4" t="s">
         <v>214</v>
       </c>
@@ -14622,7 +14622,7 @@
       <c r="M45" s="5"/>
       <c r="N45" s="6"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14">
       <c r="A46" s="4" t="s">
         <v>215</v>
       </c>
@@ -14640,7 +14640,7 @@
       <c r="M46" s="5"/>
       <c r="N46" s="6"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14">
       <c r="A47" s="4" t="s">
         <v>216</v>
       </c>
@@ -14658,7 +14658,7 @@
       <c r="M47" s="5"/>
       <c r="N47" s="6"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14">
       <c r="A48" s="4" t="s">
         <v>217</v>
       </c>
@@ -14676,7 +14676,7 @@
       <c r="M48" s="5"/>
       <c r="N48" s="6"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14">
       <c r="A49" s="4" t="s">
         <v>218</v>
       </c>
@@ -14694,7 +14694,7 @@
       <c r="M49" s="5"/>
       <c r="N49" s="6"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14">
       <c r="A50" s="4" t="s">
         <v>219</v>
       </c>
@@ -14712,7 +14712,7 @@
       <c r="M50" s="5"/>
       <c r="N50" s="6"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14">
       <c r="A51" s="4" t="s">
         <v>220</v>
       </c>
@@ -14730,7 +14730,7 @@
       <c r="M51" s="5"/>
       <c r="N51" s="6"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14">
       <c r="A52" s="4" t="s">
         <v>221</v>
       </c>
@@ -14748,7 +14748,7 @@
       <c r="M52" s="5"/>
       <c r="N52" s="6"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14">
       <c r="A53" s="4" t="s">
         <v>222</v>
       </c>
@@ -14766,7 +14766,7 @@
       <c r="M53" s="5"/>
       <c r="N53" s="6"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14">
       <c r="A54" s="4" t="s">
         <v>223</v>
       </c>
@@ -14784,7 +14784,7 @@
       <c r="M54" s="5"/>
       <c r="N54" s="6"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14">
       <c r="A55" s="4" t="s">
         <v>224</v>
       </c>
@@ -14802,7 +14802,7 @@
       <c r="M55" s="5"/>
       <c r="N55" s="6"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14">
       <c r="A56" s="4" t="s">
         <v>225</v>
       </c>
@@ -14820,7 +14820,7 @@
       <c r="M56" s="5"/>
       <c r="N56" s="6"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14">
       <c r="A57" s="4" t="s">
         <v>226</v>
       </c>
@@ -14838,7 +14838,7 @@
       <c r="M57" s="5"/>
       <c r="N57" s="6"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14">
       <c r="A58" s="4" t="s">
         <v>227</v>
       </c>
@@ -14856,7 +14856,7 @@
       <c r="M58" s="5"/>
       <c r="N58" s="6"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14">
       <c r="A59" s="4" t="s">
         <v>228</v>
       </c>
@@ -14874,7 +14874,7 @@
       <c r="M59" s="5"/>
       <c r="N59" s="6"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14">
       <c r="A60" s="4" t="s">
         <v>229</v>
       </c>
@@ -14892,7 +14892,7 @@
       <c r="M60" s="5"/>
       <c r="N60" s="6"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14">
       <c r="A61" s="4" t="s">
         <v>230</v>
       </c>
@@ -14910,7 +14910,7 @@
       <c r="M61" s="5"/>
       <c r="N61" s="6"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14">
       <c r="A62" s="4" t="s">
         <v>231</v>
       </c>
@@ -14928,7 +14928,7 @@
       <c r="M62" s="5"/>
       <c r="N62" s="6"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14">
       <c r="A63" s="4" t="s">
         <v>232</v>
       </c>
@@ -14946,7 +14946,7 @@
       <c r="M63" s="5"/>
       <c r="N63" s="6"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14">
       <c r="A64" s="4" t="s">
         <v>233</v>
       </c>
@@ -14964,7 +14964,7 @@
       <c r="M64" s="5"/>
       <c r="N64" s="6"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14">
       <c r="A65" s="4" t="s">
         <v>234</v>
       </c>
@@ -14982,7 +14982,7 @@
       <c r="M65" s="5"/>
       <c r="N65" s="6"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14">
       <c r="A66" s="4" t="s">
         <v>235</v>
       </c>
@@ -15000,7 +15000,7 @@
       <c r="M66" s="5"/>
       <c r="N66" s="6"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14">
       <c r="A67" s="4"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -15016,7 +15016,7 @@
       <c r="M67" s="5"/>
       <c r="N67" s="6"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14">
       <c r="A68" s="4"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -15032,7 +15032,7 @@
       <c r="M68" s="5"/>
       <c r="N68" s="6"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14">
       <c r="A69" s="4"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -15048,7 +15048,7 @@
       <c r="M69" s="5"/>
       <c r="N69" s="6"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14">
       <c r="A70" s="4" t="s">
         <v>236</v>
       </c>
@@ -15066,7 +15066,7 @@
       <c r="M70" s="5"/>
       <c r="N70" s="6"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14">
       <c r="A71" s="4" t="s">
         <v>237</v>
       </c>
@@ -15084,7 +15084,7 @@
       <c r="M71" s="5"/>
       <c r="N71" s="6"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14">
       <c r="A72" s="4" t="s">
         <v>238</v>
       </c>
@@ -15102,7 +15102,7 @@
       <c r="M72" s="5"/>
       <c r="N72" s="6"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14">
       <c r="A73" s="4" t="s">
         <v>239</v>
       </c>
@@ -15120,7 +15120,7 @@
       <c r="M73" s="5"/>
       <c r="N73" s="6"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14">
       <c r="A74" s="4" t="s">
         <v>240</v>
       </c>
@@ -15138,7 +15138,7 @@
       <c r="M74" s="5"/>
       <c r="N74" s="6"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14">
       <c r="A75" s="4" t="s">
         <v>241</v>
       </c>
@@ -15156,7 +15156,7 @@
       <c r="M75" s="5"/>
       <c r="N75" s="6"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14">
       <c r="A76" s="4" t="s">
         <v>242</v>
       </c>
@@ -15174,7 +15174,7 @@
       <c r="M76" s="5"/>
       <c r="N76" s="6"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14">
       <c r="A77" s="4" t="s">
         <v>243</v>
       </c>
@@ -15192,7 +15192,7 @@
       <c r="M77" s="5"/>
       <c r="N77" s="6"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14">
       <c r="A78" s="4" t="s">
         <v>244</v>
       </c>
@@ -15210,7 +15210,7 @@
       <c r="M78" s="5"/>
       <c r="N78" s="6"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14">
       <c r="A79" s="4" t="s">
         <v>245</v>
       </c>
@@ -15228,7 +15228,7 @@
       <c r="M79" s="5"/>
       <c r="N79" s="6"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14">
       <c r="A80" s="4" t="s">
         <v>246</v>
       </c>
@@ -15246,7 +15246,7 @@
       <c r="M80" s="5"/>
       <c r="N80" s="6"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14">
       <c r="A81" s="4" t="s">
         <v>247</v>
       </c>
@@ -15264,7 +15264,7 @@
       <c r="M81" s="5"/>
       <c r="N81" s="6"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14">
       <c r="A82" s="4" t="s">
         <v>248</v>
       </c>
@@ -15282,7 +15282,7 @@
       <c r="M82" s="5"/>
       <c r="N82" s="6"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14">
       <c r="A83" s="4" t="s">
         <v>249</v>
       </c>
@@ -15300,7 +15300,7 @@
       <c r="M83" s="5"/>
       <c r="N83" s="6"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14">
       <c r="A84" s="4" t="s">
         <v>250</v>
       </c>
@@ -15318,7 +15318,7 @@
       <c r="M84" s="5"/>
       <c r="N84" s="6"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14">
       <c r="A85" s="4" t="s">
         <v>251</v>
       </c>
@@ -15336,7 +15336,7 @@
       <c r="M85" s="5"/>
       <c r="N85" s="6"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14">
       <c r="A86" s="4" t="s">
         <v>252</v>
       </c>
@@ -15354,7 +15354,7 @@
       <c r="M86" s="5"/>
       <c r="N86" s="6"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14">
       <c r="A87" s="4" t="s">
         <v>253</v>
       </c>
@@ -15372,7 +15372,7 @@
       <c r="M87" s="5"/>
       <c r="N87" s="6"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14">
       <c r="A88" s="4" t="s">
         <v>254</v>
       </c>
@@ -15390,7 +15390,7 @@
       <c r="M88" s="5"/>
       <c r="N88" s="6"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14">
       <c r="A89" s="4" t="s">
         <v>255</v>
       </c>
@@ -15408,7 +15408,7 @@
       <c r="M89" s="5"/>
       <c r="N89" s="6"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14">
       <c r="A90" s="4" t="s">
         <v>256</v>
       </c>
@@ -15426,7 +15426,7 @@
       <c r="M90" s="5"/>
       <c r="N90" s="6"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14">
       <c r="A91" s="4" t="s">
         <v>257</v>
       </c>
@@ -15444,7 +15444,7 @@
       <c r="M91" s="5"/>
       <c r="N91" s="6"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14">
       <c r="A92" s="4" t="s">
         <v>258</v>
       </c>
@@ -15462,7 +15462,7 @@
       <c r="M92" s="5"/>
       <c r="N92" s="6"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14">
       <c r="A93" s="4" t="s">
         <v>259</v>
       </c>
@@ -15480,7 +15480,7 @@
       <c r="M93" s="5"/>
       <c r="N93" s="6"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14">
       <c r="A94" s="4" t="s">
         <v>260</v>
       </c>
@@ -15498,7 +15498,7 @@
       <c r="M94" s="5"/>
       <c r="N94" s="6"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14">
       <c r="A95" s="4" t="s">
         <v>261</v>
       </c>
@@ -15516,7 +15516,7 @@
       <c r="M95" s="5"/>
       <c r="N95" s="6"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14">
       <c r="A96" s="4" t="s">
         <v>262</v>
       </c>
@@ -15534,7 +15534,7 @@
       <c r="M96" s="5"/>
       <c r="N96" s="6"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14">
       <c r="A97" s="4" t="s">
         <v>263</v>
       </c>
@@ -15552,7 +15552,7 @@
       <c r="M97" s="5"/>
       <c r="N97" s="6"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14">
       <c r="A98" s="4" t="s">
         <v>264</v>
       </c>
@@ -15570,7 +15570,7 @@
       <c r="M98" s="5"/>
       <c r="N98" s="6"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14">
       <c r="A99" s="4" t="s">
         <v>265</v>
       </c>
@@ -15588,7 +15588,7 @@
       <c r="M99" s="5"/>
       <c r="N99" s="6"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14">
       <c r="A100" s="4" t="s">
         <v>266</v>
       </c>
@@ -15606,7 +15606,7 @@
       <c r="M100" s="5"/>
       <c r="N100" s="6"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14">
       <c r="A101" s="4" t="s">
         <v>267</v>
       </c>
@@ -15624,7 +15624,7 @@
       <c r="M101" s="5"/>
       <c r="N101" s="6"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14">
       <c r="A102" s="4" t="s">
         <v>268</v>
       </c>
@@ -15642,7 +15642,7 @@
       <c r="M102" s="5"/>
       <c r="N102" s="6"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14">
       <c r="A103" s="4" t="s">
         <v>269</v>
       </c>
@@ -15660,7 +15660,7 @@
       <c r="M103" s="5"/>
       <c r="N103" s="6"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14">
       <c r="A104" s="4" t="s">
         <v>270</v>
       </c>
@@ -15678,7 +15678,7 @@
       <c r="M104" s="5"/>
       <c r="N104" s="6"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14">
       <c r="A105" s="4" t="s">
         <v>209</v>
       </c>
@@ -15696,7 +15696,7 @@
       <c r="M105" s="5"/>
       <c r="N105" s="6"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14">
       <c r="A106" s="4" t="s">
         <v>271</v>
       </c>
@@ -15714,7 +15714,7 @@
       <c r="M106" s="5"/>
       <c r="N106" s="6"/>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14">
       <c r="A107" s="4" t="s">
         <v>272</v>
       </c>
@@ -15732,7 +15732,7 @@
       <c r="M107" s="5"/>
       <c r="N107" s="6"/>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14">
       <c r="A108" s="4" t="s">
         <v>273</v>
       </c>
@@ -15750,7 +15750,7 @@
       <c r="M108" s="5"/>
       <c r="N108" s="6"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14">
       <c r="A109" s="4" t="s">
         <v>274</v>
       </c>
@@ -15768,7 +15768,7 @@
       <c r="M109" s="5"/>
       <c r="N109" s="6"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14">
       <c r="A110" s="4" t="s">
         <v>275</v>
       </c>
@@ -15786,7 +15786,7 @@
       <c r="M110" s="5"/>
       <c r="N110" s="6"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14">
       <c r="A111" s="4" t="s">
         <v>276</v>
       </c>
@@ -15804,7 +15804,7 @@
       <c r="M111" s="5"/>
       <c r="N111" s="6"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14">
       <c r="A112" s="4" t="s">
         <v>277</v>
       </c>
@@ -15822,7 +15822,7 @@
       <c r="M112" s="5"/>
       <c r="N112" s="6"/>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14">
       <c r="A113" s="4" t="s">
         <v>278</v>
       </c>
@@ -15840,7 +15840,7 @@
       <c r="M113" s="5"/>
       <c r="N113" s="6"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14">
       <c r="A114" s="4" t="s">
         <v>279</v>
       </c>
@@ -15858,7 +15858,7 @@
       <c r="M114" s="5"/>
       <c r="N114" s="6"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14">
       <c r="A115" s="4" t="s">
         <v>280</v>
       </c>
@@ -15876,7 +15876,7 @@
       <c r="M115" s="5"/>
       <c r="N115" s="6"/>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14">
       <c r="A116" s="4" t="s">
         <v>281</v>
       </c>
@@ -15894,7 +15894,7 @@
       <c r="M116" s="5"/>
       <c r="N116" s="6"/>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14">
       <c r="A117" s="4" t="s">
         <v>282</v>
       </c>
@@ -15912,7 +15912,7 @@
       <c r="M117" s="5"/>
       <c r="N117" s="6"/>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14">
       <c r="A118" s="4" t="s">
         <v>283</v>
       </c>
@@ -15930,7 +15930,7 @@
       <c r="M118" s="5"/>
       <c r="N118" s="6"/>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14">
       <c r="A119" s="4" t="s">
         <v>284</v>
       </c>
@@ -15948,7 +15948,7 @@
       <c r="M119" s="5"/>
       <c r="N119" s="6"/>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14">
       <c r="A120" s="4" t="s">
         <v>285</v>
       </c>
@@ -15966,7 +15966,7 @@
       <c r="M120" s="5"/>
       <c r="N120" s="6"/>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14">
       <c r="A121" s="4" t="s">
         <v>286</v>
       </c>
@@ -15984,7 +15984,7 @@
       <c r="M121" s="5"/>
       <c r="N121" s="6"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14">
       <c r="A122" s="4" t="s">
         <v>287</v>
       </c>
@@ -16002,7 +16002,7 @@
       <c r="M122" s="5"/>
       <c r="N122" s="6"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14">
       <c r="A123" s="4" t="s">
         <v>288</v>
       </c>
@@ -16020,7 +16020,7 @@
       <c r="M123" s="5"/>
       <c r="N123" s="6"/>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14">
       <c r="A124" s="4" t="s">
         <v>289</v>
       </c>
@@ -16038,7 +16038,7 @@
       <c r="M124" s="5"/>
       <c r="N124" s="6"/>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14">
       <c r="A125" s="4" t="s">
         <v>290</v>
       </c>
@@ -16056,7 +16056,7 @@
       <c r="M125" s="5"/>
       <c r="N125" s="6"/>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14">
       <c r="A126" s="4" t="s">
         <v>291</v>
       </c>
@@ -16074,7 +16074,7 @@
       <c r="M126" s="5"/>
       <c r="N126" s="6"/>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14">
       <c r="A127" s="4" t="s">
         <v>292</v>
       </c>
@@ -16092,7 +16092,7 @@
       <c r="M127" s="5"/>
       <c r="N127" s="6"/>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14">
       <c r="A128" s="4" t="s">
         <v>293</v>
       </c>
@@ -16110,7 +16110,7 @@
       <c r="M128" s="5"/>
       <c r="N128" s="6"/>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14">
       <c r="A129" s="4" t="s">
         <v>294</v>
       </c>
@@ -16128,7 +16128,7 @@
       <c r="M129" s="5"/>
       <c r="N129" s="6"/>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14">
       <c r="A130" s="4" t="s">
         <v>295</v>
       </c>
@@ -16146,7 +16146,7 @@
       <c r="M130" s="5"/>
       <c r="N130" s="6"/>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14">
       <c r="A131" s="4" t="s">
         <v>296</v>
       </c>
@@ -16164,7 +16164,7 @@
       <c r="M131" s="5"/>
       <c r="N131" s="6"/>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:14">
       <c r="A132" s="4" t="s">
         <v>297</v>
       </c>
@@ -16182,7 +16182,7 @@
       <c r="M132" s="5"/>
       <c r="N132" s="6"/>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:14">
       <c r="A133" s="4" t="s">
         <v>298</v>
       </c>
@@ -16200,7 +16200,7 @@
       <c r="M133" s="5"/>
       <c r="N133" s="6"/>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:14">
       <c r="A134" s="4" t="s">
         <v>299</v>
       </c>
@@ -16218,7 +16218,7 @@
       <c r="M134" s="5"/>
       <c r="N134" s="6"/>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14">
       <c r="A135" s="4" t="s">
         <v>300</v>
       </c>
@@ -16236,7 +16236,7 @@
       <c r="M135" s="5"/>
       <c r="N135" s="6"/>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14">
       <c r="A136" s="4" t="s">
         <v>301</v>
       </c>
@@ -16254,7 +16254,7 @@
       <c r="M136" s="5"/>
       <c r="N136" s="6"/>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14">
       <c r="A137" s="4" t="s">
         <v>302</v>
       </c>
@@ -16272,7 +16272,7 @@
       <c r="M137" s="5"/>
       <c r="N137" s="6"/>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14">
       <c r="A138" s="4" t="s">
         <v>303</v>
       </c>
@@ -16290,7 +16290,7 @@
       <c r="M138" s="5"/>
       <c r="N138" s="6"/>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:14">
       <c r="A139" s="4" t="s">
         <v>304</v>
       </c>
@@ -16308,7 +16308,7 @@
       <c r="M139" s="5"/>
       <c r="N139" s="6"/>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14">
       <c r="A140" s="4" t="s">
         <v>305</v>
       </c>
@@ -16326,7 +16326,7 @@
       <c r="M140" s="5"/>
       <c r="N140" s="6"/>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:14">
       <c r="A141" s="4" t="s">
         <v>306</v>
       </c>
@@ -16344,7 +16344,7 @@
       <c r="M141" s="5"/>
       <c r="N141" s="6"/>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:14">
       <c r="A142" s="4" t="s">
         <v>307</v>
       </c>
@@ -16362,7 +16362,7 @@
       <c r="M142" s="5"/>
       <c r="N142" s="6"/>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:14">
       <c r="A143" s="4" t="s">
         <v>308</v>
       </c>
@@ -16380,7 +16380,7 @@
       <c r="M143" s="5"/>
       <c r="N143" s="6"/>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:14">
       <c r="A144" s="4" t="s">
         <v>309</v>
       </c>
@@ -16398,7 +16398,7 @@
       <c r="M144" s="5"/>
       <c r="N144" s="6"/>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:14">
       <c r="A145" s="4" t="s">
         <v>310</v>
       </c>
@@ -16416,7 +16416,7 @@
       <c r="M145" s="5"/>
       <c r="N145" s="6"/>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:14">
       <c r="A146" s="4" t="s">
         <v>311</v>
       </c>
@@ -16434,7 +16434,7 @@
       <c r="M146" s="5"/>
       <c r="N146" s="6"/>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:14">
       <c r="A147" s="4" t="s">
         <v>312</v>
       </c>
@@ -16452,7 +16452,7 @@
       <c r="M147" s="5"/>
       <c r="N147" s="6"/>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:14">
       <c r="A148" s="4" t="s">
         <v>313</v>
       </c>
@@ -16470,7 +16470,7 @@
       <c r="M148" s="5"/>
       <c r="N148" s="6"/>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:14">
       <c r="A149" s="4" t="s">
         <v>314</v>
       </c>
@@ -16488,7 +16488,7 @@
       <c r="M149" s="5"/>
       <c r="N149" s="6"/>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:14">
       <c r="A150" s="4" t="s">
         <v>315</v>
       </c>
@@ -16506,7 +16506,7 @@
       <c r="M150" s="5"/>
       <c r="N150" s="6"/>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:14">
       <c r="A151" s="4" t="s">
         <v>316</v>
       </c>
@@ -16524,7 +16524,7 @@
       <c r="M151" s="5"/>
       <c r="N151" s="6"/>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:14">
       <c r="A152" s="4" t="s">
         <v>317</v>
       </c>
@@ -16542,7 +16542,7 @@
       <c r="M152" s="5"/>
       <c r="N152" s="6"/>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:14">
       <c r="A153" s="4" t="s">
         <v>318</v>
       </c>
@@ -16560,7 +16560,7 @@
       <c r="M153" s="5"/>
       <c r="N153" s="6"/>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:14">
       <c r="A154" s="4" t="s">
         <v>319</v>
       </c>
@@ -16578,7 +16578,7 @@
       <c r="M154" s="5"/>
       <c r="N154" s="6"/>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:14">
       <c r="A155" s="4" t="s">
         <v>320</v>
       </c>
@@ -16596,7 +16596,7 @@
       <c r="M155" s="5"/>
       <c r="N155" s="6"/>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:14">
       <c r="A156" s="4" t="s">
         <v>321</v>
       </c>
@@ -16614,7 +16614,7 @@
       <c r="M156" s="5"/>
       <c r="N156" s="6"/>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:14">
       <c r="A157" s="4" t="s">
         <v>322</v>
       </c>
@@ -16632,7 +16632,7 @@
       <c r="M157" s="5"/>
       <c r="N157" s="6"/>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:14">
       <c r="A158" s="4" t="s">
         <v>323</v>
       </c>
@@ -16650,7 +16650,7 @@
       <c r="M158" s="5"/>
       <c r="N158" s="6"/>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:14">
       <c r="A159" s="4" t="s">
         <v>324</v>
       </c>
@@ -16668,7 +16668,7 @@
       <c r="M159" s="5"/>
       <c r="N159" s="6"/>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:14">
       <c r="A160" s="4" t="s">
         <v>325</v>
       </c>
@@ -16686,7 +16686,7 @@
       <c r="M160" s="5"/>
       <c r="N160" s="6"/>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:14">
       <c r="A161" s="4" t="s">
         <v>326</v>
       </c>
@@ -16704,7 +16704,7 @@
       <c r="M161" s="5"/>
       <c r="N161" s="6"/>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:14">
       <c r="A162" s="4" t="s">
         <v>327</v>
       </c>
@@ -16722,7 +16722,7 @@
       <c r="M162" s="5"/>
       <c r="N162" s="6"/>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:14">
       <c r="A163" s="4" t="s">
         <v>328</v>
       </c>
@@ -16740,7 +16740,7 @@
       <c r="M163" s="5"/>
       <c r="N163" s="6"/>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:14">
       <c r="A164" s="4" t="s">
         <v>329</v>
       </c>
@@ -16758,7 +16758,7 @@
       <c r="M164" s="5"/>
       <c r="N164" s="6"/>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:14">
       <c r="A165" s="4" t="s">
         <v>330</v>
       </c>
@@ -16776,7 +16776,7 @@
       <c r="M165" s="5"/>
       <c r="N165" s="6"/>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:14">
       <c r="A166" s="4" t="s">
         <v>331</v>
       </c>
@@ -16794,7 +16794,7 @@
       <c r="M166" s="5"/>
       <c r="N166" s="6"/>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:14">
       <c r="A167" s="4" t="s">
         <v>332</v>
       </c>
@@ -16812,7 +16812,7 @@
       <c r="M167" s="5"/>
       <c r="N167" s="6"/>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:14">
       <c r="A168" s="4" t="s">
         <v>333</v>
       </c>
@@ -16830,7 +16830,7 @@
       <c r="M168" s="5"/>
       <c r="N168" s="6"/>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:14">
       <c r="A169" s="4" t="s">
         <v>209</v>
       </c>
@@ -16848,7 +16848,7 @@
       <c r="M169" s="5"/>
       <c r="N169" s="6"/>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:14">
       <c r="A170" s="4" t="s">
         <v>334</v>
       </c>
@@ -16866,7 +16866,7 @@
       <c r="M170" s="5"/>
       <c r="N170" s="6"/>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:14">
       <c r="A171" s="4" t="s">
         <v>335</v>
       </c>
@@ -16884,7 +16884,7 @@
       <c r="M171" s="5"/>
       <c r="N171" s="6"/>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:14">
       <c r="A172" s="4" t="s">
         <v>336</v>
       </c>
@@ -16902,7 +16902,7 @@
       <c r="M172" s="5"/>
       <c r="N172" s="6"/>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:14">
       <c r="A173" s="4" t="s">
         <v>337</v>
       </c>
@@ -16920,7 +16920,7 @@
       <c r="M173" s="5"/>
       <c r="N173" s="6"/>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:14">
       <c r="A174" s="4" t="s">
         <v>338</v>
       </c>
@@ -16938,7 +16938,7 @@
       <c r="M174" s="5"/>
       <c r="N174" s="6"/>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:14">
       <c r="A175" s="4" t="s">
         <v>339</v>
       </c>
@@ -16956,7 +16956,7 @@
       <c r="M175" s="5"/>
       <c r="N175" s="6"/>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:14">
       <c r="A176" s="4" t="s">
         <v>340</v>
       </c>
@@ -16974,7 +16974,7 @@
       <c r="M176" s="5"/>
       <c r="N176" s="6"/>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:14">
       <c r="A177" s="4" t="s">
         <v>341</v>
       </c>
@@ -16992,7 +16992,7 @@
       <c r="M177" s="5"/>
       <c r="N177" s="6"/>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:14">
       <c r="A178" s="4" t="s">
         <v>342</v>
       </c>
@@ -17010,7 +17010,7 @@
       <c r="M178" s="5"/>
       <c r="N178" s="6"/>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:14">
       <c r="A179" s="4" t="s">
         <v>343</v>
       </c>
@@ -17028,7 +17028,7 @@
       <c r="M179" s="5"/>
       <c r="N179" s="6"/>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:14">
       <c r="A180" s="4" t="s">
         <v>344</v>
       </c>
@@ -17046,7 +17046,7 @@
       <c r="M180" s="5"/>
       <c r="N180" s="6"/>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:14">
       <c r="A181" s="4" t="s">
         <v>345</v>
       </c>
@@ -17064,7 +17064,7 @@
       <c r="M181" s="5"/>
       <c r="N181" s="6"/>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:14">
       <c r="A182" s="4" t="s">
         <v>346</v>
       </c>
@@ -17082,7 +17082,7 @@
       <c r="M182" s="5"/>
       <c r="N182" s="6"/>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:14">
       <c r="A183" s="4" t="s">
         <v>347</v>
       </c>
@@ -17100,7 +17100,7 @@
       <c r="M183" s="5"/>
       <c r="N183" s="6"/>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:14">
       <c r="A184" s="4" t="s">
         <v>348</v>
       </c>
@@ -17118,7 +17118,7 @@
       <c r="M184" s="5"/>
       <c r="N184" s="6"/>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:14">
       <c r="A185" s="4" t="s">
         <v>349</v>
       </c>
@@ -17136,7 +17136,7 @@
       <c r="M185" s="5"/>
       <c r="N185" s="6"/>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:14">
       <c r="A186" s="4" t="s">
         <v>350</v>
       </c>
@@ -17154,7 +17154,7 @@
       <c r="M186" s="5"/>
       <c r="N186" s="6"/>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:14">
       <c r="A187" s="4" t="s">
         <v>351</v>
       </c>
@@ -17172,7 +17172,7 @@
       <c r="M187" s="5"/>
       <c r="N187" s="6"/>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:14">
       <c r="A188" s="4" t="s">
         <v>352</v>
       </c>
@@ -17190,7 +17190,7 @@
       <c r="M188" s="5"/>
       <c r="N188" s="6"/>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:14">
       <c r="A189" s="4" t="s">
         <v>353</v>
       </c>
@@ -17208,7 +17208,7 @@
       <c r="M189" s="5"/>
       <c r="N189" s="6"/>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:14">
       <c r="A190" s="4" t="s">
         <v>354</v>
       </c>
@@ -17226,7 +17226,7 @@
       <c r="M190" s="5"/>
       <c r="N190" s="6"/>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:14">
       <c r="A191" s="4" t="s">
         <v>355</v>
       </c>
@@ -17244,7 +17244,7 @@
       <c r="M191" s="5"/>
       <c r="N191" s="6"/>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:14">
       <c r="A192" s="4" t="s">
         <v>356</v>
       </c>
@@ -17262,7 +17262,7 @@
       <c r="M192" s="5"/>
       <c r="N192" s="6"/>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:14">
       <c r="A193" s="4" t="s">
         <v>357</v>
       </c>
@@ -17280,7 +17280,7 @@
       <c r="M193" s="5"/>
       <c r="N193" s="6"/>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:14">
       <c r="A194" s="4" t="s">
         <v>358</v>
       </c>
@@ -17298,7 +17298,7 @@
       <c r="M194" s="5"/>
       <c r="N194" s="6"/>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:14">
       <c r="A195" s="4" t="s">
         <v>359</v>
       </c>
@@ -17316,7 +17316,7 @@
       <c r="M195" s="5"/>
       <c r="N195" s="6"/>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:14">
       <c r="A196" s="4" t="s">
         <v>360</v>
       </c>
@@ -17334,7 +17334,7 @@
       <c r="M196" s="5"/>
       <c r="N196" s="6"/>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:14">
       <c r="A197" s="4" t="s">
         <v>361</v>
       </c>
@@ -17352,7 +17352,7 @@
       <c r="M197" s="5"/>
       <c r="N197" s="6"/>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:14">
       <c r="A198" s="4" t="s">
         <v>362</v>
       </c>
@@ -17370,7 +17370,7 @@
       <c r="M198" s="5"/>
       <c r="N198" s="6"/>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:14">
       <c r="A199" s="4" t="s">
         <v>363</v>
       </c>
@@ -17388,7 +17388,7 @@
       <c r="M199" s="5"/>
       <c r="N199" s="6"/>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:14">
       <c r="A200" s="4" t="s">
         <v>362</v>
       </c>
@@ -17406,7 +17406,7 @@
       <c r="M200" s="5"/>
       <c r="N200" s="6"/>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:14">
       <c r="A201" s="4" t="s">
         <v>363</v>
       </c>
@@ -17424,7 +17424,7 @@
       <c r="M201" s="5"/>
       <c r="N201" s="6"/>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:14">
       <c r="A202" s="4" t="s">
         <v>364</v>
       </c>
@@ -17442,7 +17442,7 @@
       <c r="M202" s="5"/>
       <c r="N202" s="6"/>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:14">
       <c r="A203" s="4" t="s">
         <v>365</v>
       </c>
@@ -17460,7 +17460,7 @@
       <c r="M203" s="5"/>
       <c r="N203" s="6"/>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:14">
       <c r="A204" s="4" t="s">
         <v>366</v>
       </c>
@@ -17478,7 +17478,7 @@
       <c r="M204" s="5"/>
       <c r="N204" s="6"/>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:14">
       <c r="A205" s="4" t="s">
         <v>367</v>
       </c>
@@ -17496,7 +17496,7 @@
       <c r="M205" s="5"/>
       <c r="N205" s="6"/>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:14">
       <c r="A206" s="4" t="s">
         <v>368</v>
       </c>
@@ -17514,7 +17514,7 @@
       <c r="M206" s="5"/>
       <c r="N206" s="6"/>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:14">
       <c r="A207" s="4" t="s">
         <v>369</v>
       </c>
@@ -17532,7 +17532,7 @@
       <c r="M207" s="5"/>
       <c r="N207" s="6"/>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:14">
       <c r="A208" s="4" t="s">
         <v>370</v>
       </c>
@@ -17550,7 +17550,7 @@
       <c r="M208" s="5"/>
       <c r="N208" s="6"/>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:14">
       <c r="A209" s="4" t="s">
         <v>371</v>
       </c>
@@ -17568,7 +17568,7 @@
       <c r="M209" s="5"/>
       <c r="N209" s="6"/>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:14">
       <c r="A210" s="4" t="s">
         <v>372</v>
       </c>
@@ -17586,7 +17586,7 @@
       <c r="M210" s="5"/>
       <c r="N210" s="6"/>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:14">
       <c r="A211" s="4" t="s">
         <v>373</v>
       </c>
@@ -17604,7 +17604,7 @@
       <c r="M211" s="5"/>
       <c r="N211" s="6"/>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:14">
       <c r="A212" s="4" t="s">
         <v>374</v>
       </c>
@@ -17622,7 +17622,7 @@
       <c r="M212" s="5"/>
       <c r="N212" s="6"/>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:14">
       <c r="A213" s="4" t="s">
         <v>375</v>
       </c>
@@ -17640,7 +17640,7 @@
       <c r="M213" s="5"/>
       <c r="N213" s="6"/>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:14">
       <c r="A214" s="4" t="s">
         <v>376</v>
       </c>
@@ -17658,7 +17658,7 @@
       <c r="M214" s="5"/>
       <c r="N214" s="6"/>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:14">
       <c r="A215" s="4" t="s">
         <v>377</v>
       </c>
@@ -17676,7 +17676,7 @@
       <c r="M215" s="5"/>
       <c r="N215" s="6"/>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:14">
       <c r="A216" s="4" t="s">
         <v>378</v>
       </c>
@@ -17694,7 +17694,7 @@
       <c r="M216" s="5"/>
       <c r="N216" s="6"/>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:14">
       <c r="A217" s="4" t="s">
         <v>379</v>
       </c>
@@ -17712,7 +17712,7 @@
       <c r="M217" s="5"/>
       <c r="N217" s="6"/>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:14">
       <c r="A218" s="4" t="s">
         <v>380</v>
       </c>
@@ -17730,7 +17730,7 @@
       <c r="M218" s="5"/>
       <c r="N218" s="6"/>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:14">
       <c r="A219" s="4" t="s">
         <v>381</v>
       </c>
@@ -17748,7 +17748,7 @@
       <c r="M219" s="5"/>
       <c r="N219" s="6"/>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:14">
       <c r="A220" s="4" t="s">
         <v>382</v>
       </c>
@@ -17766,7 +17766,7 @@
       <c r="M220" s="5"/>
       <c r="N220" s="6"/>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:14">
       <c r="A221" s="4" t="s">
         <v>383</v>
       </c>
@@ -17784,7 +17784,7 @@
       <c r="M221" s="5"/>
       <c r="N221" s="6"/>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:14">
       <c r="A222" s="4" t="s">
         <v>384</v>
       </c>
@@ -17802,7 +17802,7 @@
       <c r="M222" s="5"/>
       <c r="N222" s="6"/>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:14">
       <c r="A223" s="4" t="s">
         <v>385</v>
       </c>
@@ -17820,7 +17820,7 @@
       <c r="M223" s="5"/>
       <c r="N223" s="6"/>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:14">
       <c r="A224" s="4" t="s">
         <v>386</v>
       </c>
@@ -17838,7 +17838,7 @@
       <c r="M224" s="5"/>
       <c r="N224" s="6"/>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:14">
       <c r="A225" s="4" t="s">
         <v>387</v>
       </c>
@@ -17856,7 +17856,7 @@
       <c r="M225" s="5"/>
       <c r="N225" s="6"/>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:14">
       <c r="A226" s="4" t="s">
         <v>388</v>
       </c>
@@ -17874,7 +17874,7 @@
       <c r="M226" s="5"/>
       <c r="N226" s="6"/>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:14">
       <c r="A227" s="4" t="s">
         <v>389</v>
       </c>
@@ -17892,7 +17892,7 @@
       <c r="M227" s="5"/>
       <c r="N227" s="6"/>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:14">
       <c r="A228" s="4" t="s">
         <v>390</v>
       </c>
@@ -17910,7 +17910,7 @@
       <c r="M228" s="5"/>
       <c r="N228" s="6"/>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:14">
       <c r="A229" s="4" t="s">
         <v>391</v>
       </c>
@@ -17928,7 +17928,7 @@
       <c r="M229" s="5"/>
       <c r="N229" s="6"/>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:14">
       <c r="A230" s="4" t="s">
         <v>392</v>
       </c>
@@ -17946,7 +17946,7 @@
       <c r="M230" s="5"/>
       <c r="N230" s="6"/>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:14">
       <c r="A231" s="4" t="s">
         <v>393</v>
       </c>
@@ -17964,7 +17964,7 @@
       <c r="M231" s="5"/>
       <c r="N231" s="6"/>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:14">
       <c r="A232" s="4" t="s">
         <v>394</v>
       </c>
@@ -17982,7 +17982,7 @@
       <c r="M232" s="5"/>
       <c r="N232" s="6"/>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:14">
       <c r="A233" s="4" t="s">
         <v>395</v>
       </c>
@@ -18000,7 +18000,7 @@
       <c r="M233" s="5"/>
       <c r="N233" s="6"/>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:14">
       <c r="A234" s="4" t="s">
         <v>396</v>
       </c>
@@ -18018,7 +18018,7 @@
       <c r="M234" s="5"/>
       <c r="N234" s="6"/>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:14">
       <c r="A235" s="4" t="s">
         <v>397</v>
       </c>
@@ -18036,7 +18036,7 @@
       <c r="M235" s="5"/>
       <c r="N235" s="6"/>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:14">
       <c r="A236" s="4" t="s">
         <v>398</v>
       </c>
@@ -18054,7 +18054,7 @@
       <c r="M236" s="5"/>
       <c r="N236" s="6"/>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:14">
       <c r="A237" s="4" t="s">
         <v>399</v>
       </c>
@@ -18072,7 +18072,7 @@
       <c r="M237" s="5"/>
       <c r="N237" s="6"/>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:14">
       <c r="A238" s="4" t="s">
         <v>400</v>
       </c>
@@ -18090,7 +18090,7 @@
       <c r="M238" s="5"/>
       <c r="N238" s="6"/>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:14">
       <c r="A239" s="4" t="s">
         <v>401</v>
       </c>
@@ -18108,7 +18108,7 @@
       <c r="M239" s="5"/>
       <c r="N239" s="6"/>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:14">
       <c r="A240" s="4" t="s">
         <v>402</v>
       </c>
@@ -18126,7 +18126,7 @@
       <c r="M240" s="5"/>
       <c r="N240" s="6"/>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:14">
       <c r="A241" s="4" t="s">
         <v>403</v>
       </c>
@@ -18144,7 +18144,7 @@
       <c r="M241" s="5"/>
       <c r="N241" s="6"/>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:14">
       <c r="A242" s="4" t="s">
         <v>404</v>
       </c>
@@ -18162,7 +18162,7 @@
       <c r="M242" s="5"/>
       <c r="N242" s="6"/>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:14">
       <c r="A243" s="4" t="s">
         <v>405</v>
       </c>
@@ -18180,7 +18180,7 @@
       <c r="M243" s="5"/>
       <c r="N243" s="6"/>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:14">
       <c r="A244" s="4" t="s">
         <v>406</v>
       </c>
@@ -18198,7 +18198,7 @@
       <c r="M244" s="5"/>
       <c r="N244" s="6"/>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:14">
       <c r="A245" s="4" t="s">
         <v>317</v>
       </c>
@@ -18216,7 +18216,7 @@
       <c r="M245" s="5"/>
       <c r="N245" s="6"/>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:14">
       <c r="A246" s="4" t="s">
         <v>407</v>
       </c>
@@ -18234,7 +18234,7 @@
       <c r="M246" s="5"/>
       <c r="N246" s="6"/>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:14">
       <c r="A247" s="4" t="s">
         <v>408</v>
       </c>
@@ -18252,7 +18252,7 @@
       <c r="M247" s="5"/>
       <c r="N247" s="6"/>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:14">
       <c r="A248" s="4" t="s">
         <v>409</v>
       </c>
@@ -18270,7 +18270,7 @@
       <c r="M248" s="5"/>
       <c r="N248" s="6"/>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:14">
       <c r="A249" s="4" t="s">
         <v>410</v>
       </c>
@@ -18288,7 +18288,7 @@
       <c r="M249" s="5"/>
       <c r="N249" s="6"/>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:14">
       <c r="A250" s="4" t="s">
         <v>411</v>
       </c>
@@ -18306,7 +18306,7 @@
       <c r="M250" s="5"/>
       <c r="N250" s="6"/>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:14">
       <c r="A251" s="4" t="s">
         <v>412</v>
       </c>
@@ -18324,7 +18324,7 @@
       <c r="M251" s="5"/>
       <c r="N251" s="6"/>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:14">
       <c r="A252" s="4" t="s">
         <v>413</v>
       </c>
@@ -18342,7 +18342,7 @@
       <c r="M252" s="5"/>
       <c r="N252" s="6"/>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:14">
       <c r="A253" s="4" t="s">
         <v>414</v>
       </c>
@@ -18360,7 +18360,7 @@
       <c r="M253" s="5"/>
       <c r="N253" s="6"/>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:14">
       <c r="A254" s="4" t="s">
         <v>415</v>
       </c>
@@ -18378,7 +18378,7 @@
       <c r="M254" s="5"/>
       <c r="N254" s="6"/>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:14">
       <c r="A255" s="4" t="s">
         <v>416</v>
       </c>
@@ -18396,7 +18396,7 @@
       <c r="M255" s="5"/>
       <c r="N255" s="6"/>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:14">
       <c r="A256" s="4" t="s">
         <v>417</v>
       </c>
@@ -18414,7 +18414,7 @@
       <c r="M256" s="5"/>
       <c r="N256" s="6"/>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:14">
       <c r="A257" s="4" t="s">
         <v>418</v>
       </c>
@@ -18432,7 +18432,7 @@
       <c r="M257" s="5"/>
       <c r="N257" s="6"/>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:14">
       <c r="A258" s="4" t="s">
         <v>209</v>
       </c>
@@ -18450,7 +18450,7 @@
       <c r="M258" s="5"/>
       <c r="N258" s="6"/>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:14">
       <c r="A259" s="4" t="s">
         <v>419</v>
       </c>
@@ -18468,7 +18468,7 @@
       <c r="M259" s="5"/>
       <c r="N259" s="6"/>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:14">
       <c r="A260" s="4" t="s">
         <v>420</v>
       </c>
@@ -18486,7 +18486,7 @@
       <c r="M260" s="5"/>
       <c r="N260" s="6"/>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:14">
       <c r="A261" s="4" t="s">
         <v>421</v>
       </c>
@@ -18504,7 +18504,7 @@
       <c r="M261" s="5"/>
       <c r="N261" s="6"/>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:14">
       <c r="A262" s="4" t="s">
         <v>422</v>
       </c>
@@ -18522,7 +18522,7 @@
       <c r="M262" s="5"/>
       <c r="N262" s="6"/>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:14">
       <c r="A263" s="4" t="s">
         <v>62</v>
       </c>
@@ -18540,7 +18540,7 @@
       <c r="M263" s="5"/>
       <c r="N263" s="6"/>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:14">
       <c r="A264" s="4" t="s">
         <v>423</v>
       </c>
@@ -18558,7 +18558,7 @@
       <c r="M264" s="5"/>
       <c r="N264" s="6"/>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:14">
       <c r="A265" s="4"/>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
@@ -18574,7 +18574,7 @@
       <c r="M265" s="5"/>
       <c r="N265" s="6"/>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:14">
       <c r="A266" s="7" t="s">
         <v>37</v>
       </c>
@@ -18607,14 +18607,14 @@
       <selection activeCell="O7" sqref="O7:U18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
         <v>424</v>
       </c>
@@ -18630,7 +18630,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21">
       <c r="A3" s="4" t="s">
         <v>39</v>
       </c>
@@ -18646,7 +18646,7 @@
       <c r="K3" s="5"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" s="4" t="s">
         <v>425</v>
       </c>
@@ -18662,7 +18662,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" s="4" t="s">
         <v>426</v>
       </c>
@@ -18678,7 +18678,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" s="4" t="s">
         <v>427</v>
       </c>
@@ -18694,7 +18694,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" s="4" t="s">
         <v>428</v>
       </c>
@@ -18719,7 +18719,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="3"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" s="4" t="s">
         <v>429</v>
       </c>
@@ -18744,7 +18744,7 @@
       <c r="T8" s="5"/>
       <c r="U8" s="6"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" s="4" t="s">
         <v>430</v>
       </c>
@@ -18769,7 +18769,7 @@
       <c r="T9" s="5"/>
       <c r="U9" s="6"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" s="4" t="s">
         <v>431</v>
       </c>
@@ -18794,7 +18794,7 @@
       <c r="T10" s="5"/>
       <c r="U10" s="6"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" s="4" t="s">
         <v>432</v>
       </c>
@@ -18819,7 +18819,7 @@
       <c r="T11" s="5"/>
       <c r="U11" s="6"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" s="4" t="s">
         <v>433</v>
       </c>
@@ -18844,7 +18844,7 @@
       <c r="T12" s="5"/>
       <c r="U12" s="6"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" s="4" t="s">
         <v>434</v>
       </c>
@@ -18869,7 +18869,7 @@
       <c r="T13" s="5"/>
       <c r="U13" s="6"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" s="4" t="s">
         <v>435</v>
       </c>
@@ -18894,7 +18894,7 @@
       <c r="T14" s="5"/>
       <c r="U14" s="6"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" s="4" t="s">
         <v>62</v>
       </c>
@@ -18919,7 +18919,7 @@
       <c r="T15" s="5"/>
       <c r="U15" s="6"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -18942,7 +18942,7 @@
       <c r="T16" s="5"/>
       <c r="U16" s="6"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" s="7" t="s">
         <v>37</v>
       </c>
@@ -18967,7 +18967,7 @@
       <c r="T17" s="5"/>
       <c r="U17" s="6"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="O18" s="7" t="s">
         <v>458</v>
       </c>
@@ -18978,7 +18978,7 @@
       <c r="T18" s="8"/>
       <c r="U18" s="9"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" s="1" t="s">
         <v>436</v>
       </c>
@@ -18994,7 +18994,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" s="4" t="s">
         <v>39</v>
       </c>
@@ -19010,7 +19010,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" s="4" t="s">
         <v>437</v>
       </c>
@@ -19026,7 +19026,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -19040,7 +19040,7 @@
       <c r="K22" s="5"/>
       <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21">
       <c r="A23" s="4" t="s">
         <v>438</v>
       </c>
@@ -19056,7 +19056,7 @@
       <c r="K23" s="5"/>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="A24" s="4" t="s">
         <v>426</v>
       </c>
@@ -19072,7 +19072,7 @@
       <c r="K24" s="5"/>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21">
       <c r="A25" s="4" t="s">
         <v>439</v>
       </c>
@@ -19088,7 +19088,7 @@
       <c r="K25" s="5"/>
       <c r="L25" s="6"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21">
       <c r="A26" s="4" t="s">
         <v>440</v>
       </c>
@@ -19104,7 +19104,7 @@
       <c r="K26" s="5"/>
       <c r="L26" s="6"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21">
       <c r="A27" s="4" t="s">
         <v>441</v>
       </c>
@@ -19120,7 +19120,7 @@
       <c r="K27" s="5"/>
       <c r="L27" s="6"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21">
       <c r="A28" s="4" t="s">
         <v>428</v>
       </c>
@@ -19136,7 +19136,7 @@
       <c r="K28" s="5"/>
       <c r="L28" s="6"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21">
       <c r="A29" s="4" t="s">
         <v>442</v>
       </c>
@@ -19152,7 +19152,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="6"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21">
       <c r="A30" s="4" t="s">
         <v>430</v>
       </c>
@@ -19168,7 +19168,7 @@
       <c r="K30" s="5"/>
       <c r="L30" s="6"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21">
       <c r="A31" s="4" t="s">
         <v>443</v>
       </c>
@@ -19184,7 +19184,7 @@
       <c r="K31" s="5"/>
       <c r="L31" s="6"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21">
       <c r="A32" s="4" t="s">
         <v>432</v>
       </c>
@@ -19200,7 +19200,7 @@
       <c r="K32" s="5"/>
       <c r="L32" s="6"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12">
       <c r="A33" s="4" t="s">
         <v>444</v>
       </c>
@@ -19216,7 +19216,7 @@
       <c r="K33" s="5"/>
       <c r="L33" s="6"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12">
       <c r="A34" s="4" t="s">
         <v>434</v>
       </c>
@@ -19232,7 +19232,7 @@
       <c r="K34" s="5"/>
       <c r="L34" s="6"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12">
       <c r="A35" s="4" t="s">
         <v>445</v>
       </c>
@@ -19248,7 +19248,7 @@
       <c r="K35" s="5"/>
       <c r="L35" s="6"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12">
       <c r="A36" s="4" t="s">
         <v>62</v>
       </c>
@@ -19264,7 +19264,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="6"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12">
       <c r="A37" s="4" t="s">
         <v>446</v>
       </c>
@@ -19280,7 +19280,7 @@
       <c r="K37" s="5"/>
       <c r="L37" s="6"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -19294,7 +19294,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="6"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12">
       <c r="A39" s="7" t="s">
         <v>37</v>
       </c>
